--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_192.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_192.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54673EC1-DB64-4007-916F-AA28C0C4C127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{654F0BA6-7667-4618-BF9F-F9B0EA67CBE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2573" yWindow="2573" windowWidth="21600" windowHeight="12682" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
   <sheets>
     <sheet name="ev_charging_uc" sheetId="9" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3095" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3107" uniqueCount="410">
   <si>
     <t>UC_N</t>
   </si>
@@ -1245,10 +1245,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>Rah09,Rah11,Rc0416h15,Sah11,Se0716h16,Tah14,Tg1016h10,Wah10,Wah14,Wb0121h08,Wb0121h18,Rah18,Rc0416h11,Wb0121h13,Rc0416h12,Se0716h10,Tg1016h07,Wah11,Rc0416h18,Se0716h14,Tah07,Tah12,Tg1016h12,Wah17,Rah17,Rc0416h10,Se0716h07,Tah11,Wb0121h12,Rah12,Rah14,Rc0416h13,Tah13,Tg1016h18,Wah12,Rc0416h09,Sah07,Tah16,Tah18,Wah15,Wb0121h14,Wb0121h16,Rc0416h14,Rc0416h17,Sah10,Se0716h18,Tah09,Tg1016h11,Sah15,Se0716h08,Se0716h13,Tg1016h09,Wah13,Rah08,Rah10,Rc0416h16,Sah14,Sah17,Sah18,Se0716h12,Tah15,Tg1016h08,Wah08,Wah18,Sah12,Se0716h09,Se0716h11,Tah10,Wb0121h11,Rah16,Sah08,Tah17,Wb0121h15,Wb0121h17,Rah07,Rc0416h08,Se0716h15,Se0716h17,Tg1016h14,Tg1016h15,Tg1016h16,Tg1016h17,Wah09,Wb0121h10,Rah15,Sah09,Rc0416h07,Sah13,Sah16,Tg1016h13,Wah07,Wah16,Wb0121h09,Rah13,Tah08,Wb0121h07</t>
-  </si>
-  <si>
-    <t>Rc0416h19,Sah01,Tah21,Tg1016h05,Wb0121h05,Wb0121h24,Sah04,Se0716h24,Tah02,Tah05,Tg1016h03,Tg1016h04,Wah05,Rc0416h03,Rc0416h21,Se0716h19,Tah03,Tah04,Wah04,Rah19,Se0716h01,Se0716h03,Se0716h05,Tah01,Tah19,Tah22,Sah23,Sah24,Se0716h04,Tg1016h01,Wah02,Wah19,Wb0121h01,Rah22,Sah02,Sah06,Tah23,Wb0121h19,Wb0121h22,Rah03,Rc0416h02,Wah21,Rah05,Rc0416h06,Rc0416h22,Rc0416h23,Sah20,Sah21,Sah22,Se0716h21,Tg1016h24,Wah20,Wb0121h21,Wb0121h23,Se0716h23,Tg1016h19,Tg1016h21,Wah03,Rah02,Rah20,Wah01,Tah20,Tg1016h23,Wah24,Wb0121h02,Wb0121h06,Rc0416h05,Se0716h06,Tg1016h06,Wb0121h03,Wb0121h04,Rah23,Rah24,Sah03,Sah05,Sah19,Wah22,Rah06,Rah21,Rc0416h24,Tah24,Tg1016h20,Rah01,Rah04,Rc0416h01,Rc0416h04,Se0716h02,Se0716h20,Tah06,Wah23,Wb0121h20,Rc0416h20,Se0716h22,Tg1016h02,Tg1016h22,Wah06</t>
+    <t>Rc0416h07,Sah13,Sah16,Tg1016h13,Wah07,Wah16,Wb0121h09,Rah13,Tah08,Wb0121h07,Rah18,Rc0416h11,Wb0121h13,Rah09,Rah11,Rc0416h15,Sah11,Se0716h16,Tah14,Tg1016h10,Wah10,Wah14,Wb0121h08,Wb0121h18,Rah08,Rah10,Rc0416h16,Sah14,Sah17,Sah18,Se0716h12,Tah15,Tg1016h08,Wah08,Wah18,Rah12,Rah14,Rc0416h13,Tah13,Tg1016h18,Wah12,Rc0416h14,Rc0416h17,Sah10,Se0716h18,Tah09,Tg1016h11,Sah12,Se0716h09,Se0716h11,Tah10,Wb0121h11,Rah17,Rc0416h10,Se0716h07,Tah11,Wb0121h12,Rah16,Sah08,Tah17,Wb0121h15,Wb0121h17,Rc0416h12,Se0716h10,Tg1016h07,Wah11,Rah07,Rc0416h08,Se0716h15,Se0716h17,Tg1016h14,Tg1016h15,Tg1016h16,Tg1016h17,Wah09,Wb0121h10,Rc0416h18,Se0716h14,Tah07,Tah12,Tg1016h12,Wah17,Rah15,Sah09,Sah15,Se0716h08,Se0716h13,Tg1016h09,Wah13,Rc0416h09,Sah07,Tah16,Tah18,Wah15,Wb0121h14,Wb0121h16</t>
+  </si>
+  <si>
+    <t>Rah01,Rah04,Rc0416h01,Rc0416h04,Se0716h02,Se0716h20,Tah06,Wah23,Wb0121h20,Rc0416h20,Se0716h22,Tg1016h02,Tg1016h22,Wah06,Sah04,Se0716h24,Tah02,Tah05,Tg1016h03,Tg1016h04,Wah05,Rc0416h19,Sah01,Tah21,Tg1016h05,Wb0121h05,Wb0121h24,Rah02,Rah20,Wah01,Rah22,Sah02,Sah06,Tah23,Wb0121h19,Wb0121h22,Rah05,Rc0416h06,Rc0416h22,Rc0416h23,Sah20,Sah21,Sah22,Se0716h21,Tg1016h24,Wah20,Wb0121h21,Wb0121h23,Tah20,Tg1016h23,Wah24,Wb0121h02,Wb0121h06,Sah23,Sah24,Se0716h04,Tg1016h01,Wah02,Wah19,Wb0121h01,Rc0416h05,Se0716h06,Tg1016h06,Wb0121h03,Wb0121h04,Rc0416h03,Rc0416h21,Se0716h19,Tah03,Tah04,Wah04,Rah23,Rah24,Sah03,Sah05,Sah19,Wah22,Rah19,Se0716h01,Se0716h03,Se0716h05,Tah01,Tah19,Tah22,Rah06,Rah21,Rc0416h24,Tah24,Tg1016h20,Se0716h23,Tg1016h19,Tg1016h21,Wah03,Rah03,Rc0416h02,Wah21</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1258,6 +1258,18 @@
   </si>
   <si>
     <t>com_pkflx</t>
+  </si>
+  <si>
+    <t>ncap_afs</t>
+  </si>
+  <si>
+    <t>pset_ci</t>
+  </si>
+  <si>
+    <t>hydro</t>
+  </si>
+  <si>
+    <t>~TFM_INS-AT</t>
   </si>
 </sst>
 </file>
@@ -1807,7 +1819,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>Rc0416h19,Sah01,Tah21,Tg1016h05,Wb0121h05,Wb0121h24,Sah04,Se0716h24,Tah02,Tah05,Tg1016h03,Tg1016h04,Wah05,Rc0416h03,Rc0416h21,Se0716h19,Tah03,Tah04,Wah04,Rah19,Se0716h01,Se0716h03,Se0716h05,Tah01,Tah19,Tah22,Sah23,Sah24,Se0716h04,Tg1016h01,Wah02,Wah19,Wb0121h01,Rah22,Sah02,Sah06,Tah23,Wb0121h19,Wb0121h22,Rah03,Rc0416h02,Wah21,Rah05,Rc0416h06,Rc0416h22,Rc0416h23,Sah20,Sah21,Sah22,Se0716h21,Tg1016h24,Wah20,Wb0121h21,Wb0121h23,Se0716h23,Tg1016h19,Tg1016h21,Wah03,Rah02,Rah20,Wah01,Tah20,Tg1016h23,Wah24,Wb0121h02,Wb0121h06,Rc0416h05,Se0716h06,Tg1016h06,Wb0121h03,Wb0121h04,Rah23,Rah24,Sah03,Sah05,Sah19,Wah22,Rah06,Rah21,Rc0416h24,Tah24,Tg1016h20,Rah01,Rah04,Rc0416h01,Rc0416h04,Se0716h02,Se0716h20,Tah06,Wah23,Wb0121h20,Rc0416h20,Se0716h22,Tg1016h02,Tg1016h22,Wah06</v>
+        <v>Rah01,Rah04,Rc0416h01,Rc0416h04,Se0716h02,Se0716h20,Tah06,Wah23,Wb0121h20,Rc0416h20,Se0716h22,Tg1016h02,Tg1016h22,Wah06,Sah04,Se0716h24,Tah02,Tah05,Tg1016h03,Tg1016h04,Wah05,Rc0416h19,Sah01,Tah21,Tg1016h05,Wb0121h05,Wb0121h24,Rah02,Rah20,Wah01,Rah22,Sah02,Sah06,Tah23,Wb0121h19,Wb0121h22,Rah05,Rc0416h06,Rc0416h22,Rc0416h23,Sah20,Sah21,Sah22,Se0716h21,Tg1016h24,Wah20,Wb0121h21,Wb0121h23,Tah20,Tg1016h23,Wah24,Wb0121h02,Wb0121h06,Sah23,Sah24,Se0716h04,Tg1016h01,Wah02,Wah19,Wb0121h01,Rc0416h05,Se0716h06,Tg1016h06,Wb0121h03,Wb0121h04,Rc0416h03,Rc0416h21,Se0716h19,Tah03,Tah04,Wah04,Rah23,Rah24,Sah03,Sah05,Sah19,Wah22,Rah19,Se0716h01,Se0716h03,Se0716h05,Tah01,Tah19,Tah22,Rah06,Rah21,Rc0416h24,Tah24,Tg1016h20,Se0716h23,Tg1016h19,Tg1016h21,Wah03,Rah03,Rc0416h02,Wah21</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1839,7 +1851,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>Rah09,Rah11,Rc0416h15,Sah11,Se0716h16,Tah14,Tg1016h10,Wah10,Wah14,Wb0121h08,Wb0121h18,Rah18,Rc0416h11,Wb0121h13,Rc0416h12,Se0716h10,Tg1016h07,Wah11,Rc0416h18,Se0716h14,Tah07,Tah12,Tg1016h12,Wah17,Rah17,Rc0416h10,Se0716h07,Tah11,Wb0121h12,Rah12,Rah14,Rc0416h13,Tah13,Tg1016h18,Wah12,Rc0416h09,Sah07,Tah16,Tah18,Wah15,Wb0121h14,Wb0121h16,Rc0416h14,Rc0416h17,Sah10,Se0716h18,Tah09,Tg1016h11,Sah15,Se0716h08,Se0716h13,Tg1016h09,Wah13,Rah08,Rah10,Rc0416h16,Sah14,Sah17,Sah18,Se0716h12,Tah15,Tg1016h08,Wah08,Wah18,Sah12,Se0716h09,Se0716h11,Tah10,Wb0121h11,Rah16,Sah08,Tah17,Wb0121h15,Wb0121h17,Rah07,Rc0416h08,Se0716h15,Se0716h17,Tg1016h14,Tg1016h15,Tg1016h16,Tg1016h17,Wah09,Wb0121h10,Rah15,Sah09,Rc0416h07,Sah13,Sah16,Tg1016h13,Wah07,Wah16,Wb0121h09,Rah13,Tah08,Wb0121h07</v>
+        <v>Rc0416h07,Sah13,Sah16,Tg1016h13,Wah07,Wah16,Wb0121h09,Rah13,Tah08,Wb0121h07,Rah18,Rc0416h11,Wb0121h13,Rah09,Rah11,Rc0416h15,Sah11,Se0716h16,Tah14,Tg1016h10,Wah10,Wah14,Wb0121h08,Wb0121h18,Rah08,Rah10,Rc0416h16,Sah14,Sah17,Sah18,Se0716h12,Tah15,Tg1016h08,Wah08,Wah18,Rah12,Rah14,Rc0416h13,Tah13,Tg1016h18,Wah12,Rc0416h14,Rc0416h17,Sah10,Se0716h18,Tah09,Tg1016h11,Sah12,Se0716h09,Se0716h11,Tah10,Wb0121h11,Rah17,Rc0416h10,Se0716h07,Tah11,Wb0121h12,Rah16,Sah08,Tah17,Wb0121h15,Wb0121h17,Rc0416h12,Se0716h10,Tg1016h07,Wah11,Rah07,Rc0416h08,Se0716h15,Se0716h17,Tg1016h14,Tg1016h15,Tg1016h16,Tg1016h17,Wah09,Wb0121h10,Rc0416h18,Se0716h14,Tah07,Tah12,Tg1016h12,Wah17,Rah15,Sah09,Sah15,Se0716h08,Se0716h13,Tg1016h09,Wah13,Rc0416h09,Sah07,Tah16,Tah18,Wah15,Wb0121h14,Wb0121h16</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2452,7 +2464,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E52A4D55-9C95-42D2-AD8F-20DD16631DA6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE8B561B-8E7E-4940-9740-732732CF265A}">
   <dimension ref="B2:F123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3489,22 +3501,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03E7F95-4581-4246-B09A-F5D239D47FB7}">
-  <dimension ref="B2:K195"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{744BE8E4-3720-4C12-9149-05F50B31A15C}">
+  <dimension ref="B2:O195"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>396</v>
       </c>
       <c r="H2" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="M2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>70</v>
       </c>
@@ -3529,8 +3544,17 @@
       <c r="K3" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="M3" t="s">
+        <v>70</v>
+      </c>
+      <c r="N3" t="s">
+        <v>406</v>
+      </c>
+      <c r="O3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>202</v>
       </c>
@@ -3555,8 +3579,17 @@
       <c r="K4" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="M4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4">
+        <v>0.22555529847292916</v>
+      </c>
+      <c r="O4" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>205</v>
       </c>
@@ -3581,8 +3614,17 @@
       <c r="K5" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="M5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5">
+        <v>0.4043961129106895</v>
+      </c>
+      <c r="O5" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>206</v>
       </c>
@@ -3607,8 +3649,17 @@
       <c r="K6" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="M6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6">
+        <v>0.30301943544655252</v>
+      </c>
+      <c r="O6" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>207</v>
       </c>
@@ -3633,8 +3684,17 @@
       <c r="K7" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="M7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N7">
+        <v>0.26702915316982878</v>
+      </c>
+      <c r="O7" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>208</v>
       </c>
@@ -3660,7 +3720,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>209</v>
       </c>
@@ -3686,7 +3746,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>210</v>
       </c>
@@ -3712,7 +3772,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>211</v>
       </c>
@@ -3738,7 +3798,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>212</v>
       </c>
@@ -3764,7 +3824,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>213</v>
       </c>
@@ -3790,7 +3850,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>214</v>
       </c>
@@ -3816,7 +3876,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>215</v>
       </c>
@@ -3842,7 +3902,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>216</v>
       </c>
@@ -8528,7 +8588,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C86F9CD-7C5B-4E4F-A8AE-5C01B59D9795}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CE85AA7-49C9-40EF-9028-708C871A2E17}">
   <dimension ref="B2:O371"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_192.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_192.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{654F0BA6-7667-4618-BF9F-F9B0EA67CBE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93D0548-0143-4B4C-8EDA-02779104E914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1245,10 +1245,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>Rc0416h07,Sah13,Sah16,Tg1016h13,Wah07,Wah16,Wb0121h09,Rah13,Tah08,Wb0121h07,Rah18,Rc0416h11,Wb0121h13,Rah09,Rah11,Rc0416h15,Sah11,Se0716h16,Tah14,Tg1016h10,Wah10,Wah14,Wb0121h08,Wb0121h18,Rah08,Rah10,Rc0416h16,Sah14,Sah17,Sah18,Se0716h12,Tah15,Tg1016h08,Wah08,Wah18,Rah12,Rah14,Rc0416h13,Tah13,Tg1016h18,Wah12,Rc0416h14,Rc0416h17,Sah10,Se0716h18,Tah09,Tg1016h11,Sah12,Se0716h09,Se0716h11,Tah10,Wb0121h11,Rah17,Rc0416h10,Se0716h07,Tah11,Wb0121h12,Rah16,Sah08,Tah17,Wb0121h15,Wb0121h17,Rc0416h12,Se0716h10,Tg1016h07,Wah11,Rah07,Rc0416h08,Se0716h15,Se0716h17,Tg1016h14,Tg1016h15,Tg1016h16,Tg1016h17,Wah09,Wb0121h10,Rc0416h18,Se0716h14,Tah07,Tah12,Tg1016h12,Wah17,Rah15,Sah09,Sah15,Se0716h08,Se0716h13,Tg1016h09,Wah13,Rc0416h09,Sah07,Tah16,Tah18,Wah15,Wb0121h14,Wb0121h16</t>
-  </si>
-  <si>
-    <t>Rah01,Rah04,Rc0416h01,Rc0416h04,Se0716h02,Se0716h20,Tah06,Wah23,Wb0121h20,Rc0416h20,Se0716h22,Tg1016h02,Tg1016h22,Wah06,Sah04,Se0716h24,Tah02,Tah05,Tg1016h03,Tg1016h04,Wah05,Rc0416h19,Sah01,Tah21,Tg1016h05,Wb0121h05,Wb0121h24,Rah02,Rah20,Wah01,Rah22,Sah02,Sah06,Tah23,Wb0121h19,Wb0121h22,Rah05,Rc0416h06,Rc0416h22,Rc0416h23,Sah20,Sah21,Sah22,Se0716h21,Tg1016h24,Wah20,Wb0121h21,Wb0121h23,Tah20,Tg1016h23,Wah24,Wb0121h02,Wb0121h06,Sah23,Sah24,Se0716h04,Tg1016h01,Wah02,Wah19,Wb0121h01,Rc0416h05,Se0716h06,Tg1016h06,Wb0121h03,Wb0121h04,Rc0416h03,Rc0416h21,Se0716h19,Tah03,Tah04,Wah04,Rah23,Rah24,Sah03,Sah05,Sah19,Wah22,Rah19,Se0716h01,Se0716h03,Se0716h05,Tah01,Tah19,Tah22,Rah06,Rah21,Rc0416h24,Tah24,Tg1016h20,Se0716h23,Tg1016h19,Tg1016h21,Wah03,Rah03,Rc0416h02,Wah21</t>
+    <t>Rah15,Sah09,Rah08,Rah10,Rc0416h16,Sah14,Sah17,Sah18,Se0716h12,Tah15,Tg1016h08,Wah08,Wah18,Rah17,Rc0416h10,Se0716h07,Tah11,Wb0121h12,Rah07,Rc0416h08,Se0716h15,Se0716h17,Tg1016h14,Tg1016h15,Tg1016h16,Tg1016h17,Wah09,Wb0121h10,Sah15,Se0716h08,Se0716h13,Tg1016h09,Wah13,Rc0416h18,Se0716h14,Tah07,Tah12,Tg1016h12,Wah17,Rah18,Rc0416h11,Wb0121h13,Rah12,Rah14,Rc0416h13,Tah13,Tg1016h18,Wah12,Sah12,Se0716h09,Se0716h11,Tah10,Wb0121h11,Rah13,Tah08,Wb0121h07,Rc0416h09,Sah07,Tah16,Tah18,Wah15,Wb0121h14,Wb0121h16,Rah09,Rah11,Rc0416h15,Sah11,Se0716h16,Tah14,Tg1016h10,Wah10,Wah14,Wb0121h08,Wb0121h18,Rc0416h14,Rc0416h17,Sah10,Se0716h18,Tah09,Tg1016h11,Rc0416h07,Sah13,Sah16,Tg1016h13,Wah07,Wah16,Wb0121h09,Rc0416h12,Se0716h10,Tg1016h07,Wah11,Rah16,Sah08,Tah17,Wb0121h15,Wb0121h17</t>
+  </si>
+  <si>
+    <t>Rah06,Rah21,Rc0416h24,Tah24,Tg1016h20,Rah02,Rah20,Wah01,Sah23,Sah24,Se0716h04,Tg1016h01,Wah02,Wah19,Wb0121h01,Rah23,Rah24,Sah03,Sah05,Sah19,Wah22,Se0716h23,Tg1016h19,Tg1016h21,Wah03,Rah19,Se0716h01,Se0716h03,Se0716h05,Tah01,Tah19,Tah22,Sah04,Se0716h24,Tah02,Tah05,Tg1016h03,Tg1016h04,Wah05,Rah22,Sah02,Sah06,Tah23,Wb0121h19,Wb0121h22,Tah20,Tg1016h23,Wah24,Wb0121h02,Wb0121h06,Rc0416h20,Se0716h22,Tg1016h02,Tg1016h22,Wah06,Rah03,Rc0416h02,Wah21,Rc0416h19,Sah01,Tah21,Tg1016h05,Wb0121h05,Wb0121h24,Rah05,Rc0416h06,Rc0416h22,Rc0416h23,Sah20,Sah21,Sah22,Se0716h21,Tg1016h24,Wah20,Wb0121h21,Wb0121h23,Rah01,Rah04,Rc0416h01,Rc0416h04,Se0716h02,Se0716h20,Tah06,Wah23,Wb0121h20,Rc0416h03,Rc0416h21,Se0716h19,Tah03,Tah04,Wah04,Rc0416h05,Se0716h06,Tg1016h06,Wb0121h03,Wb0121h04</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>Rah01,Rah04,Rc0416h01,Rc0416h04,Se0716h02,Se0716h20,Tah06,Wah23,Wb0121h20,Rc0416h20,Se0716h22,Tg1016h02,Tg1016h22,Wah06,Sah04,Se0716h24,Tah02,Tah05,Tg1016h03,Tg1016h04,Wah05,Rc0416h19,Sah01,Tah21,Tg1016h05,Wb0121h05,Wb0121h24,Rah02,Rah20,Wah01,Rah22,Sah02,Sah06,Tah23,Wb0121h19,Wb0121h22,Rah05,Rc0416h06,Rc0416h22,Rc0416h23,Sah20,Sah21,Sah22,Se0716h21,Tg1016h24,Wah20,Wb0121h21,Wb0121h23,Tah20,Tg1016h23,Wah24,Wb0121h02,Wb0121h06,Sah23,Sah24,Se0716h04,Tg1016h01,Wah02,Wah19,Wb0121h01,Rc0416h05,Se0716h06,Tg1016h06,Wb0121h03,Wb0121h04,Rc0416h03,Rc0416h21,Se0716h19,Tah03,Tah04,Wah04,Rah23,Rah24,Sah03,Sah05,Sah19,Wah22,Rah19,Se0716h01,Se0716h03,Se0716h05,Tah01,Tah19,Tah22,Rah06,Rah21,Rc0416h24,Tah24,Tg1016h20,Se0716h23,Tg1016h19,Tg1016h21,Wah03,Rah03,Rc0416h02,Wah21</v>
+        <v>Rah06,Rah21,Rc0416h24,Tah24,Tg1016h20,Rah02,Rah20,Wah01,Sah23,Sah24,Se0716h04,Tg1016h01,Wah02,Wah19,Wb0121h01,Rah23,Rah24,Sah03,Sah05,Sah19,Wah22,Se0716h23,Tg1016h19,Tg1016h21,Wah03,Rah19,Se0716h01,Se0716h03,Se0716h05,Tah01,Tah19,Tah22,Sah04,Se0716h24,Tah02,Tah05,Tg1016h03,Tg1016h04,Wah05,Rah22,Sah02,Sah06,Tah23,Wb0121h19,Wb0121h22,Tah20,Tg1016h23,Wah24,Wb0121h02,Wb0121h06,Rc0416h20,Se0716h22,Tg1016h02,Tg1016h22,Wah06,Rah03,Rc0416h02,Wah21,Rc0416h19,Sah01,Tah21,Tg1016h05,Wb0121h05,Wb0121h24,Rah05,Rc0416h06,Rc0416h22,Rc0416h23,Sah20,Sah21,Sah22,Se0716h21,Tg1016h24,Wah20,Wb0121h21,Wb0121h23,Rah01,Rah04,Rc0416h01,Rc0416h04,Se0716h02,Se0716h20,Tah06,Wah23,Wb0121h20,Rc0416h03,Rc0416h21,Se0716h19,Tah03,Tah04,Wah04,Rc0416h05,Se0716h06,Tg1016h06,Wb0121h03,Wb0121h04</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>Rc0416h07,Sah13,Sah16,Tg1016h13,Wah07,Wah16,Wb0121h09,Rah13,Tah08,Wb0121h07,Rah18,Rc0416h11,Wb0121h13,Rah09,Rah11,Rc0416h15,Sah11,Se0716h16,Tah14,Tg1016h10,Wah10,Wah14,Wb0121h08,Wb0121h18,Rah08,Rah10,Rc0416h16,Sah14,Sah17,Sah18,Se0716h12,Tah15,Tg1016h08,Wah08,Wah18,Rah12,Rah14,Rc0416h13,Tah13,Tg1016h18,Wah12,Rc0416h14,Rc0416h17,Sah10,Se0716h18,Tah09,Tg1016h11,Sah12,Se0716h09,Se0716h11,Tah10,Wb0121h11,Rah17,Rc0416h10,Se0716h07,Tah11,Wb0121h12,Rah16,Sah08,Tah17,Wb0121h15,Wb0121h17,Rc0416h12,Se0716h10,Tg1016h07,Wah11,Rah07,Rc0416h08,Se0716h15,Se0716h17,Tg1016h14,Tg1016h15,Tg1016h16,Tg1016h17,Wah09,Wb0121h10,Rc0416h18,Se0716h14,Tah07,Tah12,Tg1016h12,Wah17,Rah15,Sah09,Sah15,Se0716h08,Se0716h13,Tg1016h09,Wah13,Rc0416h09,Sah07,Tah16,Tah18,Wah15,Wb0121h14,Wb0121h16</v>
+        <v>Rah15,Sah09,Rah08,Rah10,Rc0416h16,Sah14,Sah17,Sah18,Se0716h12,Tah15,Tg1016h08,Wah08,Wah18,Rah17,Rc0416h10,Se0716h07,Tah11,Wb0121h12,Rah07,Rc0416h08,Se0716h15,Se0716h17,Tg1016h14,Tg1016h15,Tg1016h16,Tg1016h17,Wah09,Wb0121h10,Sah15,Se0716h08,Se0716h13,Tg1016h09,Wah13,Rc0416h18,Se0716h14,Tah07,Tah12,Tg1016h12,Wah17,Rah18,Rc0416h11,Wb0121h13,Rah12,Rah14,Rc0416h13,Tah13,Tg1016h18,Wah12,Sah12,Se0716h09,Se0716h11,Tah10,Wb0121h11,Rah13,Tah08,Wb0121h07,Rc0416h09,Sah07,Tah16,Tah18,Wah15,Wb0121h14,Wb0121h16,Rah09,Rah11,Rc0416h15,Sah11,Se0716h16,Tah14,Tg1016h10,Wah10,Wah14,Wb0121h08,Wb0121h18,Rc0416h14,Rc0416h17,Sah10,Se0716h18,Tah09,Tg1016h11,Rc0416h07,Sah13,Sah16,Tg1016h13,Wah07,Wah16,Wb0121h09,Rc0416h12,Se0716h10,Tg1016h07,Wah11,Rah16,Sah08,Tah17,Wb0121h15,Wb0121h17</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2464,7 +2464,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE8B561B-8E7E-4940-9740-732732CF265A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3641962-AEB4-4AC3-A35E-A91FAEC2C05D}">
   <dimension ref="B2:F123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3501,7 +3501,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{744BE8E4-3720-4C12-9149-05F50B31A15C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9CFD8D-5A82-4160-8F2D-18346A6F2488}">
   <dimension ref="B2:O195"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3580,10 +3580,10 @@
         <v>204</v>
       </c>
       <c r="M4" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="N4">
-        <v>0.22555529847292916</v>
+        <v>0.26702915316982878</v>
       </c>
       <c r="O4" t="s">
         <v>408</v>
@@ -3615,10 +3615,10 @@
         <v>204</v>
       </c>
       <c r="M5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="N5">
-        <v>0.4043961129106895</v>
+        <v>0.22555529847292916</v>
       </c>
       <c r="O5" t="s">
         <v>408</v>
@@ -3685,10 +3685,10 @@
         <v>204</v>
       </c>
       <c r="M7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="N7">
-        <v>0.26702915316982878</v>
+        <v>0.40439611291068944</v>
       </c>
       <c r="O7" t="s">
         <v>408</v>
@@ -8588,7 +8588,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CE85AA7-49C9-40EF-9028-708C871A2E17}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F44C0D80-1E1F-45BA-848C-D4A1778022F2}">
   <dimension ref="B2:O371"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_192.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_192.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93D0548-0143-4B4C-8EDA-02779104E914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F1CCBA-B31A-46C8-83DD-ED391367D170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1245,10 +1245,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>Rah15,Sah09,Rah08,Rah10,Rc0416h16,Sah14,Sah17,Sah18,Se0716h12,Tah15,Tg1016h08,Wah08,Wah18,Rah17,Rc0416h10,Se0716h07,Tah11,Wb0121h12,Rah07,Rc0416h08,Se0716h15,Se0716h17,Tg1016h14,Tg1016h15,Tg1016h16,Tg1016h17,Wah09,Wb0121h10,Sah15,Se0716h08,Se0716h13,Tg1016h09,Wah13,Rc0416h18,Se0716h14,Tah07,Tah12,Tg1016h12,Wah17,Rah18,Rc0416h11,Wb0121h13,Rah12,Rah14,Rc0416h13,Tah13,Tg1016h18,Wah12,Sah12,Se0716h09,Se0716h11,Tah10,Wb0121h11,Rah13,Tah08,Wb0121h07,Rc0416h09,Sah07,Tah16,Tah18,Wah15,Wb0121h14,Wb0121h16,Rah09,Rah11,Rc0416h15,Sah11,Se0716h16,Tah14,Tg1016h10,Wah10,Wah14,Wb0121h08,Wb0121h18,Rc0416h14,Rc0416h17,Sah10,Se0716h18,Tah09,Tg1016h11,Rc0416h07,Sah13,Sah16,Tg1016h13,Wah07,Wah16,Wb0121h09,Rc0416h12,Se0716h10,Tg1016h07,Wah11,Rah16,Sah08,Tah17,Wb0121h15,Wb0121h17</t>
-  </si>
-  <si>
-    <t>Rah06,Rah21,Rc0416h24,Tah24,Tg1016h20,Rah02,Rah20,Wah01,Sah23,Sah24,Se0716h04,Tg1016h01,Wah02,Wah19,Wb0121h01,Rah23,Rah24,Sah03,Sah05,Sah19,Wah22,Se0716h23,Tg1016h19,Tg1016h21,Wah03,Rah19,Se0716h01,Se0716h03,Se0716h05,Tah01,Tah19,Tah22,Sah04,Se0716h24,Tah02,Tah05,Tg1016h03,Tg1016h04,Wah05,Rah22,Sah02,Sah06,Tah23,Wb0121h19,Wb0121h22,Tah20,Tg1016h23,Wah24,Wb0121h02,Wb0121h06,Rc0416h20,Se0716h22,Tg1016h02,Tg1016h22,Wah06,Rah03,Rc0416h02,Wah21,Rc0416h19,Sah01,Tah21,Tg1016h05,Wb0121h05,Wb0121h24,Rah05,Rc0416h06,Rc0416h22,Rc0416h23,Sah20,Sah21,Sah22,Se0716h21,Tg1016h24,Wah20,Wb0121h21,Wb0121h23,Rah01,Rah04,Rc0416h01,Rc0416h04,Se0716h02,Se0716h20,Tah06,Wah23,Wb0121h20,Rc0416h03,Rc0416h21,Se0716h19,Tah03,Tah04,Wah04,Rc0416h05,Se0716h06,Tg1016h06,Wb0121h03,Wb0121h04</t>
+    <t>Rc0416h07,Sah13,Sah16,Tg1016h13,Wah07,Wah16,Wb0121h09,Rah12,Rah14,Rc0416h13,Tah13,Tg1016h18,Wah12,Sah12,Se0716h09,Se0716h11,Tah10,Wb0121h11,Rah07,Rc0416h08,Se0716h15,Se0716h17,Tg1016h14,Tg1016h15,Tg1016h16,Tg1016h17,Wah09,Wb0121h10,Rah18,Rc0416h11,Wb0121h13,Rah17,Rc0416h10,Se0716h07,Tah11,Wb0121h12,Rc0416h09,Sah07,Tah16,Tah18,Wah15,Wb0121h14,Wb0121h16,Rah09,Rah11,Rc0416h15,Sah11,Se0716h16,Tah14,Tg1016h10,Wah10,Wah14,Wb0121h08,Wb0121h18,Rah16,Sah08,Tah17,Wb0121h15,Wb0121h17,Rah15,Sah09,Rah13,Tah08,Wb0121h07,Rah08,Rah10,Rc0416h16,Sah14,Sah17,Sah18,Se0716h12,Tah15,Tg1016h08,Wah08,Wah18,Rc0416h14,Rc0416h17,Sah10,Se0716h18,Tah09,Tg1016h11,Rc0416h12,Se0716h10,Tg1016h07,Wah11,Sah15,Se0716h08,Se0716h13,Tg1016h09,Wah13,Rc0416h18,Se0716h14,Tah07,Tah12,Tg1016h12,Wah17</t>
+  </si>
+  <si>
+    <t>Rah01,Rah04,Rc0416h01,Rc0416h04,Se0716h02,Se0716h20,Tah06,Wah23,Wb0121h20,Rah22,Sah02,Sah06,Tah23,Wb0121h19,Wb0121h22,Tah20,Tg1016h23,Wah24,Wb0121h02,Wb0121h06,Rah23,Rah24,Sah03,Sah05,Sah19,Wah22,Sah04,Se0716h24,Tah02,Tah05,Tg1016h03,Tg1016h04,Wah05,Sah23,Sah24,Se0716h04,Tg1016h01,Wah02,Wah19,Wb0121h01,Rah03,Rc0416h02,Wah21,Rc0416h19,Sah01,Tah21,Tg1016h05,Wb0121h05,Wb0121h24,Rc0416h05,Se0716h06,Tg1016h06,Wb0121h03,Wb0121h04,Rah06,Rah21,Rc0416h24,Tah24,Tg1016h20,Rc0416h20,Se0716h22,Tg1016h02,Tg1016h22,Wah06,Rah02,Rah20,Wah01,Rah05,Rc0416h06,Rc0416h22,Rc0416h23,Sah20,Sah21,Sah22,Se0716h21,Tg1016h24,Wah20,Wb0121h21,Wb0121h23,Rc0416h03,Rc0416h21,Se0716h19,Tah03,Tah04,Wah04,Se0716h23,Tg1016h19,Tg1016h21,Wah03,Rah19,Se0716h01,Se0716h03,Se0716h05,Tah01,Tah19,Tah22</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>Rah06,Rah21,Rc0416h24,Tah24,Tg1016h20,Rah02,Rah20,Wah01,Sah23,Sah24,Se0716h04,Tg1016h01,Wah02,Wah19,Wb0121h01,Rah23,Rah24,Sah03,Sah05,Sah19,Wah22,Se0716h23,Tg1016h19,Tg1016h21,Wah03,Rah19,Se0716h01,Se0716h03,Se0716h05,Tah01,Tah19,Tah22,Sah04,Se0716h24,Tah02,Tah05,Tg1016h03,Tg1016h04,Wah05,Rah22,Sah02,Sah06,Tah23,Wb0121h19,Wb0121h22,Tah20,Tg1016h23,Wah24,Wb0121h02,Wb0121h06,Rc0416h20,Se0716h22,Tg1016h02,Tg1016h22,Wah06,Rah03,Rc0416h02,Wah21,Rc0416h19,Sah01,Tah21,Tg1016h05,Wb0121h05,Wb0121h24,Rah05,Rc0416h06,Rc0416h22,Rc0416h23,Sah20,Sah21,Sah22,Se0716h21,Tg1016h24,Wah20,Wb0121h21,Wb0121h23,Rah01,Rah04,Rc0416h01,Rc0416h04,Se0716h02,Se0716h20,Tah06,Wah23,Wb0121h20,Rc0416h03,Rc0416h21,Se0716h19,Tah03,Tah04,Wah04,Rc0416h05,Se0716h06,Tg1016h06,Wb0121h03,Wb0121h04</v>
+        <v>Rah01,Rah04,Rc0416h01,Rc0416h04,Se0716h02,Se0716h20,Tah06,Wah23,Wb0121h20,Rah22,Sah02,Sah06,Tah23,Wb0121h19,Wb0121h22,Tah20,Tg1016h23,Wah24,Wb0121h02,Wb0121h06,Rah23,Rah24,Sah03,Sah05,Sah19,Wah22,Sah04,Se0716h24,Tah02,Tah05,Tg1016h03,Tg1016h04,Wah05,Sah23,Sah24,Se0716h04,Tg1016h01,Wah02,Wah19,Wb0121h01,Rah03,Rc0416h02,Wah21,Rc0416h19,Sah01,Tah21,Tg1016h05,Wb0121h05,Wb0121h24,Rc0416h05,Se0716h06,Tg1016h06,Wb0121h03,Wb0121h04,Rah06,Rah21,Rc0416h24,Tah24,Tg1016h20,Rc0416h20,Se0716h22,Tg1016h02,Tg1016h22,Wah06,Rah02,Rah20,Wah01,Rah05,Rc0416h06,Rc0416h22,Rc0416h23,Sah20,Sah21,Sah22,Se0716h21,Tg1016h24,Wah20,Wb0121h21,Wb0121h23,Rc0416h03,Rc0416h21,Se0716h19,Tah03,Tah04,Wah04,Se0716h23,Tg1016h19,Tg1016h21,Wah03,Rah19,Se0716h01,Se0716h03,Se0716h05,Tah01,Tah19,Tah22</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>Rah15,Sah09,Rah08,Rah10,Rc0416h16,Sah14,Sah17,Sah18,Se0716h12,Tah15,Tg1016h08,Wah08,Wah18,Rah17,Rc0416h10,Se0716h07,Tah11,Wb0121h12,Rah07,Rc0416h08,Se0716h15,Se0716h17,Tg1016h14,Tg1016h15,Tg1016h16,Tg1016h17,Wah09,Wb0121h10,Sah15,Se0716h08,Se0716h13,Tg1016h09,Wah13,Rc0416h18,Se0716h14,Tah07,Tah12,Tg1016h12,Wah17,Rah18,Rc0416h11,Wb0121h13,Rah12,Rah14,Rc0416h13,Tah13,Tg1016h18,Wah12,Sah12,Se0716h09,Se0716h11,Tah10,Wb0121h11,Rah13,Tah08,Wb0121h07,Rc0416h09,Sah07,Tah16,Tah18,Wah15,Wb0121h14,Wb0121h16,Rah09,Rah11,Rc0416h15,Sah11,Se0716h16,Tah14,Tg1016h10,Wah10,Wah14,Wb0121h08,Wb0121h18,Rc0416h14,Rc0416h17,Sah10,Se0716h18,Tah09,Tg1016h11,Rc0416h07,Sah13,Sah16,Tg1016h13,Wah07,Wah16,Wb0121h09,Rc0416h12,Se0716h10,Tg1016h07,Wah11,Rah16,Sah08,Tah17,Wb0121h15,Wb0121h17</v>
+        <v>Rc0416h07,Sah13,Sah16,Tg1016h13,Wah07,Wah16,Wb0121h09,Rah12,Rah14,Rc0416h13,Tah13,Tg1016h18,Wah12,Sah12,Se0716h09,Se0716h11,Tah10,Wb0121h11,Rah07,Rc0416h08,Se0716h15,Se0716h17,Tg1016h14,Tg1016h15,Tg1016h16,Tg1016h17,Wah09,Wb0121h10,Rah18,Rc0416h11,Wb0121h13,Rah17,Rc0416h10,Se0716h07,Tah11,Wb0121h12,Rc0416h09,Sah07,Tah16,Tah18,Wah15,Wb0121h14,Wb0121h16,Rah09,Rah11,Rc0416h15,Sah11,Se0716h16,Tah14,Tg1016h10,Wah10,Wah14,Wb0121h08,Wb0121h18,Rah16,Sah08,Tah17,Wb0121h15,Wb0121h17,Rah15,Sah09,Rah13,Tah08,Wb0121h07,Rah08,Rah10,Rc0416h16,Sah14,Sah17,Sah18,Se0716h12,Tah15,Tg1016h08,Wah08,Wah18,Rc0416h14,Rc0416h17,Sah10,Se0716h18,Tah09,Tg1016h11,Rc0416h12,Se0716h10,Tg1016h07,Wah11,Sah15,Se0716h08,Se0716h13,Tg1016h09,Wah13,Rc0416h18,Se0716h14,Tah07,Tah12,Tg1016h12,Wah17</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2464,7 +2464,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3641962-AEB4-4AC3-A35E-A91FAEC2C05D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD51CA4-4E68-4E2E-8ABE-F7D5B93E7076}">
   <dimension ref="B2:F123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3501,7 +3501,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9CFD8D-5A82-4160-8F2D-18346A6F2488}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAC2265D-049E-4E3B-A53B-1A3F011C392E}">
   <dimension ref="B2:O195"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3580,10 +3580,10 @@
         <v>204</v>
       </c>
       <c r="M4" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="N4">
-        <v>0.26702915316982878</v>
+        <v>0.22555529847292913</v>
       </c>
       <c r="O4" t="s">
         <v>408</v>
@@ -3615,10 +3615,10 @@
         <v>204</v>
       </c>
       <c r="M5" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="N5">
-        <v>0.22555529847292916</v>
+        <v>0.40439611291068944</v>
       </c>
       <c r="O5" t="s">
         <v>408</v>
@@ -3653,7 +3653,7 @@
         <v>25</v>
       </c>
       <c r="N6">
-        <v>0.30301943544655252</v>
+        <v>0.30301943544655247</v>
       </c>
       <c r="O6" t="s">
         <v>408</v>
@@ -3685,10 +3685,10 @@
         <v>204</v>
       </c>
       <c r="M7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="N7">
-        <v>0.40439611291068944</v>
+        <v>0.26702915316982873</v>
       </c>
       <c r="O7" t="s">
         <v>408</v>
@@ -8588,7 +8588,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F44C0D80-1E1F-45BA-848C-D4A1778022F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B0D5916-4125-4AC9-9D16-AE4EE502D5CA}">
   <dimension ref="B2:O371"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_192.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_192.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F1CCBA-B31A-46C8-83DD-ED391367D170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C72E07-D5F4-4F48-8777-F7C9D55FF0C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1245,10 +1245,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>Rc0416h07,Sah13,Sah16,Tg1016h13,Wah07,Wah16,Wb0121h09,Rah12,Rah14,Rc0416h13,Tah13,Tg1016h18,Wah12,Sah12,Se0716h09,Se0716h11,Tah10,Wb0121h11,Rah07,Rc0416h08,Se0716h15,Se0716h17,Tg1016h14,Tg1016h15,Tg1016h16,Tg1016h17,Wah09,Wb0121h10,Rah18,Rc0416h11,Wb0121h13,Rah17,Rc0416h10,Se0716h07,Tah11,Wb0121h12,Rc0416h09,Sah07,Tah16,Tah18,Wah15,Wb0121h14,Wb0121h16,Rah09,Rah11,Rc0416h15,Sah11,Se0716h16,Tah14,Tg1016h10,Wah10,Wah14,Wb0121h08,Wb0121h18,Rah16,Sah08,Tah17,Wb0121h15,Wb0121h17,Rah15,Sah09,Rah13,Tah08,Wb0121h07,Rah08,Rah10,Rc0416h16,Sah14,Sah17,Sah18,Se0716h12,Tah15,Tg1016h08,Wah08,Wah18,Rc0416h14,Rc0416h17,Sah10,Se0716h18,Tah09,Tg1016h11,Rc0416h12,Se0716h10,Tg1016h07,Wah11,Sah15,Se0716h08,Se0716h13,Tg1016h09,Wah13,Rc0416h18,Se0716h14,Tah07,Tah12,Tg1016h12,Wah17</t>
-  </si>
-  <si>
-    <t>Rah01,Rah04,Rc0416h01,Rc0416h04,Se0716h02,Se0716h20,Tah06,Wah23,Wb0121h20,Rah22,Sah02,Sah06,Tah23,Wb0121h19,Wb0121h22,Tah20,Tg1016h23,Wah24,Wb0121h02,Wb0121h06,Rah23,Rah24,Sah03,Sah05,Sah19,Wah22,Sah04,Se0716h24,Tah02,Tah05,Tg1016h03,Tg1016h04,Wah05,Sah23,Sah24,Se0716h04,Tg1016h01,Wah02,Wah19,Wb0121h01,Rah03,Rc0416h02,Wah21,Rc0416h19,Sah01,Tah21,Tg1016h05,Wb0121h05,Wb0121h24,Rc0416h05,Se0716h06,Tg1016h06,Wb0121h03,Wb0121h04,Rah06,Rah21,Rc0416h24,Tah24,Tg1016h20,Rc0416h20,Se0716h22,Tg1016h02,Tg1016h22,Wah06,Rah02,Rah20,Wah01,Rah05,Rc0416h06,Rc0416h22,Rc0416h23,Sah20,Sah21,Sah22,Se0716h21,Tg1016h24,Wah20,Wb0121h21,Wb0121h23,Rc0416h03,Rc0416h21,Se0716h19,Tah03,Tah04,Wah04,Se0716h23,Tg1016h19,Tg1016h21,Wah03,Rah19,Se0716h01,Se0716h03,Se0716h05,Tah01,Tah19,Tah22</t>
+    <t>Sah12,Se0716h09,Se0716h11,Tah10,Wb0121h11,Rc0416h09,Sah07,Tah16,Tah18,Wah15,Wb0121h14,Wb0121h16,Rah18,Rc0416h11,Wb0121h13,Rah12,Rah14,Rc0416h13,Tah13,Tg1016h18,Wah12,Rah17,Rc0416h10,Se0716h07,Tah11,Wb0121h12,Rah09,Rah11,Rc0416h15,Sah11,Se0716h16,Tah14,Tg1016h10,Wah10,Wah14,Wb0121h08,Wb0121h18,Rah15,Sah09,Rc0416h18,Se0716h14,Tah07,Tah12,Tg1016h12,Wah17,Rah07,Rc0416h08,Se0716h15,Se0716h17,Tg1016h14,Tg1016h15,Tg1016h16,Tg1016h17,Wah09,Wb0121h10,Rc0416h12,Se0716h10,Tg1016h07,Wah11,Rah13,Tah08,Wb0121h07,Rc0416h14,Rc0416h17,Sah10,Se0716h18,Tah09,Tg1016h11,Rah16,Sah08,Tah17,Wb0121h15,Wb0121h17,Sah15,Se0716h08,Se0716h13,Tg1016h09,Wah13,Rc0416h07,Sah13,Sah16,Tg1016h13,Wah07,Wah16,Wb0121h09,Rah08,Rah10,Rc0416h16,Sah14,Sah17,Sah18,Se0716h12,Tah15,Tg1016h08,Wah08,Wah18</t>
+  </si>
+  <si>
+    <t>Tah20,Tg1016h23,Wah24,Wb0121h02,Wb0121h06,Rah03,Rc0416h02,Wah21,Sah04,Se0716h24,Tah02,Tah05,Tg1016h03,Tg1016h04,Wah05,Rah22,Sah02,Sah06,Tah23,Wb0121h19,Wb0121h22,Sah23,Sah24,Se0716h04,Tg1016h01,Wah02,Wah19,Wb0121h01,Rc0416h19,Sah01,Tah21,Tg1016h05,Wb0121h05,Wb0121h24,Rah06,Rah21,Rc0416h24,Tah24,Tg1016h20,Rah19,Se0716h01,Se0716h03,Se0716h05,Tah01,Tah19,Tah22,Rah23,Rah24,Sah03,Sah05,Sah19,Wah22,Rc0416h03,Rc0416h21,Se0716h19,Tah03,Tah04,Wah04,Rc0416h20,Se0716h22,Tg1016h02,Tg1016h22,Wah06,Rah05,Rc0416h06,Rc0416h22,Rc0416h23,Sah20,Sah21,Sah22,Se0716h21,Tg1016h24,Wah20,Wb0121h21,Wb0121h23,Rc0416h05,Se0716h06,Tg1016h06,Wb0121h03,Wb0121h04,Se0716h23,Tg1016h19,Tg1016h21,Wah03,Rah01,Rah04,Rc0416h01,Rc0416h04,Se0716h02,Se0716h20,Tah06,Wah23,Wb0121h20,Rah02,Rah20,Wah01</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>Rah01,Rah04,Rc0416h01,Rc0416h04,Se0716h02,Se0716h20,Tah06,Wah23,Wb0121h20,Rah22,Sah02,Sah06,Tah23,Wb0121h19,Wb0121h22,Tah20,Tg1016h23,Wah24,Wb0121h02,Wb0121h06,Rah23,Rah24,Sah03,Sah05,Sah19,Wah22,Sah04,Se0716h24,Tah02,Tah05,Tg1016h03,Tg1016h04,Wah05,Sah23,Sah24,Se0716h04,Tg1016h01,Wah02,Wah19,Wb0121h01,Rah03,Rc0416h02,Wah21,Rc0416h19,Sah01,Tah21,Tg1016h05,Wb0121h05,Wb0121h24,Rc0416h05,Se0716h06,Tg1016h06,Wb0121h03,Wb0121h04,Rah06,Rah21,Rc0416h24,Tah24,Tg1016h20,Rc0416h20,Se0716h22,Tg1016h02,Tg1016h22,Wah06,Rah02,Rah20,Wah01,Rah05,Rc0416h06,Rc0416h22,Rc0416h23,Sah20,Sah21,Sah22,Se0716h21,Tg1016h24,Wah20,Wb0121h21,Wb0121h23,Rc0416h03,Rc0416h21,Se0716h19,Tah03,Tah04,Wah04,Se0716h23,Tg1016h19,Tg1016h21,Wah03,Rah19,Se0716h01,Se0716h03,Se0716h05,Tah01,Tah19,Tah22</v>
+        <v>Tah20,Tg1016h23,Wah24,Wb0121h02,Wb0121h06,Rah03,Rc0416h02,Wah21,Sah04,Se0716h24,Tah02,Tah05,Tg1016h03,Tg1016h04,Wah05,Rah22,Sah02,Sah06,Tah23,Wb0121h19,Wb0121h22,Sah23,Sah24,Se0716h04,Tg1016h01,Wah02,Wah19,Wb0121h01,Rc0416h19,Sah01,Tah21,Tg1016h05,Wb0121h05,Wb0121h24,Rah06,Rah21,Rc0416h24,Tah24,Tg1016h20,Rah19,Se0716h01,Se0716h03,Se0716h05,Tah01,Tah19,Tah22,Rah23,Rah24,Sah03,Sah05,Sah19,Wah22,Rc0416h03,Rc0416h21,Se0716h19,Tah03,Tah04,Wah04,Rc0416h20,Se0716h22,Tg1016h02,Tg1016h22,Wah06,Rah05,Rc0416h06,Rc0416h22,Rc0416h23,Sah20,Sah21,Sah22,Se0716h21,Tg1016h24,Wah20,Wb0121h21,Wb0121h23,Rc0416h05,Se0716h06,Tg1016h06,Wb0121h03,Wb0121h04,Se0716h23,Tg1016h19,Tg1016h21,Wah03,Rah01,Rah04,Rc0416h01,Rc0416h04,Se0716h02,Se0716h20,Tah06,Wah23,Wb0121h20,Rah02,Rah20,Wah01</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>Rc0416h07,Sah13,Sah16,Tg1016h13,Wah07,Wah16,Wb0121h09,Rah12,Rah14,Rc0416h13,Tah13,Tg1016h18,Wah12,Sah12,Se0716h09,Se0716h11,Tah10,Wb0121h11,Rah07,Rc0416h08,Se0716h15,Se0716h17,Tg1016h14,Tg1016h15,Tg1016h16,Tg1016h17,Wah09,Wb0121h10,Rah18,Rc0416h11,Wb0121h13,Rah17,Rc0416h10,Se0716h07,Tah11,Wb0121h12,Rc0416h09,Sah07,Tah16,Tah18,Wah15,Wb0121h14,Wb0121h16,Rah09,Rah11,Rc0416h15,Sah11,Se0716h16,Tah14,Tg1016h10,Wah10,Wah14,Wb0121h08,Wb0121h18,Rah16,Sah08,Tah17,Wb0121h15,Wb0121h17,Rah15,Sah09,Rah13,Tah08,Wb0121h07,Rah08,Rah10,Rc0416h16,Sah14,Sah17,Sah18,Se0716h12,Tah15,Tg1016h08,Wah08,Wah18,Rc0416h14,Rc0416h17,Sah10,Se0716h18,Tah09,Tg1016h11,Rc0416h12,Se0716h10,Tg1016h07,Wah11,Sah15,Se0716h08,Se0716h13,Tg1016h09,Wah13,Rc0416h18,Se0716h14,Tah07,Tah12,Tg1016h12,Wah17</v>
+        <v>Sah12,Se0716h09,Se0716h11,Tah10,Wb0121h11,Rc0416h09,Sah07,Tah16,Tah18,Wah15,Wb0121h14,Wb0121h16,Rah18,Rc0416h11,Wb0121h13,Rah12,Rah14,Rc0416h13,Tah13,Tg1016h18,Wah12,Rah17,Rc0416h10,Se0716h07,Tah11,Wb0121h12,Rah09,Rah11,Rc0416h15,Sah11,Se0716h16,Tah14,Tg1016h10,Wah10,Wah14,Wb0121h08,Wb0121h18,Rah15,Sah09,Rc0416h18,Se0716h14,Tah07,Tah12,Tg1016h12,Wah17,Rah07,Rc0416h08,Se0716h15,Se0716h17,Tg1016h14,Tg1016h15,Tg1016h16,Tg1016h17,Wah09,Wb0121h10,Rc0416h12,Se0716h10,Tg1016h07,Wah11,Rah13,Tah08,Wb0121h07,Rc0416h14,Rc0416h17,Sah10,Se0716h18,Tah09,Tg1016h11,Rah16,Sah08,Tah17,Wb0121h15,Wb0121h17,Sah15,Se0716h08,Se0716h13,Tg1016h09,Wah13,Rc0416h07,Sah13,Sah16,Tg1016h13,Wah07,Wah16,Wb0121h09,Rah08,Rah10,Rc0416h16,Sah14,Sah17,Sah18,Se0716h12,Tah15,Tg1016h08,Wah08,Wah18</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2464,7 +2464,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD51CA4-4E68-4E2E-8ABE-F7D5B93E7076}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B4FC47-1767-43B6-B4F9-E39BBEEF3567}">
   <dimension ref="B2:F123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3501,7 +3501,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAC2265D-049E-4E3B-A53B-1A3F011C392E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{031AFA91-D42D-4BA5-95B0-33C06B9E334D}">
   <dimension ref="B2:O195"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3583,7 +3583,7 @@
         <v>22</v>
       </c>
       <c r="N4">
-        <v>0.22555529847292913</v>
+        <v>0.22555529847292916</v>
       </c>
       <c r="O4" t="s">
         <v>408</v>
@@ -3618,7 +3618,7 @@
         <v>29</v>
       </c>
       <c r="N5">
-        <v>0.40439611291068944</v>
+        <v>0.4043961129106895</v>
       </c>
       <c r="O5" t="s">
         <v>408</v>
@@ -3650,10 +3650,10 @@
         <v>204</v>
       </c>
       <c r="M6" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="N6">
-        <v>0.30301943544655247</v>
+        <v>0.26702915316982878</v>
       </c>
       <c r="O6" t="s">
         <v>408</v>
@@ -3685,10 +3685,10 @@
         <v>204</v>
       </c>
       <c r="M7" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="N7">
-        <v>0.26702915316982873</v>
+        <v>0.30301943544655252</v>
       </c>
       <c r="O7" t="s">
         <v>408</v>
@@ -8588,7 +8588,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B0D5916-4125-4AC9-9D16-AE4EE502D5CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD22075E-0A3C-4A37-BCE8-7C3523617651}">
   <dimension ref="B2:O371"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_192.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_192.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C72E07-D5F4-4F48-8777-F7C9D55FF0C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F70323B-7B9A-4954-95B3-986E5DDB8C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1245,10 +1245,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>Sah12,Se0716h09,Se0716h11,Tah10,Wb0121h11,Rc0416h09,Sah07,Tah16,Tah18,Wah15,Wb0121h14,Wb0121h16,Rah18,Rc0416h11,Wb0121h13,Rah12,Rah14,Rc0416h13,Tah13,Tg1016h18,Wah12,Rah17,Rc0416h10,Se0716h07,Tah11,Wb0121h12,Rah09,Rah11,Rc0416h15,Sah11,Se0716h16,Tah14,Tg1016h10,Wah10,Wah14,Wb0121h08,Wb0121h18,Rah15,Sah09,Rc0416h18,Se0716h14,Tah07,Tah12,Tg1016h12,Wah17,Rah07,Rc0416h08,Se0716h15,Se0716h17,Tg1016h14,Tg1016h15,Tg1016h16,Tg1016h17,Wah09,Wb0121h10,Rc0416h12,Se0716h10,Tg1016h07,Wah11,Rah13,Tah08,Wb0121h07,Rc0416h14,Rc0416h17,Sah10,Se0716h18,Tah09,Tg1016h11,Rah16,Sah08,Tah17,Wb0121h15,Wb0121h17,Sah15,Se0716h08,Se0716h13,Tg1016h09,Wah13,Rc0416h07,Sah13,Sah16,Tg1016h13,Wah07,Wah16,Wb0121h09,Rah08,Rah10,Rc0416h16,Sah14,Sah17,Sah18,Se0716h12,Tah15,Tg1016h08,Wah08,Wah18</t>
-  </si>
-  <si>
-    <t>Tah20,Tg1016h23,Wah24,Wb0121h02,Wb0121h06,Rah03,Rc0416h02,Wah21,Sah04,Se0716h24,Tah02,Tah05,Tg1016h03,Tg1016h04,Wah05,Rah22,Sah02,Sah06,Tah23,Wb0121h19,Wb0121h22,Sah23,Sah24,Se0716h04,Tg1016h01,Wah02,Wah19,Wb0121h01,Rc0416h19,Sah01,Tah21,Tg1016h05,Wb0121h05,Wb0121h24,Rah06,Rah21,Rc0416h24,Tah24,Tg1016h20,Rah19,Se0716h01,Se0716h03,Se0716h05,Tah01,Tah19,Tah22,Rah23,Rah24,Sah03,Sah05,Sah19,Wah22,Rc0416h03,Rc0416h21,Se0716h19,Tah03,Tah04,Wah04,Rc0416h20,Se0716h22,Tg1016h02,Tg1016h22,Wah06,Rah05,Rc0416h06,Rc0416h22,Rc0416h23,Sah20,Sah21,Sah22,Se0716h21,Tg1016h24,Wah20,Wb0121h21,Wb0121h23,Rc0416h05,Se0716h06,Tg1016h06,Wb0121h03,Wb0121h04,Se0716h23,Tg1016h19,Tg1016h21,Wah03,Rah01,Rah04,Rc0416h01,Rc0416h04,Se0716h02,Se0716h20,Tah06,Wah23,Wb0121h20,Rah02,Rah20,Wah01</t>
+    <t>Rah18,Rc0416h11,Wb0121h13,Rah12,Rah14,Rc0416h13,Tah13,Tg1016h18,Wah12,Rah07,Rc0416h08,Se0716h15,Se0716h17,Tg1016h14,Tg1016h15,Tg1016h16,Tg1016h17,Wah09,Wb0121h10,Rc0416h09,Sah07,Tah16,Tah18,Wah15,Wb0121h14,Wb0121h16,Rc0416h12,Se0716h10,Tg1016h07,Wah11,Rc0416h18,Se0716h14,Tah07,Tah12,Tg1016h12,Wah17,Rc0416h07,Sah13,Sah16,Tg1016h13,Wah07,Wah16,Wb0121h09,Rah17,Rc0416h10,Se0716h07,Tah11,Wb0121h12,Rah13,Tah08,Wb0121h07,Sah12,Se0716h09,Se0716h11,Tah10,Wb0121h11,Rah08,Rah10,Rc0416h16,Sah14,Sah17,Sah18,Se0716h12,Tah15,Tg1016h08,Wah08,Wah18,Rah16,Sah08,Tah17,Wb0121h15,Wb0121h17,Sah15,Se0716h08,Se0716h13,Tg1016h09,Wah13,Rah15,Sah09,Rah09,Rah11,Rc0416h15,Sah11,Se0716h16,Tah14,Tg1016h10,Wah10,Wah14,Wb0121h08,Wb0121h18,Rc0416h14,Rc0416h17,Sah10,Se0716h18,Tah09,Tg1016h11</t>
+  </si>
+  <si>
+    <t>Sah04,Se0716h24,Tah02,Tah05,Tg1016h03,Tg1016h04,Wah05,Rah22,Sah02,Sah06,Tah23,Wb0121h19,Wb0121h22,Rah23,Rah24,Sah03,Sah05,Sah19,Wah22,Rah03,Rc0416h02,Wah21,Rc0416h03,Rc0416h21,Se0716h19,Tah03,Tah04,Wah04,Rah19,Se0716h01,Se0716h03,Se0716h05,Tah01,Tah19,Tah22,Rah01,Rah04,Rc0416h01,Rc0416h04,Se0716h02,Se0716h20,Tah06,Wah23,Wb0121h20,Sah23,Sah24,Se0716h04,Tg1016h01,Wah02,Wah19,Wb0121h01,Rc0416h20,Se0716h22,Tg1016h02,Tg1016h22,Wah06,Tah20,Tg1016h23,Wah24,Wb0121h02,Wb0121h06,Rah02,Rah20,Wah01,Rc0416h05,Se0716h06,Tg1016h06,Wb0121h03,Wb0121h04,Se0716h23,Tg1016h19,Tg1016h21,Wah03,Rah06,Rah21,Rc0416h24,Tah24,Tg1016h20,Rc0416h19,Sah01,Tah21,Tg1016h05,Wb0121h05,Wb0121h24,Rah05,Rc0416h06,Rc0416h22,Rc0416h23,Sah20,Sah21,Sah22,Se0716h21,Tg1016h24,Wah20,Wb0121h21,Wb0121h23</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>Tah20,Tg1016h23,Wah24,Wb0121h02,Wb0121h06,Rah03,Rc0416h02,Wah21,Sah04,Se0716h24,Tah02,Tah05,Tg1016h03,Tg1016h04,Wah05,Rah22,Sah02,Sah06,Tah23,Wb0121h19,Wb0121h22,Sah23,Sah24,Se0716h04,Tg1016h01,Wah02,Wah19,Wb0121h01,Rc0416h19,Sah01,Tah21,Tg1016h05,Wb0121h05,Wb0121h24,Rah06,Rah21,Rc0416h24,Tah24,Tg1016h20,Rah19,Se0716h01,Se0716h03,Se0716h05,Tah01,Tah19,Tah22,Rah23,Rah24,Sah03,Sah05,Sah19,Wah22,Rc0416h03,Rc0416h21,Se0716h19,Tah03,Tah04,Wah04,Rc0416h20,Se0716h22,Tg1016h02,Tg1016h22,Wah06,Rah05,Rc0416h06,Rc0416h22,Rc0416h23,Sah20,Sah21,Sah22,Se0716h21,Tg1016h24,Wah20,Wb0121h21,Wb0121h23,Rc0416h05,Se0716h06,Tg1016h06,Wb0121h03,Wb0121h04,Se0716h23,Tg1016h19,Tg1016h21,Wah03,Rah01,Rah04,Rc0416h01,Rc0416h04,Se0716h02,Se0716h20,Tah06,Wah23,Wb0121h20,Rah02,Rah20,Wah01</v>
+        <v>Sah04,Se0716h24,Tah02,Tah05,Tg1016h03,Tg1016h04,Wah05,Rah22,Sah02,Sah06,Tah23,Wb0121h19,Wb0121h22,Rah23,Rah24,Sah03,Sah05,Sah19,Wah22,Rah03,Rc0416h02,Wah21,Rc0416h03,Rc0416h21,Se0716h19,Tah03,Tah04,Wah04,Rah19,Se0716h01,Se0716h03,Se0716h05,Tah01,Tah19,Tah22,Rah01,Rah04,Rc0416h01,Rc0416h04,Se0716h02,Se0716h20,Tah06,Wah23,Wb0121h20,Sah23,Sah24,Se0716h04,Tg1016h01,Wah02,Wah19,Wb0121h01,Rc0416h20,Se0716h22,Tg1016h02,Tg1016h22,Wah06,Tah20,Tg1016h23,Wah24,Wb0121h02,Wb0121h06,Rah02,Rah20,Wah01,Rc0416h05,Se0716h06,Tg1016h06,Wb0121h03,Wb0121h04,Se0716h23,Tg1016h19,Tg1016h21,Wah03,Rah06,Rah21,Rc0416h24,Tah24,Tg1016h20,Rc0416h19,Sah01,Tah21,Tg1016h05,Wb0121h05,Wb0121h24,Rah05,Rc0416h06,Rc0416h22,Rc0416h23,Sah20,Sah21,Sah22,Se0716h21,Tg1016h24,Wah20,Wb0121h21,Wb0121h23</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>Sah12,Se0716h09,Se0716h11,Tah10,Wb0121h11,Rc0416h09,Sah07,Tah16,Tah18,Wah15,Wb0121h14,Wb0121h16,Rah18,Rc0416h11,Wb0121h13,Rah12,Rah14,Rc0416h13,Tah13,Tg1016h18,Wah12,Rah17,Rc0416h10,Se0716h07,Tah11,Wb0121h12,Rah09,Rah11,Rc0416h15,Sah11,Se0716h16,Tah14,Tg1016h10,Wah10,Wah14,Wb0121h08,Wb0121h18,Rah15,Sah09,Rc0416h18,Se0716h14,Tah07,Tah12,Tg1016h12,Wah17,Rah07,Rc0416h08,Se0716h15,Se0716h17,Tg1016h14,Tg1016h15,Tg1016h16,Tg1016h17,Wah09,Wb0121h10,Rc0416h12,Se0716h10,Tg1016h07,Wah11,Rah13,Tah08,Wb0121h07,Rc0416h14,Rc0416h17,Sah10,Se0716h18,Tah09,Tg1016h11,Rah16,Sah08,Tah17,Wb0121h15,Wb0121h17,Sah15,Se0716h08,Se0716h13,Tg1016h09,Wah13,Rc0416h07,Sah13,Sah16,Tg1016h13,Wah07,Wah16,Wb0121h09,Rah08,Rah10,Rc0416h16,Sah14,Sah17,Sah18,Se0716h12,Tah15,Tg1016h08,Wah08,Wah18</v>
+        <v>Rah18,Rc0416h11,Wb0121h13,Rah12,Rah14,Rc0416h13,Tah13,Tg1016h18,Wah12,Rah07,Rc0416h08,Se0716h15,Se0716h17,Tg1016h14,Tg1016h15,Tg1016h16,Tg1016h17,Wah09,Wb0121h10,Rc0416h09,Sah07,Tah16,Tah18,Wah15,Wb0121h14,Wb0121h16,Rc0416h12,Se0716h10,Tg1016h07,Wah11,Rc0416h18,Se0716h14,Tah07,Tah12,Tg1016h12,Wah17,Rc0416h07,Sah13,Sah16,Tg1016h13,Wah07,Wah16,Wb0121h09,Rah17,Rc0416h10,Se0716h07,Tah11,Wb0121h12,Rah13,Tah08,Wb0121h07,Sah12,Se0716h09,Se0716h11,Tah10,Wb0121h11,Rah08,Rah10,Rc0416h16,Sah14,Sah17,Sah18,Se0716h12,Tah15,Tg1016h08,Wah08,Wah18,Rah16,Sah08,Tah17,Wb0121h15,Wb0121h17,Sah15,Se0716h08,Se0716h13,Tg1016h09,Wah13,Rah15,Sah09,Rah09,Rah11,Rc0416h15,Sah11,Se0716h16,Tah14,Tg1016h10,Wah10,Wah14,Wb0121h08,Wb0121h18,Rc0416h14,Rc0416h17,Sah10,Se0716h18,Tah09,Tg1016h11</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2464,7 +2464,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B4FC47-1767-43B6-B4F9-E39BBEEF3567}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8AC902F-AA7C-4983-B945-23FB11839750}">
   <dimension ref="B2:F123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3501,7 +3501,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{031AFA91-D42D-4BA5-95B0-33C06B9E334D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBAD37DF-FBFB-4906-8167-34EFE76E2F58}">
   <dimension ref="B2:O195"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3615,10 +3615,10 @@
         <v>204</v>
       </c>
       <c r="M5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N5">
-        <v>0.4043961129106895</v>
+        <v>0.30301943544655252</v>
       </c>
       <c r="O5" t="s">
         <v>408</v>
@@ -3650,10 +3650,10 @@
         <v>204</v>
       </c>
       <c r="M6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="N6">
-        <v>0.26702915316982878</v>
+        <v>0.40439611291068944</v>
       </c>
       <c r="O6" t="s">
         <v>408</v>
@@ -3685,10 +3685,10 @@
         <v>204</v>
       </c>
       <c r="M7" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="N7">
-        <v>0.30301943544655252</v>
+        <v>0.26702915316982878</v>
       </c>
       <c r="O7" t="s">
         <v>408</v>
@@ -8588,7 +8588,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD22075E-0A3C-4A37-BCE8-7C3523617651}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23CA9A2B-226C-427D-9730-250DD7EC6880}">
   <dimension ref="B2:O371"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_192.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_192.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F70323B-7B9A-4954-95B3-986E5DDB8C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298CBD92-F59B-4AE7-AF89-510F89BE0F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3107" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3155" uniqueCount="410">
   <si>
     <t>UC_N</t>
   </si>
@@ -1245,10 +1245,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>Rah18,Rc0416h11,Wb0121h13,Rah12,Rah14,Rc0416h13,Tah13,Tg1016h18,Wah12,Rah07,Rc0416h08,Se0716h15,Se0716h17,Tg1016h14,Tg1016h15,Tg1016h16,Tg1016h17,Wah09,Wb0121h10,Rc0416h09,Sah07,Tah16,Tah18,Wah15,Wb0121h14,Wb0121h16,Rc0416h12,Se0716h10,Tg1016h07,Wah11,Rc0416h18,Se0716h14,Tah07,Tah12,Tg1016h12,Wah17,Rc0416h07,Sah13,Sah16,Tg1016h13,Wah07,Wah16,Wb0121h09,Rah17,Rc0416h10,Se0716h07,Tah11,Wb0121h12,Rah13,Tah08,Wb0121h07,Sah12,Se0716h09,Se0716h11,Tah10,Wb0121h11,Rah08,Rah10,Rc0416h16,Sah14,Sah17,Sah18,Se0716h12,Tah15,Tg1016h08,Wah08,Wah18,Rah16,Sah08,Tah17,Wb0121h15,Wb0121h17,Sah15,Se0716h08,Se0716h13,Tg1016h09,Wah13,Rah15,Sah09,Rah09,Rah11,Rc0416h15,Sah11,Se0716h16,Tah14,Tg1016h10,Wah10,Wah14,Wb0121h08,Wb0121h18,Rc0416h14,Rc0416h17,Sah10,Se0716h18,Tah09,Tg1016h11</t>
-  </si>
-  <si>
-    <t>Sah04,Se0716h24,Tah02,Tah05,Tg1016h03,Tg1016h04,Wah05,Rah22,Sah02,Sah06,Tah23,Wb0121h19,Wb0121h22,Rah23,Rah24,Sah03,Sah05,Sah19,Wah22,Rah03,Rc0416h02,Wah21,Rc0416h03,Rc0416h21,Se0716h19,Tah03,Tah04,Wah04,Rah19,Se0716h01,Se0716h03,Se0716h05,Tah01,Tah19,Tah22,Rah01,Rah04,Rc0416h01,Rc0416h04,Se0716h02,Se0716h20,Tah06,Wah23,Wb0121h20,Sah23,Sah24,Se0716h04,Tg1016h01,Wah02,Wah19,Wb0121h01,Rc0416h20,Se0716h22,Tg1016h02,Tg1016h22,Wah06,Tah20,Tg1016h23,Wah24,Wb0121h02,Wb0121h06,Rah02,Rah20,Wah01,Rc0416h05,Se0716h06,Tg1016h06,Wb0121h03,Wb0121h04,Se0716h23,Tg1016h19,Tg1016h21,Wah03,Rah06,Rah21,Rc0416h24,Tah24,Tg1016h20,Rc0416h19,Sah01,Tah21,Tg1016h05,Wb0121h05,Wb0121h24,Rah05,Rc0416h06,Rc0416h22,Rc0416h23,Sah20,Sah21,Sah22,Se0716h21,Tg1016h24,Wah20,Wb0121h21,Wb0121h23</t>
+    <t>Rc0416h07,Sah13,Sah16,Tg1016h13,Wah07,Wah16,Wb0121h09,Rah13,Tah08,Wb0121h07,Rc0416h14,Rc0416h17,Sah10,Se0716h18,Tah09,Tg1016h11,Rc0416h09,Sah07,Tah16,Tah18,Wah15,Wb0121h14,Wb0121h16,Rah09,Rah11,Rc0416h15,Sah11,Se0716h16,Tah14,Tg1016h10,Wah10,Wah14,Wb0121h08,Wb0121h18,Rah18,Rc0416h11,Wb0121h13,Rc0416h12,Se0716h10,Tg1016h07,Wah11,Rah15,Sah09,Rah08,Rah10,Rc0416h16,Sah14,Sah17,Sah18,Se0716h12,Tah15,Tg1016h08,Wah08,Wah18,Sah15,Se0716h08,Se0716h13,Tg1016h09,Wah13,Rah16,Sah08,Tah17,Wb0121h15,Wb0121h17,Rah17,Rc0416h10,Se0716h07,Tah11,Wb0121h12,Rah07,Rc0416h08,Se0716h15,Se0716h17,Tg1016h14,Tg1016h15,Tg1016h16,Tg1016h17,Wah09,Wb0121h10,Rah12,Rah14,Rc0416h13,Tah13,Tg1016h18,Wah12,Sah12,Se0716h09,Se0716h11,Tah10,Wb0121h11,Rc0416h18,Se0716h14,Tah07,Tah12,Tg1016h12,Wah17</t>
+  </si>
+  <si>
+    <t>Rah01,Rah04,Rc0416h01,Rc0416h04,Se0716h02,Se0716h20,Tah06,Wah23,Wb0121h20,Rc0416h20,Se0716h22,Tg1016h02,Tg1016h22,Wah06,Rah05,Rc0416h06,Rc0416h22,Rc0416h23,Sah20,Sah21,Sah22,Se0716h21,Tg1016h24,Wah20,Wb0121h21,Wb0121h23,Rah03,Rc0416h02,Wah21,Rc0416h19,Sah01,Tah21,Tg1016h05,Wb0121h05,Wb0121h24,Sah04,Se0716h24,Tah02,Tah05,Tg1016h03,Tg1016h04,Wah05,Rc0416h03,Rc0416h21,Se0716h19,Tah03,Tah04,Wah04,Rah06,Rah21,Rc0416h24,Tah24,Tg1016h20,Rah02,Rah20,Wah01,Se0716h23,Tg1016h19,Tg1016h21,Wah03,Rc0416h05,Se0716h06,Tg1016h06,Wb0121h03,Wb0121h04,Sah23,Sah24,Se0716h04,Tg1016h01,Wah02,Wah19,Wb0121h01,Rah23,Rah24,Sah03,Sah05,Sah19,Wah22,Rah22,Sah02,Sah06,Tah23,Wb0121h19,Wb0121h22,Tah20,Tg1016h23,Wah24,Wb0121h02,Wb0121h06,Rah19,Se0716h01,Se0716h03,Se0716h05,Tah01,Tah19,Tah22</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>Sah04,Se0716h24,Tah02,Tah05,Tg1016h03,Tg1016h04,Wah05,Rah22,Sah02,Sah06,Tah23,Wb0121h19,Wb0121h22,Rah23,Rah24,Sah03,Sah05,Sah19,Wah22,Rah03,Rc0416h02,Wah21,Rc0416h03,Rc0416h21,Se0716h19,Tah03,Tah04,Wah04,Rah19,Se0716h01,Se0716h03,Se0716h05,Tah01,Tah19,Tah22,Rah01,Rah04,Rc0416h01,Rc0416h04,Se0716h02,Se0716h20,Tah06,Wah23,Wb0121h20,Sah23,Sah24,Se0716h04,Tg1016h01,Wah02,Wah19,Wb0121h01,Rc0416h20,Se0716h22,Tg1016h02,Tg1016h22,Wah06,Tah20,Tg1016h23,Wah24,Wb0121h02,Wb0121h06,Rah02,Rah20,Wah01,Rc0416h05,Se0716h06,Tg1016h06,Wb0121h03,Wb0121h04,Se0716h23,Tg1016h19,Tg1016h21,Wah03,Rah06,Rah21,Rc0416h24,Tah24,Tg1016h20,Rc0416h19,Sah01,Tah21,Tg1016h05,Wb0121h05,Wb0121h24,Rah05,Rc0416h06,Rc0416h22,Rc0416h23,Sah20,Sah21,Sah22,Se0716h21,Tg1016h24,Wah20,Wb0121h21,Wb0121h23</v>
+        <v>Rah01,Rah04,Rc0416h01,Rc0416h04,Se0716h02,Se0716h20,Tah06,Wah23,Wb0121h20,Rc0416h20,Se0716h22,Tg1016h02,Tg1016h22,Wah06,Rah05,Rc0416h06,Rc0416h22,Rc0416h23,Sah20,Sah21,Sah22,Se0716h21,Tg1016h24,Wah20,Wb0121h21,Wb0121h23,Rah03,Rc0416h02,Wah21,Rc0416h19,Sah01,Tah21,Tg1016h05,Wb0121h05,Wb0121h24,Sah04,Se0716h24,Tah02,Tah05,Tg1016h03,Tg1016h04,Wah05,Rc0416h03,Rc0416h21,Se0716h19,Tah03,Tah04,Wah04,Rah06,Rah21,Rc0416h24,Tah24,Tg1016h20,Rah02,Rah20,Wah01,Se0716h23,Tg1016h19,Tg1016h21,Wah03,Rc0416h05,Se0716h06,Tg1016h06,Wb0121h03,Wb0121h04,Sah23,Sah24,Se0716h04,Tg1016h01,Wah02,Wah19,Wb0121h01,Rah23,Rah24,Sah03,Sah05,Sah19,Wah22,Rah22,Sah02,Sah06,Tah23,Wb0121h19,Wb0121h22,Tah20,Tg1016h23,Wah24,Wb0121h02,Wb0121h06,Rah19,Se0716h01,Se0716h03,Se0716h05,Tah01,Tah19,Tah22</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>Rah18,Rc0416h11,Wb0121h13,Rah12,Rah14,Rc0416h13,Tah13,Tg1016h18,Wah12,Rah07,Rc0416h08,Se0716h15,Se0716h17,Tg1016h14,Tg1016h15,Tg1016h16,Tg1016h17,Wah09,Wb0121h10,Rc0416h09,Sah07,Tah16,Tah18,Wah15,Wb0121h14,Wb0121h16,Rc0416h12,Se0716h10,Tg1016h07,Wah11,Rc0416h18,Se0716h14,Tah07,Tah12,Tg1016h12,Wah17,Rc0416h07,Sah13,Sah16,Tg1016h13,Wah07,Wah16,Wb0121h09,Rah17,Rc0416h10,Se0716h07,Tah11,Wb0121h12,Rah13,Tah08,Wb0121h07,Sah12,Se0716h09,Se0716h11,Tah10,Wb0121h11,Rah08,Rah10,Rc0416h16,Sah14,Sah17,Sah18,Se0716h12,Tah15,Tg1016h08,Wah08,Wah18,Rah16,Sah08,Tah17,Wb0121h15,Wb0121h17,Sah15,Se0716h08,Se0716h13,Tg1016h09,Wah13,Rah15,Sah09,Rah09,Rah11,Rc0416h15,Sah11,Se0716h16,Tah14,Tg1016h10,Wah10,Wah14,Wb0121h08,Wb0121h18,Rc0416h14,Rc0416h17,Sah10,Se0716h18,Tah09,Tg1016h11</v>
+        <v>Rc0416h07,Sah13,Sah16,Tg1016h13,Wah07,Wah16,Wb0121h09,Rah13,Tah08,Wb0121h07,Rc0416h14,Rc0416h17,Sah10,Se0716h18,Tah09,Tg1016h11,Rc0416h09,Sah07,Tah16,Tah18,Wah15,Wb0121h14,Wb0121h16,Rah09,Rah11,Rc0416h15,Sah11,Se0716h16,Tah14,Tg1016h10,Wah10,Wah14,Wb0121h08,Wb0121h18,Rah18,Rc0416h11,Wb0121h13,Rc0416h12,Se0716h10,Tg1016h07,Wah11,Rah15,Sah09,Rah08,Rah10,Rc0416h16,Sah14,Sah17,Sah18,Se0716h12,Tah15,Tg1016h08,Wah08,Wah18,Sah15,Se0716h08,Se0716h13,Tg1016h09,Wah13,Rah16,Sah08,Tah17,Wb0121h15,Wb0121h17,Rah17,Rc0416h10,Se0716h07,Tah11,Wb0121h12,Rah07,Rc0416h08,Se0716h15,Se0716h17,Tg1016h14,Tg1016h15,Tg1016h16,Tg1016h17,Wah09,Wb0121h10,Rah12,Rah14,Rc0416h13,Tah13,Tg1016h18,Wah12,Sah12,Se0716h09,Se0716h11,Tah10,Wb0121h11,Rc0416h18,Se0716h14,Tah07,Tah12,Tg1016h12,Wah17</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2464,7 +2464,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8AC902F-AA7C-4983-B945-23FB11839750}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EEABE2B-5301-4617-97D5-3B6A173CB0B5}">
   <dimension ref="B2:F123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3501,7 +3501,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBAD37DF-FBFB-4906-8167-34EFE76E2F58}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E8B5CBA-81DF-4997-8333-3104CF4CFD26}">
   <dimension ref="B2:O195"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3615,10 +3615,10 @@
         <v>204</v>
       </c>
       <c r="M5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N5">
-        <v>0.30301943544655252</v>
+        <v>0.40439611291068944</v>
       </c>
       <c r="O5" t="s">
         <v>408</v>
@@ -3650,10 +3650,10 @@
         <v>204</v>
       </c>
       <c r="M6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N6">
-        <v>0.40439611291068944</v>
+        <v>0.30301943544655252</v>
       </c>
       <c r="O6" t="s">
         <v>408</v>
@@ -8588,8 +8588,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23CA9A2B-226C-427D-9730-250DD7EC6880}">
-  <dimension ref="B2:O371"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CBA0097-B6D5-4CC4-BC8B-9B18D591191A}">
+  <dimension ref="B2:O387"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8658,7 +8658,7 @@
         <v>202</v>
       </c>
       <c r="J4">
-        <v>7.9804876398443594E-3</v>
+        <v>8.056105111093375E-3</v>
       </c>
       <c r="M4" t="s">
         <v>14</v>
@@ -8667,7 +8667,7 @@
         <v>202</v>
       </c>
       <c r="O4">
-        <v>6.1148769513128087E-2</v>
+        <v>7.7552758954501533E-2</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.45">
@@ -8690,7 +8690,7 @@
         <v>205</v>
       </c>
       <c r="J5">
-        <v>7.9312108919660524E-3</v>
+        <v>7.7170823984381689E-3</v>
       </c>
       <c r="M5" t="s">
         <v>14</v>
@@ -8699,7 +8699,7 @@
         <v>205</v>
       </c>
       <c r="O5">
-        <v>6.6333669982631793E-2</v>
+        <v>6.1148769513128087E-2</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.45">
@@ -8722,7 +8722,7 @@
         <v>206</v>
       </c>
       <c r="J6">
-        <v>7.9498522651095197E-3</v>
+        <v>7.6694320867197021E-3</v>
       </c>
       <c r="M6" t="s">
         <v>14</v>
@@ -8731,7 +8731,7 @@
         <v>206</v>
       </c>
       <c r="O6">
-        <v>6.9278186924216278E-2</v>
+        <v>6.6333669982631793E-2</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.45">
@@ -8754,7 +8754,7 @@
         <v>207</v>
       </c>
       <c r="J7">
-        <v>8.3336331363599893E-3</v>
+        <v>7.687458179743133E-3</v>
       </c>
       <c r="M7" t="s">
         <v>14</v>
@@ -8763,7 +8763,7 @@
         <v>207</v>
       </c>
       <c r="O7">
-        <v>6.9969560854886259E-2</v>
+        <v>6.9278186924216278E-2</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.45">
@@ -8786,7 +8786,7 @@
         <v>208</v>
       </c>
       <c r="J8">
-        <v>9.1413470220970457E-3</v>
+        <v>8.0585719186577164E-3</v>
       </c>
       <c r="M8" t="s">
         <v>14</v>
@@ -8795,7 +8795,7 @@
         <v>208</v>
       </c>
       <c r="O8">
-        <v>0.1404282111738917</v>
+        <v>6.9969560854886259E-2</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.45">
@@ -8818,7 +8818,7 @@
         <v>209</v>
       </c>
       <c r="J9">
-        <v>1.0133649718340338E-2</v>
+        <v>8.8396262717118975E-3</v>
       </c>
       <c r="M9" t="s">
         <v>14</v>
@@ -8827,7 +8827,7 @@
         <v>209</v>
       </c>
       <c r="O9">
-        <v>0.16747327452735905</v>
+        <v>0.1404282111738917</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.45">
@@ -8850,7 +8850,7 @@
         <v>210</v>
       </c>
       <c r="J10">
-        <v>1.1054570826608316E-2</v>
+        <v>9.7991768677016949E-3</v>
       </c>
       <c r="M10" t="s">
         <v>14</v>
@@ -8859,7 +8859,7 @@
         <v>210</v>
       </c>
       <c r="O10">
-        <v>0.16393162161521224</v>
+        <v>0.16747327452735905</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.45">
@@ -8882,7 +8882,7 @@
         <v>211</v>
       </c>
       <c r="J11">
-        <v>1.1599542692376161E-2</v>
+        <v>1.0689701907735912E-2</v>
       </c>
       <c r="M11" t="s">
         <v>14</v>
@@ -8891,7 +8891,7 @@
         <v>211</v>
       </c>
       <c r="O11">
-        <v>0.15784758672509391</v>
+        <v>0.16393162161521224</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.45">
@@ -8914,7 +8914,7 @@
         <v>212</v>
       </c>
       <c r="J12">
-        <v>1.1712687789939303E-2</v>
+        <v>1.1216686345624605E-2</v>
       </c>
       <c r="M12" t="s">
         <v>14</v>
@@ -8923,7 +8923,7 @@
         <v>212</v>
       </c>
       <c r="O12">
-        <v>0.15204273443711402</v>
+        <v>0.15784758672509391</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.45">
@@ -8946,7 +8946,7 @@
         <v>213</v>
       </c>
       <c r="J13">
-        <v>1.1647270198870538E-2</v>
+        <v>1.1326096958143407E-2</v>
       </c>
       <c r="M13" t="s">
         <v>14</v>
@@ -8955,7 +8955,7 @@
         <v>213</v>
       </c>
       <c r="O13">
-        <v>0.15108940383818537</v>
+        <v>0.15204273443711402</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.45">
@@ -8978,7 +8978,7 @@
         <v>214</v>
       </c>
       <c r="J14">
-        <v>1.1575205236249676E-2</v>
+        <v>1.1262838550466099E-2</v>
       </c>
       <c r="M14" t="s">
         <v>14</v>
@@ -8987,7 +8987,7 @@
         <v>214</v>
       </c>
       <c r="O14">
-        <v>0.15690080595518441</v>
+        <v>0.15108940383818537</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.45">
@@ -9010,7 +9010,7 @@
         <v>215</v>
       </c>
       <c r="J15">
-        <v>1.152752432348113E-2</v>
+        <v>1.1193152175436965E-2</v>
       </c>
       <c r="M15" t="s">
         <v>14</v>
@@ -9019,7 +9019,7 @@
         <v>215</v>
       </c>
       <c r="O15">
-        <v>0.16005795884747154</v>
+        <v>0.15690080595518441</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.45">
@@ -9042,7 +9042,7 @@
         <v>216</v>
       </c>
       <c r="J16">
-        <v>1.1487597383253202E-2</v>
+        <v>1.1147045026441394E-2</v>
       </c>
       <c r="M16" t="s">
         <v>14</v>
@@ -9051,7 +9051,7 @@
         <v>216</v>
       </c>
       <c r="O16">
-        <v>0.16053333391721702</v>
+        <v>0.16005795884747154</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.45">
@@ -9074,7 +9074,7 @@
         <v>217</v>
       </c>
       <c r="J17">
-        <v>1.1463259927126717E-2</v>
+        <v>1.1108435921138346E-2</v>
       </c>
       <c r="M17" t="s">
         <v>14</v>
@@ -9083,7 +9083,7 @@
         <v>217</v>
       </c>
       <c r="O17">
-        <v>0.16147981536578659</v>
+        <v>0.16053333391721702</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.45">
@@ -9106,7 +9106,7 @@
         <v>218</v>
       </c>
       <c r="J18">
-        <v>1.1488684570189292E-2</v>
+        <v>1.1084901750950704E-2</v>
       </c>
       <c r="M18" t="s">
         <v>14</v>
@@ -9115,7 +9115,7 @@
         <v>218</v>
       </c>
       <c r="O18">
-        <v>0.15939841969405388</v>
+        <v>0.16147981536578659</v>
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.45">
@@ -9138,7 +9138,7 @@
         <v>219</v>
       </c>
       <c r="J19">
-        <v>1.1606081345234649E-2</v>
+        <v>1.1109487224209905E-2</v>
       </c>
       <c r="M19" t="s">
         <v>14</v>
@@ -9147,7 +9147,7 @@
         <v>219</v>
       </c>
       <c r="O19">
-        <v>0.17396614906149499</v>
+        <v>0.15939841969405388</v>
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.45">
@@ -9170,7 +9170,7 @@
         <v>220</v>
       </c>
       <c r="J20">
-        <v>1.169916784382692E-2</v>
+        <v>1.1223009182669275E-2</v>
       </c>
       <c r="M20" t="s">
         <v>14</v>
@@ -9179,7 +9179,7 @@
         <v>220</v>
       </c>
       <c r="O20">
-        <v>0.16907570684849849</v>
+        <v>0.17396614906149499</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.45">
@@ -9202,7 +9202,7 @@
         <v>221</v>
       </c>
       <c r="J21">
-        <v>1.1792638740657309E-2</v>
+        <v>1.131302325351779E-2</v>
       </c>
       <c r="M21" t="s">
         <v>14</v>
@@ -9211,7 +9211,7 @@
         <v>221</v>
       </c>
       <c r="O21">
-        <v>0.16426597518177988</v>
+        <v>0.16907570684849849</v>
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.45">
@@ -9234,7 +9234,7 @@
         <v>222</v>
       </c>
       <c r="J22">
-        <v>1.1698026297544026E-2</v>
+        <v>1.140340903509518E-2</v>
       </c>
       <c r="M22" t="s">
         <v>14</v>
@@ -9243,7 +9243,7 @@
         <v>222</v>
       </c>
       <c r="O22">
-        <v>0.14258914299260694</v>
+        <v>0.16426597518177988</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.45">
@@ -9266,7 +9266,7 @@
         <v>223</v>
       </c>
       <c r="J23">
-        <v>1.1255164581938005E-2</v>
+        <v>1.1311919385292654E-2</v>
       </c>
       <c r="M23" t="s">
         <v>14</v>
@@ -9275,7 +9275,7 @@
         <v>223</v>
       </c>
       <c r="O23">
-        <v>9.3392460531009469E-2</v>
+        <v>0.14258914299260694</v>
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.45">
@@ -9298,7 +9298,7 @@
         <v>224</v>
       </c>
       <c r="J24">
-        <v>1.0652455324242775E-2</v>
+        <v>1.0883674833746425E-2</v>
       </c>
       <c r="M24" t="s">
         <v>14</v>
@@ -9307,7 +9307,7 @@
         <v>224</v>
       </c>
       <c r="O24">
-        <v>8.9027859811918075E-2</v>
+        <v>9.3392460531009469E-2</v>
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.45">
@@ -9330,7 +9330,7 @@
         <v>225</v>
       </c>
       <c r="J25">
-        <v>9.5772507413120871E-3</v>
+        <v>1.0300858693450231E-2</v>
       </c>
       <c r="M25" t="s">
         <v>14</v>
@@ -9339,7 +9339,7 @@
         <v>225</v>
       </c>
       <c r="O25">
-        <v>0.11507340208337613</v>
+        <v>8.9027859811918075E-2</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.45">
@@ -9362,7 +9362,7 @@
         <v>226</v>
       </c>
       <c r="J26">
-        <v>8.8438499654673076E-3</v>
+        <v>9.2611424836001391E-3</v>
       </c>
       <c r="M26" t="s">
         <v>14</v>
@@ -9371,7 +9371,7 @@
         <v>226</v>
       </c>
       <c r="O26">
-        <v>7.9672067951847669E-2</v>
+        <v>0.11507340208337613</v>
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.45">
@@ -9391,19 +9391,19 @@
         <v>403</v>
       </c>
       <c r="I27" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J27">
-        <v>8.820744776968055E-5</v>
+        <v>8.5519484501409247E-3</v>
       </c>
       <c r="M27" t="s">
         <v>14</v>
       </c>
       <c r="N27" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>7.9672067951847669E-2</v>
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.45">
@@ -9423,16 +9423,16 @@
         <v>403</v>
       </c>
       <c r="I28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J28">
-        <v>8.820744776968055E-5</v>
+        <v>8.6914314551034039E-5</v>
       </c>
       <c r="M28" t="s">
         <v>14</v>
       </c>
       <c r="N28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O28">
         <v>0</v>
@@ -9455,16 +9455,16 @@
         <v>403</v>
       </c>
       <c r="I29" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J29">
-        <v>8.8719978753837542E-5</v>
+        <v>8.5296058751596718E-5</v>
       </c>
       <c r="M29" t="s">
         <v>14</v>
       </c>
       <c r="N29" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O29">
         <v>0</v>
@@ -9487,16 +9487,16 @@
         <v>403</v>
       </c>
       <c r="I30" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J30">
-        <v>9.5984717173214391E-5</v>
+        <v>8.5296058751596718E-5</v>
       </c>
       <c r="M30" t="s">
         <v>14</v>
       </c>
       <c r="N30" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O30">
         <v>0</v>
@@ -9519,16 +9519,16 @@
         <v>403</v>
       </c>
       <c r="I31" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J31">
-        <v>1.0760985176841176E-4</v>
+        <v>8.5791673056760816E-5</v>
       </c>
       <c r="M31" t="s">
         <v>14</v>
       </c>
       <c r="N31" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O31">
         <v>0</v>
@@ -9551,16 +9551,16 @@
         <v>403</v>
       </c>
       <c r="I32" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J32">
-        <v>1.178177605362053E-4</v>
+        <v>9.2816630367079255E-5</v>
       </c>
       <c r="M32" t="s">
         <v>14</v>
       </c>
       <c r="N32" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O32">
         <v>0</v>
@@ -9583,16 +9583,16 @@
         <v>403</v>
       </c>
       <c r="I33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J33">
-        <v>1.2533099882668859E-4</v>
+        <v>1.0405806392511956E-4</v>
       </c>
       <c r="M33" t="s">
         <v>14</v>
       </c>
       <c r="N33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O33">
         <v>0</v>
@@ -9615,16 +9615,16 @@
         <v>403</v>
       </c>
       <c r="I34" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J34">
-        <v>1.2922934055467061E-4</v>
+        <v>1.1392904883630457E-4</v>
       </c>
       <c r="M34" t="s">
         <v>14</v>
       </c>
       <c r="N34" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O34">
         <v>0</v>
@@ -9647,16 +9647,16 @@
         <v>403</v>
       </c>
       <c r="I35" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J35">
-        <v>1.2955161382501175E-4</v>
+        <v>1.2119430399155108E-4</v>
       </c>
       <c r="M35" t="s">
         <v>14</v>
       </c>
       <c r="N35" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O35">
         <v>0</v>
@@ -9679,16 +9679,16 @@
         <v>403</v>
       </c>
       <c r="I36" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J36">
-        <v>1.2874010643342982E-4</v>
+        <v>1.2496397643385986E-4</v>
       </c>
       <c r="M36" t="s">
         <v>14</v>
       </c>
       <c r="N36" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O36">
         <v>0</v>
@@ -9711,16 +9711,16 @@
         <v>403</v>
       </c>
       <c r="I37" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J37">
-        <v>1.2849548937280946E-4</v>
+        <v>1.2527561270150091E-4</v>
       </c>
       <c r="M37" t="s">
         <v>14</v>
       </c>
       <c r="N37" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O37">
         <v>0</v>
@@ -9743,16 +9743,16 @@
         <v>403</v>
       </c>
       <c r="I38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J38">
-        <v>1.2849548937280946E-4</v>
+        <v>1.2449089005165775E-4</v>
       </c>
       <c r="M38" t="s">
         <v>14</v>
       </c>
       <c r="N38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O38">
         <v>0</v>
@@ -9775,16 +9775,16 @@
         <v>403</v>
       </c>
       <c r="I39" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J39">
-        <v>1.2823145825975886E-4</v>
+        <v>1.2425434686055671E-4</v>
       </c>
       <c r="M39" t="s">
         <v>14</v>
       </c>
       <c r="N39" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O39">
         <v>0</v>
@@ -9807,16 +9807,16 @@
         <v>403</v>
       </c>
       <c r="I40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J40">
-        <v>1.2797907557816641E-4</v>
+        <v>1.2425434686055671E-4</v>
       </c>
       <c r="M40" t="s">
         <v>14</v>
       </c>
       <c r="N40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O40">
         <v>0</v>
@@ -9839,16 +9839,16 @@
         <v>403</v>
       </c>
       <c r="I41" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J41">
-        <v>1.2801013806205472E-4</v>
+        <v>1.2399903040032065E-4</v>
       </c>
       <c r="M41" t="s">
         <v>14</v>
       </c>
       <c r="N41" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O41">
         <v>0</v>
@@ -9871,16 +9871,16 @@
         <v>403</v>
       </c>
       <c r="I42" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J42">
-        <v>1.2827028636461924E-4</v>
+        <v>1.2375497790156561E-4</v>
       </c>
       <c r="M42" t="s">
         <v>14</v>
       </c>
       <c r="N42" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O42">
         <v>0</v>
@@ -9903,16 +9903,16 @@
         <v>403</v>
       </c>
       <c r="I43" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J43">
-        <v>1.2827028636461926E-4</v>
+        <v>1.2378501513218162E-4</v>
       </c>
       <c r="M43" t="s">
         <v>14</v>
       </c>
       <c r="N43" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O43">
         <v>0</v>
@@ -9935,16 +9935,16 @@
         <v>403</v>
       </c>
       <c r="I44" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J44">
-        <v>1.2906237970377097E-4</v>
+        <v>1.2403657693859068E-4</v>
       </c>
       <c r="M44" t="s">
         <v>14</v>
       </c>
       <c r="N44" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O44">
         <v>0</v>
@@ -9967,16 +9967,16 @@
         <v>403</v>
       </c>
       <c r="I45" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J45">
-        <v>1.2930699676439136E-4</v>
+        <v>1.2403657693859068E-4</v>
       </c>
       <c r="M45" t="s">
         <v>14</v>
       </c>
       <c r="N45" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O45">
         <v>0</v>
@@ -9999,16 +9999,16 @@
         <v>403</v>
       </c>
       <c r="I46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J46">
-        <v>1.2596001412542671E-4</v>
+        <v>1.2480252631929883E-4</v>
       </c>
       <c r="M46" t="s">
         <v>14</v>
       </c>
       <c r="N46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O46">
         <v>0</v>
@@ -10031,16 +10031,16 @@
         <v>403</v>
       </c>
       <c r="I47" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J47">
-        <v>1.1906025989173743E-4</v>
+        <v>1.2503906951039987E-4</v>
       </c>
       <c r="M47" t="s">
         <v>14</v>
       </c>
       <c r="N47" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O47">
         <v>0</v>
@@ -10063,16 +10063,16 @@
         <v>403</v>
       </c>
       <c r="I48" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J48">
-        <v>1.0205743277337762E-4</v>
+        <v>1.2180255791152519E-4</v>
       </c>
       <c r="M48" t="s">
         <v>14</v>
       </c>
       <c r="N48" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O48">
         <v>0</v>
@@ -10095,16 +10095,16 @@
         <v>403</v>
       </c>
       <c r="I49" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J49">
-        <v>9.5045077035593218E-5</v>
+        <v>1.1513053806094483E-4</v>
       </c>
       <c r="M49" t="s">
         <v>14</v>
       </c>
       <c r="N49" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O49">
         <v>0</v>
@@ -10127,19 +10127,19 @@
         <v>403</v>
       </c>
       <c r="I50" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="J50">
-        <v>8.1772238868477072E-3</v>
+        <v>9.8688908952508463E-5</v>
       </c>
       <c r="M50" t="s">
         <v>14</v>
       </c>
       <c r="N50" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="O50">
-        <v>0.11422604150675308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.45">
@@ -10159,19 +10159,19 @@
         <v>403</v>
       </c>
       <c r="I51" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J51">
-        <v>8.0771444465700809E-3</v>
+        <v>9.1908004140945062E-5</v>
       </c>
       <c r="M51" t="s">
         <v>14</v>
       </c>
       <c r="N51" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="O51">
-        <v>0.11867224701509627</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.45">
@@ -10191,19 +10191,19 @@
         <v>403</v>
       </c>
       <c r="I52" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="J52">
-        <v>8.0387783961575407E-3</v>
+        <v>8.202290742303461E-3</v>
       </c>
       <c r="M52" t="s">
         <v>14</v>
       </c>
       <c r="N52" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="O52">
-        <v>0.1111189462104758</v>
+        <v>0.10487472000833464</v>
       </c>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.45">
@@ -10223,19 +10223,19 @@
         <v>403</v>
       </c>
       <c r="I53" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J53">
-        <v>8.3043432193500993E-3</v>
+        <v>7.9073251376542801E-3</v>
       </c>
       <c r="M53" t="s">
         <v>14</v>
       </c>
       <c r="N53" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="O53">
-        <v>0.12049246769892252</v>
+        <v>0.11422604150675308</v>
       </c>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.45">
@@ -10255,19 +10255,19 @@
         <v>403</v>
       </c>
       <c r="I54" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="J54">
-        <v>8.8357135999853533E-3</v>
+        <v>7.810548935263336E-3</v>
       </c>
       <c r="M54" t="s">
         <v>14</v>
       </c>
       <c r="N54" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O54">
-        <v>0.1238599452430349</v>
+        <v>0.11867224701509627</v>
       </c>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.45">
@@ -10287,19 +10287,19 @@
         <v>403</v>
       </c>
       <c r="I55" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J55">
-        <v>9.7072337104394685E-3</v>
+        <v>7.7734492007987413E-3</v>
       </c>
       <c r="M55" t="s">
         <v>14</v>
       </c>
       <c r="N55" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="O55">
-        <v>0.1240577182674254</v>
+        <v>0.1111189462104758</v>
       </c>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.45">
@@ -10319,19 +10319,19 @@
         <v>403</v>
       </c>
       <c r="I56" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="J56">
-        <v>1.0624225414495574E-2</v>
+        <v>8.0302487492964585E-3</v>
       </c>
       <c r="M56" t="s">
         <v>14</v>
       </c>
       <c r="N56" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="O56">
-        <v>0.13731302481577901</v>
+        <v>0.12049246769892252</v>
       </c>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.45">
@@ -10351,19 +10351,19 @@
         <v>403</v>
       </c>
       <c r="I57" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="J57">
-        <v>1.138381186425819E-2</v>
+        <v>8.5440806348291674E-3</v>
       </c>
       <c r="M57" t="s">
         <v>14</v>
       </c>
       <c r="N57" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O57">
-        <v>0.11367882493592196</v>
+        <v>0.1238599452430349</v>
       </c>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.45">
@@ -10383,19 +10383,19 @@
         <v>403</v>
       </c>
       <c r="I58" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="J58">
-        <v>1.157676036574087E-2</v>
+        <v>9.3868352142224519E-3</v>
       </c>
       <c r="M58" t="s">
         <v>14</v>
       </c>
       <c r="N58" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="O58">
-        <v>0.10926921481562069</v>
+        <v>0.1240577182674254</v>
       </c>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.45">
@@ -10415,19 +10415,19 @@
         <v>403</v>
       </c>
       <c r="I59" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="J59">
-        <v>1.1732367878779324E-2</v>
+        <v>1.0273560544583744E-2</v>
       </c>
       <c r="M59" t="s">
         <v>14</v>
       </c>
       <c r="N59" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="O59">
-        <v>0.10893824760850035</v>
+        <v>0.13731302481577901</v>
       </c>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.45">
@@ -10447,19 +10447,19 @@
         <v>403</v>
       </c>
       <c r="I60" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J60">
-        <v>1.1774523552226237E-2</v>
+        <v>1.1008075963452253E-2</v>
       </c>
       <c r="M60" t="s">
         <v>14</v>
       </c>
       <c r="N60" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="O60">
-        <v>0.10788102776744912</v>
+        <v>0.11367882493592196</v>
       </c>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.45">
@@ -10479,19 +10479,19 @@
         <v>403</v>
       </c>
       <c r="I61" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J61">
-        <v>1.1808913604701075E-2</v>
+        <v>1.1194655976077401E-2</v>
       </c>
       <c r="M61" t="s">
         <v>14</v>
       </c>
       <c r="N61" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O61">
-        <v>0.11570330660021977</v>
+        <v>0.10926921481562069</v>
       </c>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.45">
@@ -10511,19 +10511,19 @@
         <v>403</v>
       </c>
       <c r="I62" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J62">
-        <v>1.1720467064639617E-2</v>
+        <v>1.1345127482848284E-2</v>
       </c>
       <c r="M62" t="s">
         <v>14</v>
       </c>
       <c r="N62" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="O62">
-        <v>0.11830772611333251</v>
+        <v>0.10893824760850035</v>
       </c>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.45">
@@ -10543,19 +10543,19 @@
         <v>403</v>
       </c>
       <c r="I63" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J63">
-        <v>1.1673815096649873E-2</v>
+        <v>1.1385891759448031E-2</v>
       </c>
       <c r="M63" t="s">
         <v>14</v>
       </c>
       <c r="N63" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="O63">
-        <v>0.11434110464319946</v>
+        <v>0.10788102776744912</v>
       </c>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.45">
@@ -10575,19 +10575,19 @@
         <v>403</v>
       </c>
       <c r="I64" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J64">
-        <v>1.1643082651652882E-2</v>
+        <v>1.1419146728393777E-2</v>
       </c>
       <c r="M64" t="s">
         <v>14</v>
       </c>
       <c r="N64" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="O64">
-        <v>0.11438848648177413</v>
+        <v>0.11570330660021977</v>
       </c>
     </row>
     <row r="65" spans="2:15" x14ac:dyDescent="0.45">
@@ -10607,19 +10607,19 @@
         <v>403</v>
       </c>
       <c r="I65" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J65">
-        <v>1.1646829563771909E-2</v>
+        <v>1.1333619468868525E-2</v>
       </c>
       <c r="M65" t="s">
         <v>14</v>
       </c>
       <c r="N65" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="O65">
-        <v>0.11148655689659237</v>
+        <v>0.11830772611333251</v>
       </c>
     </row>
     <row r="66" spans="2:15" x14ac:dyDescent="0.45">
@@ -10639,19 +10639,19 @@
         <v>403</v>
       </c>
       <c r="I66" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J66">
-        <v>1.157371235950933E-2</v>
+        <v>1.1288507303137112E-2</v>
       </c>
       <c r="M66" t="s">
         <v>14</v>
       </c>
       <c r="N66" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="O66">
-        <v>0.10631247041412073</v>
+        <v>0.11434110464319946</v>
       </c>
     </row>
     <row r="67" spans="2:15" x14ac:dyDescent="0.45">
@@ -10671,19 +10671,19 @@
         <v>403</v>
       </c>
       <c r="I67" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="J67">
-        <v>1.1528000031657206E-2</v>
+        <v>1.12587892180964E-2</v>
       </c>
       <c r="M67" t="s">
         <v>14</v>
       </c>
       <c r="N67" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="O67">
-        <v>0.1000320144804796</v>
+        <v>0.11438848648177413</v>
       </c>
     </row>
     <row r="68" spans="2:15" x14ac:dyDescent="0.45">
@@ -10703,19 +10703,19 @@
         <v>403</v>
       </c>
       <c r="I68" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J68">
-        <v>1.1423171914155155E-2</v>
+        <v>1.1262412459039455E-2</v>
       </c>
       <c r="M68" t="s">
         <v>14</v>
       </c>
       <c r="N68" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="O68">
-        <v>0.10281830832212213</v>
+        <v>0.11148655689659237</v>
       </c>
     </row>
     <row r="69" spans="2:15" x14ac:dyDescent="0.45">
@@ -10735,19 +10735,19 @@
         <v>403</v>
       </c>
       <c r="I69" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J69">
-        <v>1.1207536151002557E-2</v>
+        <v>1.1191708572823204E-2</v>
       </c>
       <c r="M69" t="s">
         <v>14</v>
       </c>
       <c r="N69" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="O69">
-        <v>0.116387490705536</v>
+        <v>0.10631247041412073</v>
       </c>
     </row>
     <row r="70" spans="2:15" x14ac:dyDescent="0.45">
@@ -10767,19 +10767,19 @@
         <v>403</v>
       </c>
       <c r="I70" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J70">
-        <v>1.0926754593515215E-2</v>
+        <v>1.1147505033317925E-2</v>
       </c>
       <c r="M70" t="s">
         <v>14</v>
       </c>
       <c r="N70" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="O70">
-        <v>0.16153969130143508</v>
+        <v>0.1000320144804796</v>
       </c>
     </row>
     <row r="71" spans="2:15" x14ac:dyDescent="0.45">
@@ -10799,19 +10799,19 @@
         <v>403</v>
       </c>
       <c r="I71" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J71">
-        <v>1.0037338609530952E-2</v>
+        <v>1.1046136889296558E-2</v>
       </c>
       <c r="M71" t="s">
         <v>14</v>
       </c>
       <c r="N71" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="O71">
-        <v>0.13348621699520802</v>
+        <v>0.10281830832212213</v>
       </c>
     </row>
     <row r="72" spans="2:15" x14ac:dyDescent="0.45">
@@ -10831,19 +10831,19 @@
         <v>403</v>
       </c>
       <c r="I72" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J72">
-        <v>9.152822732380066E-3</v>
+        <v>1.0837618434360242E-2</v>
       </c>
       <c r="M72" t="s">
         <v>14</v>
       </c>
       <c r="N72" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="O72">
-        <v>0.11131915428973582</v>
+        <v>0.116387490705536</v>
       </c>
     </row>
     <row r="73" spans="2:15" x14ac:dyDescent="0.45">
@@ -10863,19 +10863,19 @@
         <v>403</v>
       </c>
       <c r="I73" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="J73">
-        <v>9.5967829573512164E-5</v>
+        <v>1.0566104397514509E-2</v>
       </c>
       <c r="M73" t="s">
         <v>14</v>
       </c>
       <c r="N73" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="O73">
-        <v>0</v>
+        <v>0.16153969130143508</v>
       </c>
     </row>
     <row r="74" spans="2:15" x14ac:dyDescent="0.45">
@@ -10895,19 +10895,19 @@
         <v>403</v>
       </c>
       <c r="I74" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J74">
-        <v>9.2826635890307514E-5</v>
+        <v>9.7060446186325779E-3</v>
       </c>
       <c r="M74" t="s">
         <v>14</v>
       </c>
       <c r="N74" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="O74">
-        <v>0</v>
+        <v>0.13348621699520802</v>
       </c>
     </row>
     <row r="75" spans="2:15" x14ac:dyDescent="0.45">
@@ -10927,19 +10927,19 @@
         <v>403</v>
       </c>
       <c r="I75" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J75">
-        <v>9.2605315692603364E-5</v>
+        <v>8.8507232128803206E-3</v>
       </c>
       <c r="M75" t="s">
         <v>14</v>
       </c>
       <c r="N75" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="O75">
-        <v>0</v>
+        <v>0.11131915428973582</v>
       </c>
     </row>
     <row r="76" spans="2:15" x14ac:dyDescent="0.45">
@@ -10959,16 +10959,16 @@
         <v>403</v>
       </c>
       <c r="I76" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="J76">
-        <v>9.6895821279675208E-5</v>
+        <v>9.6416031797574305E-5</v>
       </c>
       <c r="M76" t="s">
         <v>14</v>
       </c>
       <c r="N76" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="O76">
         <v>0</v>
@@ -10991,16 +10991,16 @@
         <v>403</v>
       </c>
       <c r="I77" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="J77">
-        <v>1.0503030924792454E-4</v>
+        <v>9.2800300162172562E-5</v>
       </c>
       <c r="M77" t="s">
         <v>14</v>
       </c>
       <c r="N77" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="O77">
         <v>0</v>
@@ -11023,16 +11023,16 @@
         <v>403</v>
       </c>
       <c r="I78" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J78">
-        <v>1.1823186490045327E-4</v>
+        <v>8.9762785216128933E-5</v>
       </c>
       <c r="M78" t="s">
         <v>14</v>
       </c>
       <c r="N78" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="O78">
         <v>0</v>
@@ -11055,16 +11055,16 @@
         <v>403</v>
       </c>
       <c r="I79" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="J79">
-        <v>1.3187606094839033E-4</v>
+        <v>8.954876994798989E-5</v>
       </c>
       <c r="M79" t="s">
         <v>14</v>
       </c>
       <c r="N79" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="O79">
         <v>0</v>
@@ -11087,16 +11087,16 @@
         <v>403</v>
       </c>
       <c r="I80" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="J80">
-        <v>1.4046483774350611E-4</v>
+        <v>9.3697662426825748E-5</v>
       </c>
       <c r="M80" t="s">
         <v>14</v>
       </c>
       <c r="N80" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="O80">
         <v>0</v>
@@ -11119,16 +11119,16 @@
         <v>403</v>
       </c>
       <c r="I81" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="J81">
-        <v>1.4263921161568731E-4</v>
+        <v>1.0156366219439235E-4</v>
       </c>
       <c r="M81" t="s">
         <v>14</v>
       </c>
       <c r="N81" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="O81">
         <v>0</v>
@@ -11151,16 +11151,16 @@
         <v>403</v>
       </c>
       <c r="I82" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="J82">
-        <v>1.4392830469705191E-4</v>
+        <v>1.1432948520619497E-4</v>
       </c>
       <c r="M82" t="s">
         <v>14</v>
       </c>
       <c r="N82" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="O82">
         <v>0</v>
@@ -11183,16 +11183,16 @@
         <v>403</v>
       </c>
       <c r="I83" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="J83">
-        <v>1.4445248411266702E-4</v>
+        <v>1.2752333875427568E-4</v>
       </c>
       <c r="M83" t="s">
         <v>14</v>
       </c>
       <c r="N83" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="O83">
         <v>0</v>
@@ -11215,16 +11215,16 @@
         <v>403</v>
       </c>
       <c r="I84" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="J84">
-        <v>1.4525234307279081E-4</v>
+        <v>1.3582863301960142E-4</v>
       </c>
       <c r="M84" t="s">
         <v>14</v>
       </c>
       <c r="N84" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="O84">
         <v>0</v>
@@ -11247,16 +11247,16 @@
         <v>403</v>
       </c>
       <c r="I85" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="J85">
-        <v>1.434778986806715E-4</v>
+        <v>1.3793123916272184E-4</v>
       </c>
       <c r="M85" t="s">
         <v>14</v>
       </c>
       <c r="N85" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="O85">
         <v>0</v>
@@ -11279,16 +11279,16 @@
         <v>403</v>
       </c>
       <c r="I86" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="J86">
-        <v>1.4288771148679376E-4</v>
+        <v>1.391777842332861E-4</v>
       </c>
       <c r="M86" t="s">
         <v>14</v>
       </c>
       <c r="N86" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="O86">
         <v>0</v>
@@ -11311,16 +11311,16 @@
         <v>403</v>
       </c>
       <c r="I87" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="J87">
-        <v>1.4248778200673186E-4</v>
+        <v>1.3968466249993119E-4</v>
       </c>
       <c r="M87" t="s">
         <v>14</v>
       </c>
       <c r="N87" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="O87">
         <v>0</v>
@@ -11343,16 +11343,16 @@
         <v>403</v>
       </c>
       <c r="I88" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="J88">
-        <v>1.4168404023612199E-4</v>
+        <v>1.4045812118829336E-4</v>
       </c>
       <c r="M88" t="s">
         <v>14</v>
       </c>
       <c r="N88" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="O88">
         <v>0</v>
@@ -11375,16 +11375,16 @@
         <v>403</v>
       </c>
       <c r="I89" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J89">
-        <v>1.410356108849537E-4</v>
+        <v>1.3874224438935399E-4</v>
       </c>
       <c r="M89" t="s">
         <v>14</v>
       </c>
       <c r="N89" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="O89">
         <v>0</v>
@@ -11407,16 +11407,16 @@
         <v>403</v>
       </c>
       <c r="I90" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="J90">
-        <v>1.4093077500183066E-4</v>
+        <v>1.3817153700764986E-4</v>
       </c>
       <c r="M90" t="s">
         <v>14</v>
       </c>
       <c r="N90" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="O90">
         <v>0</v>
@@ -11439,16 +11439,16 @@
         <v>403</v>
       </c>
       <c r="I91" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="J91">
-        <v>1.3984358806574005E-4</v>
+        <v>1.377848076634688E-4</v>
       </c>
       <c r="M91" t="s">
         <v>14</v>
       </c>
       <c r="N91" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="O91">
         <v>0</v>
@@ -11471,16 +11471,16 @@
         <v>403</v>
       </c>
       <c r="I92" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J92">
-        <v>1.3681111307614448E-4</v>
+        <v>1.3700759432127963E-4</v>
       </c>
       <c r="M92" t="s">
         <v>14</v>
       </c>
       <c r="N92" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="O92">
         <v>0</v>
@@ -11503,16 +11503,16 @@
         <v>403</v>
       </c>
       <c r="I93" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="J93">
-        <v>1.3304866971517378E-4</v>
+        <v>1.3638056713217054E-4</v>
       </c>
       <c r="M93" t="s">
         <v>14</v>
       </c>
       <c r="N93" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="O93">
         <v>0</v>
@@ -11535,16 +11535,16 @@
         <v>403</v>
       </c>
       <c r="I94" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="J94">
-        <v>1.1940059085675068E-4</v>
+        <v>1.3627919147884149E-4</v>
       </c>
       <c r="M94" t="s">
         <v>14</v>
       </c>
       <c r="N94" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="O94">
         <v>0</v>
@@ -11567,16 +11567,16 @@
         <v>403</v>
       </c>
       <c r="I95" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="J95">
-        <v>1.0740658926537972E-4</v>
+        <v>1.3522788840728128E-4</v>
       </c>
       <c r="M95" t="s">
         <v>14</v>
       </c>
       <c r="N95" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="O95">
         <v>0</v>
@@ -11599,19 +11599,19 @@
         <v>403</v>
       </c>
       <c r="I96" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="J96">
-        <v>7.8858878386799548E-3</v>
+        <v>1.3229550376839367E-4</v>
       </c>
       <c r="M96" t="s">
         <v>14</v>
       </c>
       <c r="N96" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="O96">
-        <v>0.10034589097263535</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="2:15" x14ac:dyDescent="0.45">
@@ -11631,19 +11631,19 @@
         <v>403</v>
       </c>
       <c r="I97" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="J97">
-        <v>7.7890971388840024E-3</v>
+        <v>1.2865724421002992E-4</v>
       </c>
       <c r="M97" t="s">
         <v>14</v>
       </c>
       <c r="N97" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="O97">
-        <v>0.10895604481251309</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="2:15" x14ac:dyDescent="0.45">
@@ -11663,19 +11663,19 @@
         <v>403</v>
       </c>
       <c r="I98" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="J98">
-        <v>7.7940671363061305E-3</v>
+        <v>1.1545963600812222E-4</v>
       </c>
       <c r="M98" t="s">
         <v>14</v>
       </c>
       <c r="N98" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="O98">
-        <v>0.1048905184764215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="2:15" x14ac:dyDescent="0.45">
@@ -11695,19 +11695,19 @@
         <v>403</v>
       </c>
       <c r="I99" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="J99">
-        <v>8.0576633745822693E-3</v>
+        <v>1.0386151033651683E-4</v>
       </c>
       <c r="M99" t="s">
         <v>14</v>
       </c>
       <c r="N99" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="O99">
-        <v>0.10419258400474174</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="2:15" x14ac:dyDescent="0.45">
@@ -11727,19 +11727,19 @@
         <v>403</v>
       </c>
       <c r="I100" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="J100">
-        <v>8.7335830239917405E-3</v>
+        <v>7.954002015647145E-3</v>
       </c>
       <c r="M100" t="s">
         <v>14</v>
       </c>
       <c r="N100" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="O100">
-        <v>0.18296652385526779</v>
+        <v>0.10578598256103544</v>
       </c>
     </row>
     <row r="101" spans="2:15" x14ac:dyDescent="0.45">
@@ -11759,19 +11759,19 @@
         <v>403</v>
       </c>
       <c r="I101" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="J101">
-        <v>9.5480491171640158E-3</v>
+        <v>7.62560497332235E-3</v>
       </c>
       <c r="M101" t="s">
         <v>14</v>
       </c>
       <c r="N101" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="O101">
-        <v>0.167578943622682</v>
+        <v>0.10034589097263535</v>
       </c>
     </row>
     <row r="102" spans="2:15" x14ac:dyDescent="0.45">
@@ -11791,19 +11791,19 @@
         <v>403</v>
       </c>
       <c r="I102" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="J102">
-        <v>1.040003092525239E-2</v>
+        <v>7.5320089627228751E-3</v>
       </c>
       <c r="M102" t="s">
         <v>14</v>
       </c>
       <c r="N102" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="O102">
-        <v>0.14323731904504489</v>
+        <v>0.10895604481251309</v>
       </c>
     </row>
     <row r="103" spans="2:15" x14ac:dyDescent="0.45">
@@ -11823,19 +11823,19 @@
         <v>403</v>
       </c>
       <c r="I103" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="J103">
-        <v>1.1066286259362113E-2</v>
+        <v>7.5368149196214356E-3</v>
       </c>
       <c r="M103" t="s">
         <v>14</v>
       </c>
       <c r="N103" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="O103">
-        <v>0.13609881838126348</v>
+        <v>0.1048905184764215</v>
       </c>
     </row>
     <row r="104" spans="2:15" x14ac:dyDescent="0.45">
@@ -11855,19 +11855,19 @@
         <v>403</v>
       </c>
       <c r="I104" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="J104">
-        <v>1.1264468789379971E-2</v>
+        <v>7.7917108586288645E-3</v>
       </c>
       <c r="M104" t="s">
         <v>14</v>
       </c>
       <c r="N104" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="O104">
-        <v>0.14115590729830307</v>
+        <v>0.10419258400474174</v>
       </c>
     </row>
     <row r="105" spans="2:15" x14ac:dyDescent="0.45">
@@ -11887,19 +11887,19 @@
         <v>403</v>
       </c>
       <c r="I105" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="J105">
-        <v>1.1263144751004232E-2</v>
+        <v>8.4453209968331569E-3</v>
       </c>
       <c r="M105" t="s">
         <v>14</v>
       </c>
       <c r="N105" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="O105">
-        <v>0.13539664394170092</v>
+        <v>0.18296652385526779</v>
       </c>
     </row>
     <row r="106" spans="2:15" x14ac:dyDescent="0.45">
@@ -11919,19 +11919,19 @@
         <v>403</v>
       </c>
       <c r="I106" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="J106">
-        <v>1.1248199813443473E-2</v>
+        <v>9.2329046928924935E-3</v>
       </c>
       <c r="M106" t="s">
         <v>14</v>
       </c>
       <c r="N106" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="O106">
-        <v>0.13267445810701584</v>
+        <v>0.167578943622682</v>
       </c>
     </row>
     <row r="107" spans="2:15" x14ac:dyDescent="0.45">
@@ -11951,19 +11951,19 @@
         <v>403</v>
       </c>
       <c r="I107" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="J107">
-        <v>1.1231150392599282E-2</v>
+        <v>1.0056765854228312E-2</v>
       </c>
       <c r="M107" t="s">
         <v>14</v>
       </c>
       <c r="N107" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="O107">
-        <v>0.13079604603409578</v>
+        <v>0.14323731904504489</v>
       </c>
     </row>
     <row r="108" spans="2:15" x14ac:dyDescent="0.45">
@@ -11983,19 +11983,19 @@
         <v>403</v>
       </c>
       <c r="I108" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="J108">
-        <v>1.1194434536643308E-2</v>
+        <v>1.07010306590572E-2</v>
       </c>
       <c r="M108" t="s">
         <v>14</v>
       </c>
       <c r="N108" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="O108">
-        <v>0.1337900099539262</v>
+        <v>0.13609881838126348</v>
       </c>
     </row>
     <row r="109" spans="2:15" x14ac:dyDescent="0.45">
@@ -12015,19 +12015,19 @@
         <v>403</v>
       </c>
       <c r="I109" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="J109">
-        <v>1.1171964712360606E-2</v>
+        <v>1.0892671945041147E-2</v>
       </c>
       <c r="M109" t="s">
         <v>14</v>
       </c>
       <c r="N109" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="O109">
-        <v>0.13457001605309293</v>
+        <v>0.14115590729830307</v>
       </c>
     </row>
     <row r="110" spans="2:15" x14ac:dyDescent="0.45">
@@ -12047,19 +12047,19 @@
         <v>403</v>
       </c>
       <c r="I110" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="J110">
-        <v>1.1173494539692104E-2</v>
+        <v>1.0891391608086139E-2</v>
       </c>
       <c r="M110" t="s">
         <v>14</v>
       </c>
       <c r="N110" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="O110">
-        <v>0.13696845427813642</v>
+        <v>0.13539664394170092</v>
       </c>
     </row>
     <row r="111" spans="2:15" x14ac:dyDescent="0.45">
@@ -12079,19 +12079,19 @@
         <v>403</v>
       </c>
       <c r="I111" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="J111">
-        <v>1.1277045212544249E-2</v>
+        <v>1.0876939945506014E-2</v>
       </c>
       <c r="M111" t="s">
         <v>14</v>
       </c>
       <c r="N111" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="O111">
-        <v>0.16001726820070861</v>
+        <v>0.13267445810701584</v>
       </c>
     </row>
     <row r="112" spans="2:15" x14ac:dyDescent="0.45">
@@ -12111,19 +12111,19 @@
         <v>403</v>
       </c>
       <c r="I112" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="J112">
-        <v>1.1338898383586832E-2</v>
+        <v>1.0860453260551654E-2</v>
       </c>
       <c r="M112" t="s">
         <v>14</v>
       </c>
       <c r="N112" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="O112">
-        <v>0.16794013070221903</v>
+        <v>0.13079604603409578</v>
       </c>
     </row>
     <row r="113" spans="2:15" x14ac:dyDescent="0.45">
@@ -12143,19 +12143,19 @@
         <v>403</v>
       </c>
       <c r="I113" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="J113">
-        <v>1.1382044173707685E-2</v>
+        <v>1.0824949253963535E-2</v>
       </c>
       <c r="M113" t="s">
         <v>14</v>
       </c>
       <c r="N113" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="O113">
-        <v>0.16661735418215451</v>
+        <v>0.1337900099539262</v>
       </c>
     </row>
     <row r="114" spans="2:15" x14ac:dyDescent="0.45">
@@ -12175,19 +12175,19 @@
         <v>403</v>
       </c>
       <c r="I114" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="J114">
-        <v>1.1289186760934088E-2</v>
+        <v>1.0803221072266682E-2</v>
       </c>
       <c r="M114" t="s">
         <v>14</v>
       </c>
       <c r="N114" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="O114">
-        <v>0.12476910934747698</v>
+        <v>0.13457001605309293</v>
       </c>
     </row>
     <row r="115" spans="2:15" x14ac:dyDescent="0.45">
@@ -12207,19 +12207,19 @@
         <v>403</v>
       </c>
       <c r="I115" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="J115">
-        <v>1.1068247078657561E-2</v>
+        <v>1.0804700405874518E-2</v>
       </c>
       <c r="M115" t="s">
         <v>14</v>
       </c>
       <c r="N115" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="O115">
-        <v>0.1031558459613513</v>
+        <v>0.13696845427813642</v>
       </c>
     </row>
     <row r="116" spans="2:15" x14ac:dyDescent="0.45">
@@ -12239,19 +12239,19 @@
         <v>403</v>
       </c>
       <c r="I116" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="J116">
-        <v>1.0587454187413437E-2</v>
+        <v>1.0904833268786803E-2</v>
       </c>
       <c r="M116" t="s">
         <v>14</v>
       </c>
       <c r="N116" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="O116">
-        <v>9.0263035374934519E-2</v>
+        <v>0.16001726820070861</v>
       </c>
     </row>
     <row r="117" spans="2:15" x14ac:dyDescent="0.45">
@@ -12271,19 +12271,19 @@
         <v>403</v>
       </c>
       <c r="I117" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="J117">
-        <v>9.6581578569270785E-3</v>
+        <v>1.0964644904250925E-2</v>
       </c>
       <c r="M117" t="s">
         <v>14</v>
       </c>
       <c r="N117" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="O117">
-        <v>0.13527514693963161</v>
+        <v>0.16794013070221903</v>
       </c>
     </row>
     <row r="118" spans="2:15" x14ac:dyDescent="0.45">
@@ -12303,19 +12303,19 @@
         <v>403</v>
       </c>
       <c r="I118" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="J118">
-        <v>8.7833295919388585E-3</v>
+        <v>1.1006366617576558E-2</v>
       </c>
       <c r="M118" t="s">
         <v>14</v>
       </c>
       <c r="N118" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="O118">
-        <v>9.3304628457820282E-2</v>
+        <v>0.16661735418215451</v>
       </c>
     </row>
     <row r="119" spans="2:15" x14ac:dyDescent="0.45">
@@ -12335,19 +12335,19 @@
         <v>403</v>
       </c>
       <c r="I119" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="J119">
-        <v>8.6268685927771771E-5</v>
+        <v>1.0916574071303833E-2</v>
       </c>
       <c r="M119" t="s">
         <v>14</v>
       </c>
       <c r="N119" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="O119">
-        <v>0</v>
+        <v>0.12476910934747698</v>
       </c>
     </row>
     <row r="120" spans="2:15" x14ac:dyDescent="0.45">
@@ -12367,19 +12367,19 @@
         <v>403</v>
       </c>
       <c r="I120" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="J120">
-        <v>8.6268685927771771E-5</v>
+        <v>1.0702926759239836E-2</v>
       </c>
       <c r="M120" t="s">
         <v>14</v>
       </c>
       <c r="N120" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="O120">
-        <v>0</v>
+        <v>0.1031558459613513</v>
       </c>
     </row>
     <row r="121" spans="2:15" x14ac:dyDescent="0.45">
@@ -12399,19 +12399,19 @@
         <v>403</v>
       </c>
       <c r="I121" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="J121">
-        <v>8.652495141985028E-5</v>
+        <v>1.0238002994457639E-2</v>
       </c>
       <c r="M121" t="s">
         <v>14</v>
       </c>
       <c r="N121" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="O121">
-        <v>0</v>
+        <v>9.0263035374934519E-2</v>
       </c>
     </row>
     <row r="122" spans="2:15" x14ac:dyDescent="0.45">
@@ -12431,19 +12431,19 @@
         <v>403</v>
       </c>
       <c r="I122" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="J122">
-        <v>9.1902643943012711E-5</v>
+        <v>9.3393791661185808E-3</v>
       </c>
       <c r="M122" t="s">
         <v>14</v>
       </c>
       <c r="N122" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="O122">
-        <v>0</v>
+        <v>0.13527514693963161</v>
       </c>
     </row>
     <row r="123" spans="2:15" x14ac:dyDescent="0.45">
@@ -12463,19 +12463,19 @@
         <v>403</v>
       </c>
       <c r="I123" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="J123">
-        <v>1.0203289650108551E-4</v>
+        <v>8.4934256216646908E-3</v>
       </c>
       <c r="M123" t="s">
         <v>14</v>
       </c>
       <c r="N123" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="O123">
-        <v>0</v>
+        <v>9.3304628457820282E-2</v>
       </c>
     </row>
     <row r="124" spans="2:15" x14ac:dyDescent="0.45">
@@ -12495,16 +12495,16 @@
         <v>403</v>
       </c>
       <c r="I124" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="J124">
-        <v>1.1314938292261194E-4</v>
+        <v>8.5043298443954315E-5</v>
       </c>
       <c r="M124" t="s">
         <v>14</v>
       </c>
       <c r="N124" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="O124">
         <v>0</v>
@@ -12527,16 +12527,16 @@
         <v>403</v>
       </c>
       <c r="I125" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="J125">
-        <v>1.2361355718248397E-4</v>
+        <v>8.3421287990689984E-5</v>
       </c>
       <c r="M125" t="s">
         <v>14</v>
       </c>
       <c r="N125" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="O125">
         <v>0</v>
@@ -12559,16 +12559,16 @@
         <v>403</v>
       </c>
       <c r="I126" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="J126">
-        <v>1.2804384394705319E-4</v>
+        <v>8.3421287990689984E-5</v>
       </c>
       <c r="M126" t="s">
         <v>14</v>
       </c>
       <c r="N126" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="O126">
         <v>0</v>
@@ -12591,16 +12591,16 @@
         <v>403</v>
       </c>
       <c r="I127" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="J127">
-        <v>1.2785746904372337E-4</v>
+        <v>8.3669095143272033E-5</v>
       </c>
       <c r="M127" t="s">
         <v>14</v>
       </c>
       <c r="N127" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="O127">
         <v>0</v>
@@ -12623,16 +12623,16 @@
         <v>403</v>
       </c>
       <c r="I128" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="J128">
-        <v>1.2785746904372337E-4</v>
+        <v>8.886929069366809E-5</v>
       </c>
       <c r="M128" t="s">
         <v>14</v>
       </c>
       <c r="N128" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="O128">
         <v>0</v>
@@ -12655,16 +12655,16 @@
         <v>403</v>
       </c>
       <c r="I129" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="J129">
-        <v>1.2771380505573996E-4</v>
+        <v>9.8665182528313121E-5</v>
       </c>
       <c r="M129" t="s">
         <v>14</v>
       </c>
       <c r="N129" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="O129">
         <v>0</v>
@@ -12687,16 +12687,16 @@
         <v>403</v>
       </c>
       <c r="I130" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="J130">
-        <v>1.2801278146316487E-4</v>
+        <v>1.0941475643501632E-4</v>
       </c>
       <c r="M130" t="s">
         <v>14</v>
       </c>
       <c r="N130" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="O130">
         <v>0</v>
@@ -12719,16 +12719,16 @@
         <v>403</v>
       </c>
       <c r="I131" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="J131">
-        <v>1.2786911747518148E-4</v>
+        <v>1.195335484987834E-4</v>
       </c>
       <c r="M131" t="s">
         <v>14</v>
       </c>
       <c r="N131" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="O131">
         <v>0</v>
@@ -12751,16 +12751,16 @@
         <v>403</v>
       </c>
       <c r="I132" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="J132">
-        <v>1.27616734793589E-4</v>
+        <v>1.2381760851539128E-4</v>
       </c>
       <c r="M132" t="s">
         <v>14</v>
       </c>
       <c r="N132" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="O132">
         <v>0</v>
@@ -12783,16 +12783,16 @@
         <v>403</v>
       </c>
       <c r="I133" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="J133">
-        <v>1.2756237544678448E-4</v>
+        <v>1.2363738513169523E-4</v>
       </c>
       <c r="M133" t="s">
         <v>14</v>
       </c>
       <c r="N133" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="O133">
         <v>0</v>
@@ -12815,16 +12815,16 @@
         <v>403</v>
       </c>
       <c r="I134" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="J134">
-        <v>1.2777981283400262E-4</v>
+        <v>1.2363738513169523E-4</v>
       </c>
       <c r="M134" t="s">
         <v>14</v>
       </c>
       <c r="N134" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="O134">
         <v>0</v>
@@ -12847,16 +12847,16 @@
         <v>403</v>
       </c>
       <c r="I135" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="J135">
-        <v>1.2748083642657768E-4</v>
+        <v>1.2349846294009621E-4</v>
       </c>
       <c r="M135" t="s">
         <v>14</v>
       </c>
       <c r="N135" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="O135">
         <v>0</v>
@@ -12879,16 +12879,16 @@
         <v>403</v>
       </c>
       <c r="I136" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="J136">
-        <v>1.2800113303170675E-4</v>
+        <v>1.2378757128477528E-4</v>
       </c>
       <c r="M136" t="s">
         <v>14</v>
       </c>
       <c r="N136" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="O136">
         <v>0</v>
@@ -12911,16 +12911,16 @@
         <v>403</v>
       </c>
       <c r="I137" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="J137">
-        <v>1.2758567230970071E-4</v>
+        <v>1.2364864909317625E-4</v>
       </c>
       <c r="M137" t="s">
         <v>14</v>
       </c>
       <c r="N137" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="O137">
         <v>0</v>
@@ -12943,16 +12943,16 @@
         <v>403</v>
       </c>
       <c r="I138" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="J138">
-        <v>1.2444447862649608E-4</v>
+        <v>1.2340459659442122E-4</v>
       </c>
       <c r="M138" t="s">
         <v>14</v>
       </c>
       <c r="N138" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="O138">
         <v>0</v>
@@ -12975,16 +12975,16 @@
         <v>403</v>
       </c>
       <c r="I139" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="J139">
-        <v>1.1783205236877359E-4</v>
+        <v>1.2335203144084317E-4</v>
       </c>
       <c r="M139" t="s">
         <v>14</v>
       </c>
       <c r="N139" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="O139">
         <v>0</v>
@@ -13007,16 +13007,16 @@
         <v>403</v>
       </c>
       <c r="I140" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="J140">
-        <v>1.0040599890743563E-4</v>
+        <v>1.2356229205515523E-4</v>
       </c>
       <c r="M140" t="s">
         <v>14</v>
       </c>
       <c r="N140" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="O140">
         <v>0</v>
@@ -13039,16 +13039,16 @@
         <v>403</v>
       </c>
       <c r="I141" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="J141">
-        <v>9.3110198004170481E-5</v>
+        <v>1.2327318371047616E-4</v>
       </c>
       <c r="M141" t="s">
         <v>14</v>
       </c>
       <c r="N141" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="O141">
         <v>0</v>
@@ -13071,19 +13071,19 @@
         <v>403</v>
       </c>
       <c r="I142" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="J142">
-        <v>8.2596337801355713E-3</v>
+        <v>1.2377630732329426E-4</v>
       </c>
       <c r="M142" t="s">
         <v>14</v>
       </c>
       <c r="N142" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="O142">
-        <v>3.6441824355306185E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="2:15" x14ac:dyDescent="0.45">
@@ -13103,19 +13103,19 @@
         <v>403</v>
       </c>
       <c r="I143" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="J143">
-        <v>8.1337918922830838E-3</v>
+        <v>1.2337455936380518E-4</v>
       </c>
       <c r="M143" t="s">
         <v>14</v>
       </c>
       <c r="N143" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="O143">
-        <v>3.6455582235061845E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="2:15" x14ac:dyDescent="0.45">
@@ -13135,19 +13135,19 @@
         <v>403</v>
       </c>
       <c r="I144" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="J144">
-        <v>8.145824721979316E-3</v>
+        <v>1.2033704441776155E-4</v>
       </c>
       <c r="M144" t="s">
         <v>14</v>
       </c>
       <c r="N144" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="O144">
-        <v>5.6302335711473361E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="2:15" x14ac:dyDescent="0.45">
@@ -13167,19 +13167,19 @@
         <v>403</v>
       </c>
       <c r="I145" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="J145">
-        <v>8.5340747080992138E-3</v>
+        <v>1.1394286895037925E-4</v>
       </c>
       <c r="M145" t="s">
         <v>14</v>
       </c>
       <c r="N145" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="O145">
-        <v>6.52998598012835E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="2:15" x14ac:dyDescent="0.45">
@@ -13199,19 +13199,19 @@
         <v>403</v>
       </c>
       <c r="I146" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="J146">
-        <v>1.0420930346599803E-2</v>
+        <v>9.7091982574799786E-5</v>
       </c>
       <c r="M146" t="s">
         <v>14</v>
       </c>
       <c r="N146" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="O146">
-        <v>8.8454265215635042E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="2:15" x14ac:dyDescent="0.45">
@@ -13231,19 +13231,19 @@
         <v>403</v>
       </c>
       <c r="I147" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="J147">
-        <v>1.1678475592765315E-2</v>
+        <v>9.0036988033865339E-5</v>
       </c>
       <c r="M147" t="s">
         <v>14</v>
       </c>
       <c r="N147" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="O147">
-        <v>7.1288169180691696E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="2:15" x14ac:dyDescent="0.45">
@@ -13263,19 +13263,19 @@
         <v>403</v>
       </c>
       <c r="I148" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="J148">
-        <v>1.2475177827963967E-2</v>
+        <v>8.4309690200856588E-3</v>
       </c>
       <c r="M148" t="s">
         <v>14</v>
       </c>
       <c r="N148" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="O148">
-        <v>5.6473880952295108E-2</v>
+        <v>2.9428967426593067E-2</v>
       </c>
     </row>
     <row r="149" spans="2:15" x14ac:dyDescent="0.45">
@@ -13295,19 +13295,19 @@
         <v>403</v>
       </c>
       <c r="I149" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="J149">
-        <v>1.2959348764330946E-2</v>
+        <v>7.9870149969272601E-3</v>
       </c>
       <c r="M149" t="s">
         <v>14</v>
       </c>
       <c r="N149" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="O149">
-        <v>5.6424994153044139E-2</v>
+        <v>3.6441824355306185E-2</v>
       </c>
     </row>
     <row r="150" spans="2:15" x14ac:dyDescent="0.45">
@@ -13327,19 +13327,19 @@
         <v>403</v>
       </c>
       <c r="I150" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="J150">
-        <v>1.3155815092113976E-2</v>
+        <v>7.8653266663941662E-3</v>
       </c>
       <c r="M150" t="s">
         <v>14</v>
       </c>
       <c r="N150" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="O150">
-        <v>5.4329805751110571E-2</v>
+        <v>3.6455582235061845E-2</v>
       </c>
     </row>
     <row r="151" spans="2:15" x14ac:dyDescent="0.45">
@@ -13359,19 +13359,19 @@
         <v>403</v>
       </c>
       <c r="I151" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="J151">
-        <v>1.3050435615522908E-2</v>
+        <v>7.8769623386040419E-3</v>
       </c>
       <c r="M151" t="s">
         <v>14</v>
       </c>
       <c r="N151" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="O151">
-        <v>6.2349578951204077E-2</v>
+        <v>5.6302335711473361E-2</v>
       </c>
     </row>
     <row r="152" spans="2:15" x14ac:dyDescent="0.45">
@@ -13391,19 +13391,19 @@
         <v>403</v>
       </c>
       <c r="I152" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="J152">
-        <v>1.2928926944172839E-2</v>
+        <v>8.2523976840735026E-3</v>
       </c>
       <c r="M152" t="s">
         <v>14</v>
       </c>
       <c r="N152" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="O152">
-        <v>6.916535154525616E-2</v>
+        <v>6.52998598012835E-2</v>
       </c>
     </row>
     <row r="153" spans="2:15" x14ac:dyDescent="0.45">
@@ -13423,19 +13423,19 @@
         <v>403</v>
       </c>
       <c r="I153" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="J153">
-        <v>1.2820433453571969E-2</v>
+        <v>1.0076975465958355E-2</v>
       </c>
       <c r="M153" t="s">
         <v>14</v>
       </c>
       <c r="N153" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="O153">
-        <v>7.8382945600307119E-2</v>
+        <v>8.8454265215635042E-2</v>
       </c>
     </row>
     <row r="154" spans="2:15" x14ac:dyDescent="0.45">
@@ -13455,19 +13455,19 @@
         <v>403</v>
       </c>
       <c r="I154" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="J154">
-        <v>1.2751284481626121E-2</v>
+        <v>1.1293013974178229E-2</v>
       </c>
       <c r="M154" t="s">
         <v>14</v>
       </c>
       <c r="N154" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="O154">
-        <v>8.1729359866243856E-2</v>
+        <v>7.1288169180691696E-2</v>
       </c>
     </row>
     <row r="155" spans="2:15" x14ac:dyDescent="0.45">
@@ -13487,19 +13487,19 @@
         <v>403</v>
       </c>
       <c r="I155" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="J155">
-        <v>1.2725747237059449E-2</v>
+        <v>1.2063420128979036E-2</v>
       </c>
       <c r="M155" t="s">
         <v>14</v>
       </c>
       <c r="N155" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="O155">
-        <v>8.0826817865515377E-2</v>
+        <v>5.6473880952295108E-2</v>
       </c>
     </row>
     <row r="156" spans="2:15" x14ac:dyDescent="0.45">
@@ -13519,19 +13519,19 @@
         <v>403</v>
       </c>
       <c r="I156" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="J156">
-        <v>1.2832140127187374E-2</v>
+        <v>1.2531610442590725E-2</v>
       </c>
       <c r="M156" t="s">
         <v>14</v>
       </c>
       <c r="N156" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="O156">
-        <v>8.058605203988467E-2</v>
+        <v>5.6424994153044139E-2</v>
       </c>
     </row>
     <row r="157" spans="2:15" x14ac:dyDescent="0.45">
@@ -13551,19 +13551,19 @@
         <v>403</v>
       </c>
       <c r="I157" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="J157">
-        <v>1.3261101381253379E-2</v>
+        <v>1.2721592171583137E-2</v>
       </c>
       <c r="M157" t="s">
         <v>14</v>
       </c>
       <c r="N157" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="O157">
-        <v>7.5571581584644498E-2</v>
+        <v>5.4329805751110571E-2</v>
       </c>
     </row>
     <row r="158" spans="2:15" x14ac:dyDescent="0.45">
@@ -13583,19 +13583,19 @@
         <v>403</v>
       </c>
       <c r="I158" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="J158">
-        <v>1.3554867057006032E-2</v>
+        <v>1.2619690866718335E-2</v>
       </c>
       <c r="M158" t="s">
         <v>14</v>
       </c>
       <c r="N158" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="O158">
-        <v>5.624270084080063E-2</v>
+        <v>6.2349578951204077E-2</v>
       </c>
     </row>
     <row r="159" spans="2:15" x14ac:dyDescent="0.45">
@@ -13615,19 +13615,19 @@
         <v>403</v>
       </c>
       <c r="I159" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="J159">
-        <v>1.3649766828095284E-2</v>
+        <v>1.2502192729856173E-2</v>
       </c>
       <c r="M159" t="s">
         <v>14</v>
       </c>
       <c r="N159" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="O159">
-        <v>4.927171114455775E-2</v>
+        <v>6.916535154525616E-2</v>
       </c>
     </row>
     <row r="160" spans="2:15" x14ac:dyDescent="0.45">
@@ -13647,19 +13647,19 @@
         <v>403</v>
       </c>
       <c r="I160" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="J160">
-        <v>1.3196969000455491E-2</v>
+        <v>1.2397280192622118E-2</v>
       </c>
       <c r="M160" t="s">
         <v>14</v>
       </c>
       <c r="N160" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="O160">
-        <v>3.8623892144862504E-2</v>
+        <v>7.8382945600307119E-2</v>
       </c>
     </row>
     <row r="161" spans="2:15" x14ac:dyDescent="0.45">
@@ -13679,19 +13679,19 @@
         <v>403</v>
       </c>
       <c r="I161" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="J161">
-        <v>1.2246029884319956E-2</v>
+        <v>1.2330413562617061E-2</v>
       </c>
       <c r="M161" t="s">
         <v>14</v>
       </c>
       <c r="N161" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="O161">
-        <v>2.6648831619771718E-2</v>
+        <v>8.1729359866243856E-2</v>
       </c>
     </row>
     <row r="162" spans="2:15" x14ac:dyDescent="0.45">
@@ -13711,19 +13711,19 @@
         <v>403</v>
       </c>
       <c r="I162" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="J162">
-        <v>1.1682901996719399E-2</v>
+        <v>1.2305719204396876E-2</v>
       </c>
       <c r="M162" t="s">
         <v>14</v>
       </c>
       <c r="N162" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="O162">
-        <v>2.2370026706385326E-2</v>
+        <v>8.0826817865515377E-2</v>
       </c>
     </row>
     <row r="163" spans="2:15" x14ac:dyDescent="0.45">
@@ -13743,19 +13743,19 @@
         <v>403</v>
       </c>
       <c r="I163" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="J163">
-        <v>1.0897475443172201E-2</v>
+        <v>1.2408600473910526E-2</v>
       </c>
       <c r="M163" t="s">
         <v>14</v>
       </c>
       <c r="N163" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="O163">
-        <v>2.9319107209777595E-2</v>
+        <v>8.058605203988467E-2</v>
       </c>
     </row>
     <row r="164" spans="2:15" x14ac:dyDescent="0.45">
@@ -13775,19 +13775,19 @@
         <v>403</v>
       </c>
       <c r="I164" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="J164">
-        <v>9.260412651669889E-3</v>
+        <v>1.2823403364756089E-2</v>
       </c>
       <c r="M164" t="s">
         <v>14</v>
       </c>
       <c r="N164" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="O164">
-        <v>2.4405573595727814E-2</v>
+        <v>7.5571581584644498E-2</v>
       </c>
     </row>
     <row r="165" spans="2:15" x14ac:dyDescent="0.45">
@@ -13807,19 +13807,19 @@
         <v>403</v>
       </c>
       <c r="I165" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="J165">
-        <v>9.3012589732482056E-5</v>
+        <v>1.3107472963999315E-2</v>
       </c>
       <c r="M165" t="s">
         <v>14</v>
       </c>
       <c r="N165" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="O165">
-        <v>0</v>
+        <v>5.624270084080063E-2</v>
       </c>
     </row>
     <row r="166" spans="2:15" x14ac:dyDescent="0.45">
@@ -13839,19 +13839,19 @@
         <v>403</v>
       </c>
       <c r="I166" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="J166">
-        <v>9.1762324755977867E-5</v>
+        <v>1.3199240458185039E-2</v>
       </c>
       <c r="M166" t="s">
         <v>14</v>
       </c>
       <c r="N166" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="O166">
-        <v>0</v>
+        <v>4.927171114455775E-2</v>
       </c>
     </row>
     <row r="167" spans="2:15" x14ac:dyDescent="0.45">
@@ -13871,19 +13871,19 @@
         <v>403</v>
       </c>
       <c r="I167" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="J167">
-        <v>9.1762324755977867E-5</v>
+        <v>1.2761387747495518E-2</v>
       </c>
       <c r="M167" t="s">
         <v>14</v>
       </c>
       <c r="N167" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="O167">
-        <v>0</v>
+        <v>3.8623892144862504E-2</v>
       </c>
     </row>
     <row r="168" spans="2:15" x14ac:dyDescent="0.45">
@@ -13903,19 +13903,19 @@
         <v>403</v>
       </c>
       <c r="I168" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="J168">
-        <v>9.7140017279140312E-5</v>
+        <v>1.1841835478724758E-2</v>
       </c>
       <c r="M168" t="s">
         <v>14</v>
       </c>
       <c r="N168" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="O168">
-        <v>0</v>
+        <v>2.6648831619771718E-2</v>
       </c>
     </row>
     <row r="169" spans="2:15" x14ac:dyDescent="0.45">
@@ -13935,19 +13935,19 @@
         <v>403</v>
       </c>
       <c r="I169" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="J169">
-        <v>1.1874785763394104E-4</v>
+        <v>1.129729427954101E-2</v>
       </c>
       <c r="M169" t="s">
         <v>14</v>
       </c>
       <c r="N169" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="O169">
-        <v>0</v>
+        <v>2.2370026706385326E-2</v>
       </c>
     </row>
     <row r="170" spans="2:15" x14ac:dyDescent="0.45">
@@ -13967,19 +13967,19 @@
         <v>403</v>
       </c>
       <c r="I170" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="J170">
-        <v>1.3623991887354165E-4</v>
+        <v>1.0537791639453812E-2</v>
       </c>
       <c r="M170" t="s">
         <v>14</v>
       </c>
       <c r="N170" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="O170">
-        <v>0</v>
+        <v>2.9319107209777595E-2</v>
       </c>
     </row>
     <row r="171" spans="2:15" x14ac:dyDescent="0.45">
@@ -13999,19 +13999,19 @@
         <v>403</v>
       </c>
       <c r="I171" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="J171">
-        <v>1.4843194379970056E-4</v>
+        <v>8.9547620022214017E-3</v>
       </c>
       <c r="M171" t="s">
         <v>14</v>
       </c>
       <c r="N171" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="O171">
-        <v>0</v>
+        <v>2.4405573595727814E-2</v>
       </c>
     </row>
     <row r="172" spans="2:15" x14ac:dyDescent="0.45">
@@ -14031,16 +14031,16 @@
         <v>403</v>
       </c>
       <c r="I172" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="J172">
-        <v>1.5452407345229396E-4</v>
+        <v>9.4418148798065913E-5</v>
       </c>
       <c r="M172" t="s">
         <v>14</v>
       </c>
       <c r="N172" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="O172">
         <v>0</v>
@@ -14063,16 +14063,16 @@
         <v>403</v>
       </c>
       <c r="I173" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="J173">
-        <v>1.5527733868658531E-4</v>
+        <v>8.9942601436281E-5</v>
       </c>
       <c r="M173" t="s">
         <v>14</v>
       </c>
       <c r="N173" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="O173">
         <v>0</v>
@@ -14095,16 +14095,16 @@
         <v>403</v>
       </c>
       <c r="I174" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="J174">
-        <v>1.5489294044846756E-4</v>
+        <v>8.8733602903986751E-5</v>
       </c>
       <c r="M174" t="s">
         <v>14</v>
       </c>
       <c r="N174" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="O174">
         <v>0</v>
@@ -14127,16 +14127,16 @@
         <v>403</v>
       </c>
       <c r="I175" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="J175">
-        <v>1.5489294044846756E-4</v>
+        <v>8.8733602903986751E-5</v>
       </c>
       <c r="M175" t="s">
         <v>14</v>
       </c>
       <c r="N175" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="O175">
         <v>0</v>
@@ -14159,16 +14159,16 @@
         <v>403</v>
       </c>
       <c r="I176" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="J176">
-        <v>1.5477645613388641E-4</v>
+        <v>9.3933798454382821E-5</v>
       </c>
       <c r="M176" t="s">
         <v>14</v>
       </c>
       <c r="N176" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="O176">
         <v>0</v>
@@ -14191,16 +14191,16 @@
         <v>403</v>
       </c>
       <c r="I177" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="J177">
-        <v>1.5477645613388641E-4</v>
+        <v>1.1482844700164211E-4</v>
       </c>
       <c r="M177" t="s">
         <v>14</v>
       </c>
       <c r="N177" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="O177">
         <v>0</v>
@@ -14223,16 +14223,16 @@
         <v>403</v>
       </c>
       <c r="I178" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="J178">
-        <v>1.546133780934728E-4</v>
+        <v>1.3174316249228059E-4</v>
       </c>
       <c r="M178" t="s">
         <v>14</v>
       </c>
       <c r="N178" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="O178">
         <v>0</v>
@@ -14255,16 +14255,16 @@
         <v>403</v>
       </c>
       <c r="I179" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="J179">
-        <v>1.546133780934728E-4</v>
+        <v>1.4353277550906298E-4</v>
       </c>
       <c r="M179" t="s">
         <v>14</v>
       </c>
       <c r="N179" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="O179">
         <v>0</v>
@@ -14287,16 +14287,16 @@
         <v>403</v>
       </c>
       <c r="I180" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="J180">
-        <v>1.5839911831735972E-4</v>
+        <v>1.4942382736362722E-4</v>
       </c>
       <c r="M180" t="s">
         <v>14</v>
       </c>
       <c r="N180" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="O180">
         <v>0</v>
@@ -14319,16 +14319,16 @@
         <v>403</v>
       </c>
       <c r="I181" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="J181">
-        <v>1.5883011028130993E-4</v>
+        <v>1.5015223020606536E-4</v>
       </c>
       <c r="M181" t="s">
         <v>14</v>
       </c>
       <c r="N181" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="O181">
         <v>0</v>
@@ -14351,16 +14351,16 @@
         <v>403</v>
       </c>
       <c r="I182" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="J182">
-        <v>1.5883011028130996E-4</v>
+        <v>1.4978051947719229E-4</v>
       </c>
       <c r="M182" t="s">
         <v>14</v>
       </c>
       <c r="N182" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="O182">
         <v>0</v>
@@ -14383,16 +14383,16 @@
         <v>403</v>
       </c>
       <c r="I183" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="J183">
-        <v>1.5378245664946072E-4</v>
+        <v>1.4978051947719229E-4</v>
       </c>
       <c r="M183" t="s">
         <v>14</v>
       </c>
       <c r="N183" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="O183">
         <v>0</v>
@@ -14415,16 +14415,16 @@
         <v>403</v>
       </c>
       <c r="I184" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="J184">
-        <v>1.4145453335629048E-4</v>
+        <v>1.4966787986238225E-4</v>
       </c>
       <c r="M184" t="s">
         <v>14</v>
       </c>
       <c r="N184" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="O184">
         <v>0</v>
@@ -14447,16 +14447,16 @@
         <v>403</v>
       </c>
       <c r="I185" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="J185">
-        <v>1.342985136305227E-4</v>
+        <v>1.4966787986238225E-4</v>
       </c>
       <c r="M185" t="s">
         <v>14</v>
       </c>
       <c r="N185" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="O185">
         <v>0</v>
@@ -14479,16 +14479,16 @@
         <v>403</v>
       </c>
       <c r="I186" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="J186">
-        <v>1.2523603395611031E-4</v>
+        <v>1.4951018440164822E-4</v>
       </c>
       <c r="M186" t="s">
         <v>14</v>
       </c>
       <c r="N186" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="O186">
         <v>0</v>
@@ -14511,16 +14511,16 @@
         <v>403</v>
       </c>
       <c r="I187" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="J187">
-        <v>1.0476197426323264E-4</v>
+        <v>1.4951018440164822E-4</v>
       </c>
       <c r="M187" t="s">
         <v>14</v>
       </c>
       <c r="N187" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="O187">
         <v>0</v>
@@ -14540,13 +14540,22 @@
         <v>399</v>
       </c>
       <c r="H188" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I188" t="s">
-        <v>202</v>
+        <v>388</v>
       </c>
       <c r="J188">
-        <v>1.0631227072923691E-2</v>
+        <v>1.5317097188297397E-4</v>
+      </c>
+      <c r="M188" t="s">
+        <v>14</v>
+      </c>
+      <c r="N188" t="s">
+        <v>388</v>
+      </c>
+      <c r="O188">
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="2:15" x14ac:dyDescent="0.45">
@@ -14563,13 +14572,22 @@
         <v>399</v>
       </c>
       <c r="H189" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I189" t="s">
-        <v>205</v>
+        <v>389</v>
       </c>
       <c r="J189">
-        <v>1.0627254369741022E-2</v>
+        <v>1.5358773845777109E-4</v>
+      </c>
+      <c r="M189" t="s">
+        <v>14</v>
+      </c>
+      <c r="N189" t="s">
+        <v>389</v>
+      </c>
+      <c r="O189">
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="2:15" x14ac:dyDescent="0.45">
@@ -14586,13 +14604,22 @@
         <v>399</v>
       </c>
       <c r="H190" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I190" t="s">
-        <v>206</v>
+        <v>390</v>
       </c>
       <c r="J190">
-        <v>1.0628757241695951E-2</v>
+        <v>1.5358773845777109E-4</v>
+      </c>
+      <c r="M190" t="s">
+        <v>14</v>
+      </c>
+      <c r="N190" t="s">
+        <v>390</v>
+      </c>
+      <c r="O190">
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="2:15" x14ac:dyDescent="0.45">
@@ -14609,13 +14636,22 @@
         <v>399</v>
       </c>
       <c r="H191" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I191" t="s">
-        <v>207</v>
+        <v>391</v>
       </c>
       <c r="J191">
-        <v>1.0659697747194203E-2</v>
+        <v>1.4870668848267007E-4</v>
+      </c>
+      <c r="M191" t="s">
+        <v>14</v>
+      </c>
+      <c r="N191" t="s">
+        <v>391</v>
+      </c>
+      <c r="O191">
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="2:15" x14ac:dyDescent="0.45">
@@ -14632,16 +14668,25 @@
         <v>399</v>
       </c>
       <c r="H192" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I192" t="s">
-        <v>208</v>
+        <v>392</v>
       </c>
       <c r="J192">
-        <v>1.0724815833567903E-2</v>
-      </c>
-    </row>
-    <row r="193" spans="2:10" x14ac:dyDescent="0.45">
+        <v>1.3678566258194263E-4</v>
+      </c>
+      <c r="M192" t="s">
+        <v>14</v>
+      </c>
+      <c r="N192" t="s">
+        <v>392</v>
+      </c>
+      <c r="O192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B193">
         <v>1.1415525114155251E-4</v>
       </c>
@@ -14655,16 +14700,25 @@
         <v>399</v>
       </c>
       <c r="H193" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I193" t="s">
-        <v>209</v>
+        <v>393</v>
       </c>
       <c r="J193">
-        <v>1.0804815513929795E-2</v>
-      </c>
-    </row>
-    <row r="194" spans="2:10" x14ac:dyDescent="0.45">
+        <v>1.2986583557878019E-4</v>
+      </c>
+      <c r="M193" t="s">
+        <v>14</v>
+      </c>
+      <c r="N193" t="s">
+        <v>393</v>
+      </c>
+      <c r="O193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B194">
         <v>1.1415525114155251E-4</v>
       </c>
@@ -14678,16 +14732,25 @@
         <v>399</v>
       </c>
       <c r="H194" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I194" t="s">
-        <v>210</v>
+        <v>394</v>
       </c>
       <c r="J194">
-        <v>1.0879060393621118E-2</v>
-      </c>
-    </row>
-    <row r="195" spans="2:10" x14ac:dyDescent="0.45">
+        <v>1.211024735465604E-4</v>
+      </c>
+      <c r="M194" t="s">
+        <v>14</v>
+      </c>
+      <c r="N194" t="s">
+        <v>394</v>
+      </c>
+      <c r="O194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B195">
         <v>1.1415525114155251E-4</v>
       </c>
@@ -14701,156 +14764,165 @@
         <v>399</v>
       </c>
       <c r="H195" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I195" t="s">
+        <v>395</v>
+      </c>
+      <c r="J195">
+        <v>1.0130418391678533E-4</v>
+      </c>
+      <c r="M195" t="s">
+        <v>14</v>
+      </c>
+      <c r="N195" t="s">
+        <v>395</v>
+      </c>
+      <c r="O195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H196" t="s">
+        <v>404</v>
+      </c>
+      <c r="I196" t="s">
+        <v>202</v>
+      </c>
+      <c r="J196">
+        <v>1.0222727841502938E-2</v>
+      </c>
+    </row>
+    <row r="197" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H197" t="s">
+        <v>404</v>
+      </c>
+      <c r="I197" t="s">
+        <v>205</v>
+      </c>
+      <c r="J197">
+        <v>1.0195620966438217E-2</v>
+      </c>
+    </row>
+    <row r="198" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H198" t="s">
+        <v>404</v>
+      </c>
+      <c r="I198" t="s">
+        <v>206</v>
+      </c>
+      <c r="J198">
+        <v>1.0191811041620993E-2</v>
+      </c>
+    </row>
+    <row r="199" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H199" t="s">
+        <v>404</v>
+      </c>
+      <c r="I199" t="s">
+        <v>207</v>
+      </c>
+      <c r="J199">
+        <v>1.0193252334588253E-2</v>
+      </c>
+    </row>
+    <row r="200" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H200" t="s">
+        <v>404</v>
+      </c>
+      <c r="I200" t="s">
+        <v>208</v>
+      </c>
+      <c r="J200">
+        <v>1.0222925077387021E-2</v>
+      </c>
+    </row>
+    <row r="201" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H201" t="s">
+        <v>404</v>
+      </c>
+      <c r="I201" t="s">
+        <v>209</v>
+      </c>
+      <c r="J201">
+        <v>1.0285375001762822E-2</v>
+      </c>
+    </row>
+    <row r="202" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H202" t="s">
+        <v>404</v>
+      </c>
+      <c r="I202" t="s">
+        <v>210</v>
+      </c>
+      <c r="J202">
+        <v>1.0362096758603423E-2</v>
+      </c>
+    </row>
+    <row r="203" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H203" t="s">
+        <v>404</v>
+      </c>
+      <c r="I203" t="s">
         <v>211</v>
       </c>
-      <c r="J195">
-        <v>1.0922996155594462E-2</v>
-      </c>
-    </row>
-    <row r="196" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="H196" t="s">
-        <v>404</v>
-      </c>
-      <c r="I196" t="s">
+      <c r="J203">
+        <v>1.0433299513171561E-2</v>
+      </c>
+    </row>
+    <row r="204" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H204" t="s">
+        <v>404</v>
+      </c>
+      <c r="I204" t="s">
         <v>212</v>
       </c>
-      <c r="J196">
-        <v>1.0932117940382343E-2</v>
-      </c>
-    </row>
-    <row r="197" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="H197" t="s">
-        <v>404</v>
-      </c>
-      <c r="I197" t="s">
+      <c r="J204">
+        <v>1.0475435042107137E-2</v>
+      </c>
+    </row>
+    <row r="205" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H205" t="s">
+        <v>404</v>
+      </c>
+      <c r="I205" t="s">
         <v>213</v>
       </c>
-      <c r="J197">
-        <v>1.0926843958566754E-2</v>
-      </c>
-    </row>
-    <row r="198" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="H198" t="s">
-        <v>404</v>
-      </c>
-      <c r="I198" t="s">
+      <c r="J205">
+        <v>1.0484183068990273E-2</v>
+      </c>
+    </row>
+    <row r="206" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H206" t="s">
+        <v>404</v>
+      </c>
+      <c r="I206" t="s">
         <v>214</v>
       </c>
-      <c r="J198">
-        <v>1.092103406406905E-2</v>
-      </c>
-    </row>
-    <row r="199" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="H199" t="s">
-        <v>404</v>
-      </c>
-      <c r="I199" t="s">
+      <c r="J206">
+        <v>1.0479125184401148E-2</v>
+      </c>
+    </row>
+    <row r="207" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H207" t="s">
+        <v>404</v>
+      </c>
+      <c r="I207" t="s">
         <v>215</v>
       </c>
-      <c r="J199">
-        <v>1.091719001749406E-2</v>
-      </c>
-    </row>
-    <row r="200" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="H200" t="s">
-        <v>404</v>
-      </c>
-      <c r="I200" t="s">
+      <c r="J207">
+        <v>1.0473553345727469E-2</v>
+      </c>
+    </row>
+    <row r="208" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H208" t="s">
+        <v>404</v>
+      </c>
+      <c r="I208" t="s">
         <v>216</v>
       </c>
-      <c r="J200">
-        <v>1.0913971098037172E-2</v>
-      </c>
-    </row>
-    <row r="201" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="H201" t="s">
-        <v>404</v>
-      </c>
-      <c r="I201" t="s">
-        <v>217</v>
-      </c>
-      <c r="J201">
-        <v>1.091200900651176E-2</v>
-      </c>
-    </row>
-    <row r="202" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="H202" t="s">
-        <v>404</v>
-      </c>
-      <c r="I202" t="s">
-        <v>218</v>
-      </c>
-      <c r="J202">
-        <v>1.0914058747307609E-2</v>
-      </c>
-    </row>
-    <row r="203" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="H203" t="s">
-        <v>404</v>
-      </c>
-      <c r="I203" t="s">
-        <v>219</v>
-      </c>
-      <c r="J203">
-        <v>1.0923523303349532E-2</v>
-      </c>
-    </row>
-    <row r="204" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="H204" t="s">
-        <v>404</v>
-      </c>
-      <c r="I204" t="s">
-        <v>220</v>
-      </c>
-      <c r="J204">
-        <v>1.0931027959097808E-2</v>
-      </c>
-    </row>
-    <row r="205" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="H205" t="s">
-        <v>404</v>
-      </c>
-      <c r="I205" t="s">
-        <v>221</v>
-      </c>
-      <c r="J205">
-        <v>1.0938563605123844E-2</v>
-      </c>
-    </row>
-    <row r="206" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="H206" t="s">
-        <v>404</v>
-      </c>
-      <c r="I206" t="s">
-        <v>222</v>
-      </c>
-      <c r="J206">
-        <v>1.0930935927363845E-2</v>
-      </c>
-    </row>
-    <row r="207" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="H207" t="s">
-        <v>404</v>
-      </c>
-      <c r="I207" t="s">
-        <v>223</v>
-      </c>
-      <c r="J207">
-        <v>1.0895232310083424E-2</v>
-      </c>
-    </row>
-    <row r="208" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="H208" t="s">
-        <v>404</v>
-      </c>
-      <c r="I208" t="s">
-        <v>224</v>
-      </c>
       <c r="J208">
-        <v>1.0846641745783526E-2</v>
+        <v>1.0469866805915357E-2</v>
       </c>
     </row>
     <row r="209" spans="8:10" x14ac:dyDescent="0.45">
@@ -14858,10 +14930,10 @@
         <v>404</v>
       </c>
       <c r="I209" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="J209">
-        <v>1.0759958495517512E-2</v>
+        <v>1.0466779779132953E-2</v>
       </c>
     </row>
     <row r="210" spans="8:10" x14ac:dyDescent="0.45">
@@ -14869,10 +14941,10 @@
         <v>404</v>
       </c>
       <c r="I210" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="J210">
-        <v>1.0700831549811459E-2</v>
+        <v>1.0464898082753285E-2</v>
       </c>
     </row>
     <row r="211" spans="8:10" x14ac:dyDescent="0.45">
@@ -14880,10 +14952,10 @@
         <v>404</v>
       </c>
       <c r="I211" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="J211">
-        <v>1.1705336743800916E-4</v>
+        <v>1.0466863837043977E-2</v>
       </c>
     </row>
     <row r="212" spans="8:10" x14ac:dyDescent="0.45">
@@ -14891,10 +14963,10 @@
         <v>404</v>
       </c>
       <c r="I212" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="J212">
-        <v>1.1705336743800916E-4</v>
+        <v>1.0475940590400589E-2</v>
       </c>
     </row>
     <row r="213" spans="8:10" x14ac:dyDescent="0.45">
@@ -14902,10 +14974,10 @@
         <v>404</v>
       </c>
       <c r="I213" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="J213">
-        <v>1.1709468780835921E-4</v>
+        <v>1.0483137748825309E-2</v>
       </c>
     </row>
     <row r="214" spans="8:10" x14ac:dyDescent="0.45">
@@ -14913,10 +14985,10 @@
         <v>404</v>
       </c>
       <c r="I214" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="J214">
-        <v>1.176803727547603E-4</v>
+        <v>1.0490364627725712E-2</v>
       </c>
     </row>
     <row r="215" spans="8:10" x14ac:dyDescent="0.45">
@@ -14924,10 +14996,10 @@
         <v>404</v>
       </c>
       <c r="I215" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="J215">
-        <v>1.1861759388224551E-4</v>
+        <v>1.0483049488018733E-2</v>
       </c>
     </row>
     <row r="216" spans="8:10" x14ac:dyDescent="0.45">
@@ -14935,10 +15007,10 @@
         <v>404</v>
       </c>
       <c r="I216" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="J216">
-        <v>1.1944055792505068E-4</v>
+        <v>1.0448808798169385E-2</v>
       </c>
     </row>
     <row r="217" spans="8:10" x14ac:dyDescent="0.45">
@@ -14946,10 +15018,10 @@
         <v>404</v>
       </c>
       <c r="I217" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="J217">
-        <v>1.2004627699040938E-4</v>
+        <v>1.0402209193744714E-2</v>
       </c>
     </row>
     <row r="218" spans="8:10" x14ac:dyDescent="0.45">
@@ -14957,10 +15029,10 @@
         <v>404</v>
       </c>
       <c r="I218" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="J218">
-        <v>1.2036056223155673E-4</v>
+        <v>1.0319077720981605E-2</v>
       </c>
     </row>
     <row r="219" spans="8:10" x14ac:dyDescent="0.45">
@@ -14968,10 +15040,10 @@
         <v>404</v>
       </c>
       <c r="I219" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="J219">
-        <v>1.2038654397957986E-4</v>
+        <v>1.0262373455031212E-2</v>
       </c>
     </row>
     <row r="220" spans="8:10" x14ac:dyDescent="0.45">
@@ -14979,10 +15051,10 @@
         <v>404</v>
       </c>
       <c r="I220" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="J220">
-        <v>1.2032112005985896E-4</v>
+        <v>1.1238658758700071E-4</v>
       </c>
     </row>
     <row r="221" spans="8:10" x14ac:dyDescent="0.45">
@@ -14990,10 +15062,10 @@
         <v>404</v>
       </c>
       <c r="I221" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="J221">
-        <v>1.2030139897401007E-4</v>
+        <v>1.1225719844538672E-4</v>
       </c>
     </row>
     <row r="222" spans="8:10" x14ac:dyDescent="0.45">
@@ -15001,10 +15073,10 @@
         <v>404</v>
       </c>
       <c r="I222" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="J222">
-        <v>1.2030139897401007E-4</v>
+        <v>1.1225719844538672E-4</v>
       </c>
     </row>
     <row r="223" spans="8:10" x14ac:dyDescent="0.45">
@@ -15012,10 +15084,10 @@
         <v>404</v>
       </c>
       <c r="I223" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="J223">
-        <v>1.2028011272261761E-4</v>
+        <v>1.1229682574629866E-4</v>
       </c>
     </row>
     <row r="224" spans="8:10" x14ac:dyDescent="0.45">
@@ -15023,10 +15095,10 @@
         <v>404</v>
       </c>
       <c r="I224" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="J224">
-        <v>1.2025976557055129E-4</v>
+        <v>1.1285851271604297E-4</v>
       </c>
     </row>
     <row r="225" spans="8:10" x14ac:dyDescent="0.45">
@@ -15034,10 +15106,10 @@
         <v>404</v>
       </c>
       <c r="I225" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="J225">
-        <v>1.20262269835421E-4</v>
+        <v>1.1375733195036389E-4</v>
       </c>
     </row>
     <row r="226" spans="8:10" x14ac:dyDescent="0.45">
@@ -15045,10 +15117,10 @@
         <v>404</v>
       </c>
       <c r="I226" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="J226">
-        <v>1.2028324305370474E-4</v>
+        <v>1.145465756935268E-4</v>
       </c>
     </row>
     <row r="227" spans="8:10" x14ac:dyDescent="0.45">
@@ -15056,10 +15128,10 @@
         <v>404</v>
       </c>
       <c r="I227" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="J227">
-        <v>1.2028324305370474E-4</v>
+        <v>1.151274759000769E-4</v>
       </c>
     </row>
     <row r="228" spans="8:10" x14ac:dyDescent="0.45">
@@ -15067,10 +15139,10 @@
         <v>404</v>
       </c>
       <c r="I228" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="J228">
-        <v>1.2034710180788208E-4</v>
+        <v>1.1542888355246776E-4</v>
       </c>
     </row>
     <row r="229" spans="8:10" x14ac:dyDescent="0.45">
@@ -15078,10 +15150,10 @@
         <v>404</v>
       </c>
       <c r="I229" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="J229">
-        <v>1.2036682289373097E-4</v>
+        <v>1.1545380071895026E-4</v>
       </c>
     </row>
     <row r="230" spans="8:10" x14ac:dyDescent="0.45">
@@ -15089,10 +15161,10 @@
         <v>404</v>
       </c>
       <c r="I230" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="J230">
-        <v>1.200969883540208E-4</v>
+        <v>1.1539105749250637E-4</v>
       </c>
     </row>
     <row r="231" spans="8:10" x14ac:dyDescent="0.45">
@@ -15100,10 +15172,10 @@
         <v>404</v>
       </c>
       <c r="I231" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="J231">
-        <v>1.1954072851983868E-4</v>
+        <v>1.1537214446252566E-4</v>
       </c>
     </row>
     <row r="232" spans="8:10" x14ac:dyDescent="0.45">
@@ -15111,10 +15183,10 @@
         <v>404</v>
       </c>
       <c r="I232" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="J232">
-        <v>1.1816995653678664E-4</v>
+        <v>1.1537214446252566E-4</v>
       </c>
     </row>
     <row r="233" spans="8:10" x14ac:dyDescent="0.45">
@@ -15122,10 +15194,10 @@
         <v>404</v>
       </c>
       <c r="I233" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="J233">
-        <v>1.1760461874245187E-4</v>
+        <v>1.1535173039841951E-4</v>
       </c>
     </row>
     <row r="234" spans="8:10" x14ac:dyDescent="0.45">
@@ -15133,10 +15205,10 @@
         <v>404</v>
       </c>
       <c r="I234" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="J234">
-        <v>1.0645155189848841E-2</v>
+        <v>1.1533221695478861E-4</v>
       </c>
     </row>
     <row r="235" spans="8:10" x14ac:dyDescent="0.45">
@@ -15144,10 +15216,10 @@
         <v>404</v>
       </c>
       <c r="I235" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="J235">
-        <v>1.0637086761471777E-2</v>
+        <v>1.1533461860938934E-4</v>
       </c>
     </row>
     <row r="236" spans="8:10" x14ac:dyDescent="0.45">
@@ -15155,10 +15227,10 @@
         <v>404</v>
       </c>
       <c r="I236" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="J236">
-        <v>1.0633993681324588E-2</v>
+        <v>1.153547324666704E-4</v>
       </c>
     </row>
     <row r="237" spans="8:10" x14ac:dyDescent="0.45">
@@ -15166,10 +15238,10 @@
         <v>404</v>
       </c>
       <c r="I237" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="J237">
-        <v>1.0655403580794981E-2</v>
+        <v>1.153547324666704E-4</v>
       </c>
     </row>
     <row r="238" spans="8:10" x14ac:dyDescent="0.45">
@@ -15177,10 +15249,10 @@
         <v>404</v>
       </c>
       <c r="I238" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="J238">
-        <v>1.0698242787788503E-2</v>
+        <v>1.1541597465898886E-4</v>
       </c>
     </row>
     <row r="239" spans="8:10" x14ac:dyDescent="0.45">
@@ -15188,10 +15260,10 @@
         <v>404</v>
       </c>
       <c r="I239" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="J239">
-        <v>1.0768504947237675E-2</v>
+        <v>1.1543488768896956E-4</v>
       </c>
     </row>
     <row r="240" spans="8:10" x14ac:dyDescent="0.45">
@@ -15199,10 +15271,10 @@
         <v>404</v>
       </c>
       <c r="I240" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="J240">
-        <v>1.084243303742298E-2</v>
+        <v>1.1517610940574157E-4</v>
       </c>
     </row>
     <row r="241" spans="8:10" x14ac:dyDescent="0.45">
@@ -15210,10 +15282,10 @@
         <v>404</v>
       </c>
       <c r="I241" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="J241">
-        <v>1.0903671078414189E-2</v>
+        <v>1.1464264187755575E-4</v>
       </c>
     </row>
     <row r="242" spans="8:10" x14ac:dyDescent="0.45">
@@ -15221,10 +15293,10 @@
         <v>404</v>
       </c>
       <c r="I242" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="J242">
-        <v>1.0919226632685439E-2</v>
+        <v>1.1332803619048448E-4</v>
       </c>
     </row>
     <row r="243" spans="8:10" x14ac:dyDescent="0.45">
@@ -15232,10 +15304,10 @@
         <v>404</v>
       </c>
       <c r="I243" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="J243">
-        <v>1.09317717475502E-2</v>
+        <v>1.1278586266437106E-4</v>
       </c>
     </row>
     <row r="244" spans="8:10" x14ac:dyDescent="0.45">
@@ -15243,10 +15315,10 @@
         <v>404</v>
       </c>
       <c r="I244" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="J244">
-        <v>1.0935170348011494E-2</v>
+        <v>1.0232562637986329E-2</v>
       </c>
     </row>
     <row r="245" spans="8:10" x14ac:dyDescent="0.45">
@@ -15254,10 +15326,10 @@
         <v>404</v>
       </c>
       <c r="I245" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="J245">
-        <v>1.093794288225536E-2</v>
+        <v>1.020897838980722E-2</v>
       </c>
     </row>
     <row r="246" spans="8:10" x14ac:dyDescent="0.45">
@@ -15265,10 +15337,10 @@
         <v>404</v>
       </c>
       <c r="I246" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="J246">
-        <v>1.0930812301071999E-2</v>
+        <v>1.0201240558890512E-2</v>
       </c>
     </row>
     <row r="247" spans="8:10" x14ac:dyDescent="0.45">
@@ -15276,10 +15348,10 @@
         <v>404</v>
       </c>
       <c r="I247" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="J247">
-        <v>1.0927051208270817E-2</v>
+        <v>1.0198274215251794E-2</v>
       </c>
     </row>
     <row r="248" spans="8:10" x14ac:dyDescent="0.45">
@@ -15287,10 +15359,10 @@
         <v>404</v>
       </c>
       <c r="I248" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="J248">
-        <v>1.0924573551215358E-2</v>
+        <v>1.0218806861053857E-2</v>
       </c>
     </row>
     <row r="249" spans="8:10" x14ac:dyDescent="0.45">
@@ -15298,10 +15370,10 @@
         <v>404</v>
       </c>
       <c r="I249" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="J249">
-        <v>1.0924875628165265E-2</v>
+        <v>1.0259890765481141E-2</v>
       </c>
     </row>
     <row r="250" spans="8:10" x14ac:dyDescent="0.45">
@@ -15309,10 +15381,10 @@
         <v>404</v>
       </c>
       <c r="I250" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="J250">
-        <v>1.0918980901695099E-2</v>
+        <v>1.0327273988613652E-2</v>
       </c>
     </row>
     <row r="251" spans="8:10" x14ac:dyDescent="0.45">
@@ -15320,10 +15392,10 @@
         <v>404</v>
       </c>
       <c r="I251" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="J251">
-        <v>1.0915295562906229E-2</v>
+        <v>1.0398172933874798E-2</v>
       </c>
     </row>
     <row r="252" spans="8:10" x14ac:dyDescent="0.45">
@@ -15331,10 +15403,10 @@
         <v>404</v>
       </c>
       <c r="I252" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="J252">
-        <v>1.0906844295037209E-2</v>
+        <v>1.0456901794653601E-2</v>
       </c>
     </row>
     <row r="253" spans="8:10" x14ac:dyDescent="0.45">
@@ -15342,10 +15414,10 @@
         <v>404</v>
       </c>
       <c r="I253" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="J253">
-        <v>1.088945968831175E-2</v>
+        <v>1.0471819972412822E-2</v>
       </c>
     </row>
     <row r="254" spans="8:10" x14ac:dyDescent="0.45">
@@ -15353,10 +15425,10 @@
         <v>404</v>
       </c>
       <c r="I254" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="J254">
-        <v>1.0866823012088314E-2</v>
+        <v>1.048385106113515E-2</v>
       </c>
     </row>
     <row r="255" spans="8:10" x14ac:dyDescent="0.45">
@@ -15364,10 +15436,10 @@
         <v>404</v>
       </c>
       <c r="I255" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="J255">
-        <v>1.0795118083041086E-2</v>
+        <v>1.0487110406635159E-2</v>
       </c>
     </row>
     <row r="256" spans="8:10" x14ac:dyDescent="0.45">
@@ -15375,10 +15447,10 @@
         <v>404</v>
       </c>
       <c r="I256" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="J256">
-        <v>1.0723808201777051E-2</v>
+        <v>1.0489769338484984E-2</v>
       </c>
     </row>
     <row r="257" spans="8:10" x14ac:dyDescent="0.45">
@@ -15386,10 +15458,10 @@
         <v>404</v>
       </c>
       <c r="I257" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="J257">
-        <v>1.1710928858135537E-4</v>
+        <v>1.0482930927216248E-2</v>
       </c>
     </row>
     <row r="258" spans="8:10" x14ac:dyDescent="0.45">
@@ -15397,10 +15469,10 @@
         <v>404</v>
       </c>
       <c r="I258" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="J258">
-        <v>1.1685604479640696E-4</v>
+        <v>1.0479323942212784E-2</v>
       </c>
     </row>
     <row r="259" spans="8:10" x14ac:dyDescent="0.45">
@@ -15408,10 +15480,10 @@
         <v>404</v>
       </c>
       <c r="I259" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="J259">
-        <v>1.1683820190921035E-4</v>
+        <v>1.0476947805192193E-2</v>
       </c>
     </row>
     <row r="260" spans="8:10" x14ac:dyDescent="0.45">
@@ -15419,10 +15491,10 @@
         <v>404</v>
       </c>
       <c r="I260" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="J260">
-        <v>1.1718410349433766E-4</v>
+        <v>1.0477237504778405E-2</v>
       </c>
     </row>
     <row r="261" spans="8:10" x14ac:dyDescent="0.45">
@@ -15430,10 +15502,10 @@
         <v>404</v>
       </c>
       <c r="I261" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="J261">
-        <v>1.1783990785709035E-4</v>
+        <v>1.0471584310055126E-2</v>
       </c>
     </row>
     <row r="262" spans="8:10" x14ac:dyDescent="0.45">
@@ -15441,10 +15513,10 @@
         <v>404</v>
       </c>
       <c r="I262" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="J262">
-        <v>1.1890422042671285E-4</v>
+        <v>1.0468049975103337E-2</v>
       </c>
     </row>
     <row r="263" spans="8:10" x14ac:dyDescent="0.45">
@@ -15452,10 +15524,10 @@
         <v>404</v>
       </c>
       <c r="I263" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="J263">
-        <v>1.2000421877072857E-4</v>
+        <v>1.0459944991239544E-2</v>
       </c>
     </row>
     <row r="264" spans="8:10" x14ac:dyDescent="0.45">
@@ -15463,10 +15535,10 @@
         <v>404</v>
       </c>
       <c r="I264" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="J264">
-        <v>1.2069664800720062E-4</v>
+        <v>1.0443272705001318E-2</v>
       </c>
     </row>
     <row r="265" spans="8:10" x14ac:dyDescent="0.45">
@@ -15474,10 +15546,10 @@
         <v>404</v>
       </c>
       <c r="I265" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="J265">
-        <v>1.2087194654807961E-4</v>
+        <v>1.0421563548651725E-2</v>
       </c>
     </row>
     <row r="266" spans="8:10" x14ac:dyDescent="0.45">
@@ -15485,10 +15557,10 @@
         <v>404</v>
       </c>
       <c r="I266" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="J266">
-        <v>1.2097587354017218E-4</v>
+        <v>1.035279667226237E-2</v>
       </c>
     </row>
     <row r="267" spans="8:10" x14ac:dyDescent="0.45">
@@ -15496,10 +15568,10 @@
         <v>404</v>
       </c>
       <c r="I267" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="J267">
-        <v>1.2101813300984837E-4</v>
+        <v>1.0284408656886282E-2</v>
       </c>
     </row>
     <row r="268" spans="8:10" x14ac:dyDescent="0.45">
@@ -15507,10 +15579,10 @@
         <v>404</v>
       </c>
       <c r="I268" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="J268">
-        <v>1.2108261783024313E-4</v>
+        <v>1.1259992743675124E-4</v>
       </c>
     </row>
     <row r="269" spans="8:10" x14ac:dyDescent="0.45">
@@ -15518,10 +15590,10 @@
         <v>404</v>
       </c>
       <c r="I269" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="J269">
-        <v>1.2093956169956153E-4</v>
+        <v>1.1231082826418909E-4</v>
       </c>
     </row>
     <row r="270" spans="8:10" x14ac:dyDescent="0.45">
@@ -15529,10 +15601,10 @@
         <v>404</v>
       </c>
       <c r="I270" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="J270">
-        <v>1.2089198066703722E-4</v>
+        <v>1.1206796094269088E-4</v>
       </c>
     </row>
     <row r="271" spans="8:10" x14ac:dyDescent="0.45">
@@ -15540,10 +15612,10 @@
         <v>404</v>
       </c>
       <c r="I271" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="J271">
-        <v>1.2085973825683983E-4</v>
+        <v>1.1205084915366072E-4</v>
       </c>
     </row>
     <row r="272" spans="8:10" x14ac:dyDescent="0.45">
@@ -15551,10 +15623,10 @@
         <v>404</v>
       </c>
       <c r="I272" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="J272">
-        <v>1.2079494040333635E-4</v>
+        <v>1.1238257769538572E-4</v>
       </c>
     </row>
     <row r="273" spans="8:10" x14ac:dyDescent="0.45">
@@ -15562,10 +15634,10 @@
         <v>404</v>
       </c>
       <c r="I273" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="J273">
-        <v>1.2074266387418135E-4</v>
+        <v>1.1301151099395031E-4</v>
       </c>
     </row>
     <row r="274" spans="8:10" x14ac:dyDescent="0.45">
@@ -15573,10 +15645,10 @@
         <v>404</v>
       </c>
       <c r="I274" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="J274">
-        <v>1.2073421198024611E-4</v>
+        <v>1.1403221419925798E-4</v>
       </c>
     </row>
     <row r="275" spans="8:10" x14ac:dyDescent="0.45">
@@ -15584,10 +15656,10 @@
         <v>404</v>
       </c>
       <c r="I275" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="J275">
-        <v>1.2064656270980663E-4</v>
+        <v>1.1508714098262596E-4</v>
       </c>
     </row>
     <row r="276" spans="8:10" x14ac:dyDescent="0.45">
@@ -15595,10 +15667,10 @@
         <v>404</v>
       </c>
       <c r="I276" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="J276">
-        <v>1.2040208385190215E-4</v>
+        <v>1.1575119847972611E-4</v>
       </c>
     </row>
     <row r="277" spans="8:10" x14ac:dyDescent="0.45">
@@ -15606,10 +15678,10 @@
         <v>404</v>
       </c>
       <c r="I277" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="J277">
-        <v>1.2009875476955973E-4</v>
+        <v>1.159193143017768E-4</v>
       </c>
     </row>
     <row r="278" spans="8:10" x14ac:dyDescent="0.45">
@@ -15617,10 +15689,10 @@
         <v>404</v>
       </c>
       <c r="I278" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="J278">
-        <v>1.189984433924353E-4</v>
+        <v>1.1601898296770684E-4</v>
       </c>
     </row>
     <row r="279" spans="8:10" x14ac:dyDescent="0.45">
@@ -15628,10 +15700,10 @@
         <v>404</v>
       </c>
       <c r="I279" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="J279">
-        <v>1.180314841196224E-4</v>
+        <v>1.1605951088909407E-4</v>
       </c>
     </row>
     <row r="280" spans="8:10" x14ac:dyDescent="0.45">
@@ -15639,10 +15711,10 @@
         <v>404</v>
       </c>
       <c r="I280" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="J280">
-        <v>1.0526781453630491E-2</v>
+        <v>1.161213534950627E-4</v>
       </c>
     </row>
     <row r="281" spans="8:10" x14ac:dyDescent="0.45">
@@ -15650,10 +15722,10 @@
         <v>404</v>
       </c>
       <c r="I281" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="J281">
-        <v>1.0518978164296507E-2</v>
+        <v>1.1598415897599634E-4</v>
       </c>
     </row>
     <row r="282" spans="8:10" x14ac:dyDescent="0.45">
@@ -15661,10 +15733,10 @@
         <v>404</v>
       </c>
       <c r="I282" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="J282">
-        <v>1.0519378846675658E-2</v>
+        <v>1.1593852753858259E-4</v>
       </c>
     </row>
     <row r="283" spans="8:10" x14ac:dyDescent="0.45">
@@ -15672,10 +15744,10 @@
         <v>404</v>
       </c>
       <c r="I283" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="J283">
-        <v>1.0540630038359932E-2</v>
+        <v>1.1590760623559826E-4</v>
       </c>
     </row>
     <row r="284" spans="8:10" x14ac:dyDescent="0.45">
@@ -15683,10 +15755,10 @@
         <v>404</v>
       </c>
       <c r="I284" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="J284">
-        <v>1.0595122841924605E-2</v>
+        <v>1.1584546342280454E-4</v>
       </c>
     </row>
     <row r="285" spans="8:10" x14ac:dyDescent="0.45">
@@ -15694,10 +15766,10 @@
         <v>404</v>
       </c>
       <c r="I285" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="J285">
-        <v>1.0660785292874356E-2</v>
+        <v>1.1579532888301441E-4</v>
       </c>
     </row>
     <row r="286" spans="8:10" x14ac:dyDescent="0.45">
@@ -15705,10 +15777,10 @@
         <v>404</v>
       </c>
       <c r="I286" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="J286">
-        <v>1.0729472269720488E-2</v>
+        <v>1.1578722329873699E-4</v>
       </c>
     </row>
     <row r="287" spans="8:10" x14ac:dyDescent="0.45">
@@ -15716,10 +15788,10 @@
         <v>404</v>
       </c>
       <c r="I287" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="J287">
-        <v>1.0783185933877573E-2</v>
+        <v>1.1570316538771165E-4</v>
       </c>
     </row>
     <row r="288" spans="8:10" x14ac:dyDescent="0.45">
@@ -15727,10 +15799,10 @@
         <v>404</v>
       </c>
       <c r="I288" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="J288">
-        <v>1.0799163456779368E-2</v>
+        <v>1.1546870385731596E-4</v>
       </c>
     </row>
     <row r="289" spans="8:10" x14ac:dyDescent="0.45">
@@ -15738,10 +15810,10 @@
         <v>404</v>
       </c>
       <c r="I289" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="J289">
-        <v>1.0799056712489296E-2</v>
+        <v>1.1517780344380328E-4</v>
       </c>
     </row>
     <row r="290" spans="8:10" x14ac:dyDescent="0.45">
@@ -15749,10 +15821,10 @@
         <v>404</v>
       </c>
       <c r="I290" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="J290">
-        <v>1.0797851848053864E-2</v>
+        <v>1.141225764536102E-4</v>
       </c>
     </row>
     <row r="291" spans="8:10" x14ac:dyDescent="0.45">
@@ -15760,10 +15832,10 @@
         <v>404</v>
       </c>
       <c r="I291" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="J291">
-        <v>1.0796477319673507E-2</v>
+        <v>1.1319523757090567E-4</v>
       </c>
     </row>
     <row r="292" spans="8:10" x14ac:dyDescent="0.45">
@@ -15771,10 +15843,10 @@
         <v>404</v>
       </c>
       <c r="I292" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="J292">
-        <v>1.0793517278597521E-2</v>
+        <v>1.0121712213395891E-2</v>
       </c>
     </row>
     <row r="293" spans="8:10" x14ac:dyDescent="0.45">
@@ -15782,10 +15854,10 @@
         <v>404</v>
       </c>
       <c r="I293" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="J293">
-        <v>1.0791705755997402E-2</v>
+        <v>1.0095454923646175E-2</v>
       </c>
     </row>
     <row r="294" spans="8:10" x14ac:dyDescent="0.45">
@@ -15793,10 +15865,10 @@
         <v>404</v>
       </c>
       <c r="I294" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="J294">
-        <v>1.0791829091042234E-2</v>
+        <v>1.008797136791032E-2</v>
       </c>
     </row>
     <row r="295" spans="8:10" x14ac:dyDescent="0.45">
@@ -15804,10 +15876,10 @@
         <v>404</v>
       </c>
       <c r="I295" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="J295">
-        <v>1.0800177371018488E-2</v>
+        <v>1.0088355632646435E-2</v>
       </c>
     </row>
     <row r="296" spans="8:10" x14ac:dyDescent="0.45">
@@ -15815,10 +15887,10 @@
         <v>404</v>
       </c>
       <c r="I296" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="J296">
-        <v>1.0805163988440279E-2</v>
+        <v>1.0108736073588179E-2</v>
       </c>
     </row>
     <row r="297" spans="8:10" x14ac:dyDescent="0.45">
@@ -15826,10 +15898,10 @@
         <v>404</v>
       </c>
       <c r="I297" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="J297">
-        <v>1.0808642412344291E-2</v>
+        <v>1.0160996077699932E-2</v>
       </c>
     </row>
     <row r="298" spans="8:10" x14ac:dyDescent="0.45">
@@ -15837,10 +15909,10 @@
         <v>404</v>
       </c>
       <c r="I298" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="J298">
-        <v>1.0801156225549433E-2</v>
+        <v>1.0223968061744563E-2</v>
       </c>
     </row>
     <row r="299" spans="8:10" x14ac:dyDescent="0.45">
@@ -15848,10 +15920,10 @@
         <v>404</v>
       </c>
       <c r="I299" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="J299">
-        <v>1.0783344015597473E-2</v>
+        <v>1.0289840644133219E-2</v>
       </c>
     </row>
     <row r="300" spans="8:10" x14ac:dyDescent="0.45">
@@ -15859,10 +15931,10 @@
         <v>404</v>
       </c>
       <c r="I300" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="J300">
-        <v>1.0744582377878039E-2</v>
+        <v>1.0341353433457321E-2</v>
       </c>
     </row>
     <row r="301" spans="8:10" x14ac:dyDescent="0.45">
@@ -15870,10 +15942,10 @@
         <v>404</v>
       </c>
       <c r="I301" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="J301">
-        <v>1.0669662285771224E-2</v>
+        <v>1.0356676290016766E-2</v>
       </c>
     </row>
     <row r="302" spans="8:10" x14ac:dyDescent="0.45">
@@ -15881,10 +15953,10 @@
         <v>404</v>
       </c>
       <c r="I302" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="J302">
-        <v>1.0599133422113428E-2</v>
+        <v>1.0356573919489409E-2</v>
       </c>
     </row>
     <row r="303" spans="8:10" x14ac:dyDescent="0.45">
@@ -15892,10 +15964,10 @@
         <v>404</v>
       </c>
       <c r="I303" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="J303">
-        <v>1.1710281018445832E-4</v>
+        <v>1.0355418423419636E-2</v>
       </c>
     </row>
     <row r="304" spans="8:10" x14ac:dyDescent="0.45">
@@ -15903,10 +15975,10 @@
         <v>404</v>
       </c>
       <c r="I304" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="J304">
-        <v>1.1710281018445832E-4</v>
+        <v>1.0354100215250664E-2</v>
       </c>
     </row>
     <row r="305" spans="8:10" x14ac:dyDescent="0.45">
@@ -15914,10 +15986,10 @@
         <v>404</v>
       </c>
       <c r="I305" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="J305">
-        <v>1.1712347036963335E-4</v>
+        <v>1.0351261459512607E-2</v>
       </c>
     </row>
     <row r="306" spans="8:10" x14ac:dyDescent="0.45">
@@ -15925,10 +15997,10 @@
         <v>404</v>
       </c>
       <c r="I306" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="J306">
-        <v>1.1755702122520017E-4</v>
+        <v>1.034952416261581E-2</v>
       </c>
     </row>
     <row r="307" spans="8:10" x14ac:dyDescent="0.45">
@@ -15936,10 +16008,10 @@
         <v>404</v>
       </c>
       <c r="I307" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="J307">
-        <v>1.1837372460583107E-4</v>
+        <v>1.0349642444104894E-2</v>
       </c>
     </row>
     <row r="308" spans="8:10" x14ac:dyDescent="0.45">
@@ -15947,10 +16019,10 @@
         <v>404</v>
       </c>
       <c r="I308" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="J308">
-        <v>1.1926993839607496E-4</v>
+        <v>1.0357648659923233E-2</v>
       </c>
     </row>
     <row r="309" spans="8:10" x14ac:dyDescent="0.45">
@@ -15958,10 +16030,10 @@
         <v>404</v>
       </c>
       <c r="I309" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="J309">
-        <v>1.2011356262405514E-4</v>
+        <v>1.0362430954646926E-2</v>
       </c>
     </row>
     <row r="310" spans="8:10" x14ac:dyDescent="0.45">
@@ -15969,10 +16041,10 @@
         <v>404</v>
       </c>
       <c r="I310" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="J310">
-        <v>1.2047073340109612E-4</v>
+        <v>1.036576685288733E-2</v>
       </c>
     </row>
     <row r="311" spans="8:10" x14ac:dyDescent="0.45">
@@ -15980,10 +16052,10 @@
         <v>404</v>
       </c>
       <c r="I311" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="J311">
-        <v>1.2045570781187791E-4</v>
+        <v>1.0358587406665291E-2</v>
       </c>
     </row>
     <row r="312" spans="8:10" x14ac:dyDescent="0.45">
@@ -15991,10 +16063,10 @@
         <v>404</v>
       </c>
       <c r="I312" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="J312">
-        <v>1.2045570781187791E-4</v>
+        <v>1.0341505037903992E-2</v>
       </c>
     </row>
     <row r="313" spans="8:10" x14ac:dyDescent="0.45">
@@ -16002,10 +16074,10 @@
         <v>404</v>
       </c>
       <c r="I313" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="J313">
-        <v>1.2044412558685556E-4</v>
+        <v>1.0304331627580337E-2</v>
       </c>
     </row>
     <row r="314" spans="8:10" x14ac:dyDescent="0.45">
@@ -16013,10 +16085,10 @@
         <v>404</v>
       </c>
       <c r="I314" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="J314">
-        <v>1.2046822913622642E-4</v>
+        <v>1.023248132689048E-2</v>
       </c>
     </row>
     <row r="315" spans="8:10" x14ac:dyDescent="0.45">
@@ -16024,10 +16096,10 @@
         <v>404</v>
       </c>
       <c r="I315" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="J315">
-        <v>1.2045664691120405E-4</v>
+        <v>1.016484232754299E-2</v>
       </c>
     </row>
     <row r="316" spans="8:10" x14ac:dyDescent="0.45">
@@ -16035,10 +16107,10 @@
         <v>404</v>
       </c>
       <c r="I316" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="J316">
-        <v>1.2043629975913774E-4</v>
+        <v>1.1243430466291134E-4</v>
       </c>
     </row>
     <row r="317" spans="8:10" x14ac:dyDescent="0.45">
@@ -16046,10 +16118,10 @@
         <v>404</v>
       </c>
       <c r="I317" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="J317">
-        <v>1.2043191729561577E-4</v>
+        <v>1.1230461531447224E-4</v>
       </c>
     </row>
     <row r="318" spans="8:10" x14ac:dyDescent="0.45">
@@ -16057,10 +16129,10 @@
         <v>404</v>
       </c>
       <c r="I318" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="J318">
-        <v>1.2044944714970367E-4</v>
+        <v>1.1230461531447224E-4</v>
       </c>
     </row>
     <row r="319" spans="8:10" x14ac:dyDescent="0.45">
@@ -16068,10 +16140,10 @@
         <v>404</v>
       </c>
       <c r="I319" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="J319">
-        <v>1.2042534360033281E-4</v>
+        <v>1.1232442896492823E-4</v>
       </c>
     </row>
     <row r="320" spans="8:10" x14ac:dyDescent="0.45">
@@ -16079,10 +16151,10 @@
         <v>404</v>
       </c>
       <c r="I320" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="J320">
-        <v>1.2046729003690028E-4</v>
+        <v>1.1274021541767856E-4</v>
       </c>
     </row>
     <row r="321" spans="8:10" x14ac:dyDescent="0.45">
@@ -16090,10 +16162,10 @@
         <v>404</v>
       </c>
       <c r="I321" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="J321">
-        <v>1.2043379549426804E-4</v>
+        <v>1.1352345502433964E-4</v>
       </c>
     </row>
     <row r="322" spans="8:10" x14ac:dyDescent="0.45">
@@ -16101,10 +16173,10 @@
         <v>404</v>
       </c>
       <c r="I322" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="J322">
-        <v>1.2018055170931963E-4</v>
+        <v>1.143829471645737E-4</v>
       </c>
     </row>
     <row r="323" spans="8:10" x14ac:dyDescent="0.45">
@@ -16112,10 +16184,10 @@
         <v>404</v>
       </c>
       <c r="I323" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="J323">
-        <v>1.1964745632518223E-4</v>
+        <v>1.1519200455819259E-4</v>
       </c>
     </row>
     <row r="324" spans="8:10" x14ac:dyDescent="0.45">
@@ -16123,10 +16195,10 @@
         <v>404</v>
       </c>
       <c r="I324" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="J324">
-        <v>1.1824256373328054E-4</v>
+        <v>1.1553454054562086E-4</v>
       </c>
     </row>
     <row r="325" spans="8:10" x14ac:dyDescent="0.45">
@@ -16134,10 +16206,10 @@
         <v>404</v>
       </c>
       <c r="I325" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="J325">
-        <v>1.1765437452200975E-4</v>
+        <v>1.155201306180165E-4</v>
       </c>
     </row>
     <row r="326" spans="8:10" x14ac:dyDescent="0.45">
@@ -16145,10 +16217,10 @@
         <v>404</v>
       </c>
       <c r="I326" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="J326">
-        <v>1.0336117912634342E-2</v>
+        <v>1.155201306180165E-4</v>
       </c>
     </row>
     <row r="327" spans="8:10" x14ac:dyDescent="0.45">
@@ -16156,10 +16228,10 @@
         <v>404</v>
       </c>
       <c r="I327" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="J327">
-        <v>1.032597250958097E-2</v>
+        <v>1.1550902296548816E-4</v>
       </c>
     </row>
     <row r="328" spans="8:10" x14ac:dyDescent="0.45">
@@ -16167,10 +16239,10 @@
         <v>404</v>
       </c>
       <c r="I328" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="J328">
-        <v>1.0326942599184869E-2</v>
+        <v>1.1553213889102012E-4</v>
       </c>
     </row>
     <row r="329" spans="8:10" x14ac:dyDescent="0.45">
@@ -16178,10 +16250,10 @@
         <v>404</v>
       </c>
       <c r="I329" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="J329">
-        <v>1.0358243405791249E-2</v>
+        <v>1.1552103123849177E-4</v>
       </c>
     </row>
     <row r="330" spans="8:10" x14ac:dyDescent="0.45">
@@ -16189,10 +16261,10 @@
         <v>404</v>
       </c>
       <c r="I330" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="J330">
-        <v>1.0510362158003198E-2</v>
+        <v>1.1550151779486089E-4</v>
       </c>
     </row>
     <row r="331" spans="8:10" x14ac:dyDescent="0.45">
@@ -16200,10 +16272,10 @@
         <v>404</v>
       </c>
       <c r="I331" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="J331">
-        <v>1.0611745756087461E-2</v>
+        <v>1.1549731489930963E-4</v>
       </c>
     </row>
     <row r="332" spans="8:10" x14ac:dyDescent="0.45">
@@ -16211,10 +16283,10 @@
         <v>404</v>
       </c>
       <c r="I332" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="J332">
-        <v>1.0675976080564852E-2</v>
+        <v>1.1551412648151469E-4</v>
       </c>
     </row>
     <row r="333" spans="8:10" x14ac:dyDescent="0.45">
@@ -16222,10 +16294,10 @@
         <v>404</v>
       </c>
       <c r="I333" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="J333">
-        <v>1.0715010057088865E-2</v>
+        <v>1.1549101055598273E-4</v>
       </c>
     </row>
     <row r="334" spans="8:10" x14ac:dyDescent="0.45">
@@ -16233,10 +16305,10 @@
         <v>404</v>
       </c>
       <c r="I334" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="J334">
-        <v>1.0730849219356608E-2</v>
+        <v>1.1553123827054486E-4</v>
       </c>
     </row>
     <row r="335" spans="8:10" x14ac:dyDescent="0.45">
@@ -16244,10 +16316,10 @@
         <v>404</v>
       </c>
       <c r="I335" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="J335">
-        <v>1.0722353500786153E-2</v>
+        <v>1.1549911614026017E-4</v>
       </c>
     </row>
     <row r="336" spans="8:10" x14ac:dyDescent="0.45">
@@ -16255,10 +16327,10 @@
         <v>404</v>
       </c>
       <c r="I336" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="J336">
-        <v>1.0712557442682102E-2</v>
+        <v>1.1525624881876196E-4</v>
       </c>
     </row>
     <row r="337" spans="8:10" x14ac:dyDescent="0.45">
@@ -16266,10 +16338,10 @@
         <v>404</v>
       </c>
       <c r="I337" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="J337">
-        <v>1.0703810671558458E-2</v>
+        <v>1.1474499659563285E-4</v>
       </c>
     </row>
     <row r="338" spans="8:10" x14ac:dyDescent="0.45">
@@ -16277,10 +16349,10 @@
         <v>404</v>
       </c>
       <c r="I338" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="J338">
-        <v>1.0698235864925397E-2</v>
+        <v>1.1339766836462673E-4</v>
       </c>
     </row>
     <row r="339" spans="8:10" x14ac:dyDescent="0.45">
@@ -16288,10 +16360,10 @@
         <v>404</v>
       </c>
       <c r="I339" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="J339">
-        <v>1.0696177046169394E-2</v>
+        <v>1.128335797402817E-4</v>
       </c>
     </row>
     <row r="340" spans="8:10" x14ac:dyDescent="0.45">
@@ -16299,10 +16371,10 @@
         <v>404</v>
       </c>
       <c r="I340" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="J340">
-        <v>1.0704754466381226E-2</v>
+        <v>9.94810042539041E-3</v>
       </c>
     </row>
     <row r="341" spans="8:10" x14ac:dyDescent="0.45">
@@ -16310,10 +16382,10 @@
         <v>404</v>
       </c>
       <c r="I341" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="J341">
-        <v>1.0739337425132457E-2</v>
+        <v>9.9126036701848858E-3</v>
       </c>
     </row>
     <row r="342" spans="8:10" x14ac:dyDescent="0.45">
@@ -16321,10 +16393,10 @@
         <v>404</v>
       </c>
       <c r="I342" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="J342">
-        <v>1.0763020884071427E-2</v>
+        <v>9.9028739669837027E-3</v>
       </c>
     </row>
     <row r="343" spans="8:10" x14ac:dyDescent="0.45">
@@ -16332,10 +16404,10 @@
         <v>404</v>
       </c>
       <c r="I343" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="J343">
-        <v>1.0770671726281468E-2</v>
+        <v>9.9038043079346574E-3</v>
       </c>
     </row>
     <row r="344" spans="8:10" x14ac:dyDescent="0.45">
@@ -16343,10 +16415,10 @@
         <v>404</v>
       </c>
       <c r="I344" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="J344">
-        <v>1.0734167057275852E-2</v>
+        <v>9.9338225887891062E-3</v>
       </c>
     </row>
     <row r="345" spans="8:10" x14ac:dyDescent="0.45">
@@ -16354,10 +16426,10 @@
         <v>404</v>
       </c>
       <c r="I345" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="J345">
-        <v>1.0657502118621074E-2</v>
+        <v>1.0079708395648656E-2</v>
       </c>
     </row>
     <row r="346" spans="8:10" x14ac:dyDescent="0.45">
@@ -16365,10 +16437,10 @@
         <v>404</v>
       </c>
       <c r="I346" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="J346">
-        <v>1.061210261383139E-2</v>
+        <v>1.017693788112484E-2</v>
       </c>
     </row>
     <row r="347" spans="8:10" x14ac:dyDescent="0.45">
@@ -16376,10 +16448,10 @@
         <v>404</v>
       </c>
       <c r="I347" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="J347">
-        <v>1.05487813375017E-2</v>
+        <v>1.0238536418944682E-2</v>
       </c>
     </row>
     <row r="348" spans="8:10" x14ac:dyDescent="0.45">
@@ -16387,10 +16459,10 @@
         <v>404</v>
       </c>
       <c r="I348" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="J348">
-        <v>1.0416800944272553E-2</v>
+        <v>1.0275971009206165E-2</v>
       </c>
     </row>
     <row r="349" spans="8:10" x14ac:dyDescent="0.45">
@@ -16398,10 +16470,10 @@
         <v>404</v>
       </c>
       <c r="I349" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="J349">
-        <v>1.1608232439584701E-4</v>
+        <v>1.0291161174348919E-2</v>
       </c>
     </row>
     <row r="350" spans="8:10" x14ac:dyDescent="0.45">
@@ -16409,10 +16481,10 @@
         <v>404</v>
       </c>
       <c r="I350" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="J350">
-        <v>1.1598152773484158E-4</v>
+        <v>1.0283013561115965E-2</v>
       </c>
     </row>
     <row r="351" spans="8:10" x14ac:dyDescent="0.45">
@@ -16420,10 +16492,10 @@
         <v>404</v>
       </c>
       <c r="I351" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="J351">
-        <v>1.1598152773484158E-4</v>
+        <v>1.0273618888731581E-2</v>
       </c>
     </row>
     <row r="352" spans="8:10" x14ac:dyDescent="0.45">
@@ -16431,10 +16503,10 @@
         <v>404</v>
       </c>
       <c r="I352" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="J352">
-        <v>1.1641507859040841E-4</v>
+        <v>1.0265230509624903E-2</v>
       </c>
     </row>
     <row r="353" spans="8:10" x14ac:dyDescent="0.45">
@@ -16442,10 +16514,10 @@
         <v>404</v>
       </c>
       <c r="I353" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="J353">
-        <v>1.1815710784039348E-4</v>
+        <v>1.0259884126276866E-2</v>
       </c>
     </row>
     <row r="354" spans="8:10" x14ac:dyDescent="0.45">
@@ -16453,10 +16525,10 @@
         <v>404</v>
       </c>
       <c r="I354" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="J354">
-        <v>1.1956732199514328E-4</v>
+        <v>1.0257909665988246E-2</v>
       </c>
     </row>
     <row r="355" spans="8:10" x14ac:dyDescent="0.45">
@@ -16464,10 +16536,10 @@
         <v>404</v>
       </c>
       <c r="I355" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="J355">
-        <v>1.2055024595650054E-4</v>
+        <v>1.0266135633202552E-2</v>
       </c>
     </row>
     <row r="356" spans="8:10" x14ac:dyDescent="0.45">
@@ -16475,10 +16547,10 @@
         <v>404</v>
       </c>
       <c r="I356" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="J356">
-        <v>1.2104139490407044E-4</v>
+        <v>1.0299301582618072E-2</v>
       </c>
     </row>
     <row r="357" spans="8:10" x14ac:dyDescent="0.45">
@@ -16486,10 +16558,10 @@
         <v>404</v>
       </c>
       <c r="I357" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="J357">
-        <v>1.2110212332716067E-4</v>
+        <v>1.032201463059077E-2</v>
       </c>
     </row>
     <row r="358" spans="8:10" x14ac:dyDescent="0.45">
@@ -16497,10 +16569,10 @@
         <v>404</v>
       </c>
       <c r="I358" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="J358">
-        <v>1.2107113304939813E-4</v>
+        <v>1.0329351985602805E-2</v>
       </c>
     </row>
     <row r="359" spans="8:10" x14ac:dyDescent="0.45">
@@ -16508,10 +16580,10 @@
         <v>404</v>
       </c>
       <c r="I359" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="J359">
-        <v>1.2107113304939813E-4</v>
+        <v>1.0294343066488054E-2</v>
       </c>
     </row>
     <row r="360" spans="8:10" x14ac:dyDescent="0.45">
@@ -16519,10 +16591,10 @@
         <v>404</v>
       </c>
       <c r="I360" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="J360">
-        <v>1.2106174205613676E-4</v>
+        <v>1.0220819412955141E-2</v>
       </c>
     </row>
     <row r="361" spans="8:10" x14ac:dyDescent="0.45">
@@ -16530,10 +16602,10 @@
         <v>404</v>
       </c>
       <c r="I361" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="J361">
-        <v>1.2106174205613676E-4</v>
+        <v>1.0177280116905442E-2</v>
       </c>
     </row>
     <row r="362" spans="8:10" x14ac:dyDescent="0.45">
@@ -16541,10 +16613,10 @@
         <v>404</v>
       </c>
       <c r="I362" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="J362">
-        <v>1.2104859466557084E-4</v>
+        <v>1.0116553379705661E-2</v>
       </c>
     </row>
     <row r="363" spans="8:10" x14ac:dyDescent="0.45">
@@ -16552,10 +16624,10 @@
         <v>404</v>
       </c>
       <c r="I363" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="J363">
-        <v>1.2104859466557084E-4</v>
+        <v>9.9899807785246587E-3</v>
       </c>
     </row>
     <row r="364" spans="8:10" x14ac:dyDescent="0.45">
@@ -16563,10 +16635,10 @@
         <v>404</v>
       </c>
       <c r="I364" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="J364">
-        <v>1.2135380194656553E-4</v>
+        <v>1.1168378965805445E-4</v>
       </c>
     </row>
     <row r="365" spans="8:10" x14ac:dyDescent="0.45">
@@ -16574,10 +16646,10 @@
         <v>404</v>
       </c>
       <c r="I365" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="J365">
-        <v>1.213885486216326E-4</v>
+        <v>1.1132594312254658E-4</v>
       </c>
     </row>
     <row r="366" spans="8:10" x14ac:dyDescent="0.45">
@@ -16585,10 +16657,10 @@
         <v>404</v>
       </c>
       <c r="I366" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="J366">
-        <v>1.213885486216326E-4</v>
+        <v>1.1122927652486745E-4</v>
       </c>
     </row>
     <row r="367" spans="8:10" x14ac:dyDescent="0.45">
@@ -16596,10 +16668,10 @@
         <v>404</v>
       </c>
       <c r="I367" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="J367">
-        <v>1.2098160558030635E-4</v>
+        <v>1.1122927652486745E-4</v>
       </c>
     </row>
     <row r="368" spans="8:10" x14ac:dyDescent="0.45">
@@ -16607,10 +16679,10 @@
         <v>404</v>
       </c>
       <c r="I368" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="J368">
-        <v>1.1998772546014418E-4</v>
+        <v>1.1164506297761778E-4</v>
       </c>
     </row>
     <row r="369" spans="8:10" x14ac:dyDescent="0.45">
@@ -16618,10 +16690,10 @@
         <v>404</v>
       </c>
       <c r="I369" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="J369">
-        <v>1.1941080544078703E-4</v>
+        <v>1.1331571395924637E-4</v>
       </c>
     </row>
     <row r="370" spans="8:10" x14ac:dyDescent="0.45">
@@ -16629,10 +16701,10 @@
         <v>404</v>
       </c>
       <c r="I370" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="J370">
-        <v>1.1868018616505205E-4</v>
+        <v>1.1466814570627903E-4</v>
       </c>
     </row>
     <row r="371" spans="8:10" x14ac:dyDescent="0.45">
@@ -16640,10 +16712,186 @@
         <v>404</v>
       </c>
       <c r="I371" t="s">
+        <v>379</v>
+      </c>
+      <c r="J371">
+        <v>1.1561079513706318E-4</v>
+      </c>
+    </row>
+    <row r="372" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H372" t="s">
+        <v>404</v>
+      </c>
+      <c r="I372" t="s">
+        <v>380</v>
+      </c>
+      <c r="J372">
+        <v>1.1608181964563015E-4</v>
+      </c>
+    </row>
+    <row r="373" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H373" t="s">
+        <v>404</v>
+      </c>
+      <c r="I373" t="s">
+        <v>381</v>
+      </c>
+      <c r="J373">
+        <v>1.161400597696977E-4</v>
+      </c>
+    </row>
+    <row r="374" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H374" t="s">
+        <v>404</v>
+      </c>
+      <c r="I374" t="s">
+        <v>382</v>
+      </c>
+      <c r="J374">
+        <v>1.1611033929401374E-4</v>
+      </c>
+    </row>
+    <row r="375" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H375" t="s">
+        <v>404</v>
+      </c>
+      <c r="I375" t="s">
+        <v>383</v>
+      </c>
+      <c r="J375">
+        <v>1.1611033929401374E-4</v>
+      </c>
+    </row>
+    <row r="376" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H376" t="s">
+        <v>404</v>
+      </c>
+      <c r="I376" t="s">
+        <v>384</v>
+      </c>
+      <c r="J376">
+        <v>1.1610133308926104E-4</v>
+      </c>
+    </row>
+    <row r="377" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H377" t="s">
+        <v>404</v>
+      </c>
+      <c r="I377" t="s">
+        <v>385</v>
+      </c>
+      <c r="J377">
+        <v>1.1610133308926104E-4</v>
+      </c>
+    </row>
+    <row r="378" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H378" t="s">
+        <v>404</v>
+      </c>
+      <c r="I378" t="s">
+        <v>386</v>
+      </c>
+      <c r="J378">
+        <v>1.1608872440260724E-4</v>
+      </c>
+    </row>
+    <row r="379" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H379" t="s">
+        <v>404</v>
+      </c>
+      <c r="I379" t="s">
+        <v>387</v>
+      </c>
+      <c r="J379">
+        <v>1.1608872440260724E-4</v>
+      </c>
+    </row>
+    <row r="380" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H380" t="s">
+        <v>404</v>
+      </c>
+      <c r="I380" t="s">
+        <v>388</v>
+      </c>
+      <c r="J380">
+        <v>1.1638142605707047E-4</v>
+      </c>
+    </row>
+    <row r="381" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H381" t="s">
+        <v>404</v>
+      </c>
+      <c r="I381" t="s">
+        <v>389</v>
+      </c>
+      <c r="J381">
+        <v>1.1641474901465549E-4</v>
+      </c>
+    </row>
+    <row r="382" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H382" t="s">
+        <v>404</v>
+      </c>
+      <c r="I382" t="s">
+        <v>390</v>
+      </c>
+      <c r="J382">
+        <v>1.1641474901465549E-4</v>
+      </c>
+    </row>
+    <row r="383" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H383" t="s">
+        <v>404</v>
+      </c>
+      <c r="I383" t="s">
+        <v>391</v>
+      </c>
+      <c r="J383">
+        <v>1.1602448014203785E-4</v>
+      </c>
+    </row>
+    <row r="384" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H384" t="s">
+        <v>404</v>
+      </c>
+      <c r="I384" t="s">
+        <v>392</v>
+      </c>
+      <c r="J384">
+        <v>1.1507132347237556E-4</v>
+      </c>
+    </row>
+    <row r="385" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H385" t="s">
+        <v>404</v>
+      </c>
+      <c r="I385" t="s">
+        <v>393</v>
+      </c>
+      <c r="J385">
+        <v>1.1451804229373379E-4</v>
+      </c>
+    </row>
+    <row r="386" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H386" t="s">
+        <v>404</v>
+      </c>
+      <c r="I386" t="s">
         <v>394</v>
       </c>
-      <c r="J371">
-        <v>1.1702956258281103E-4</v>
+      <c r="J386">
+        <v>1.1381735956397256E-4</v>
+      </c>
+    </row>
+    <row r="387" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H387" t="s">
+        <v>404</v>
+      </c>
+      <c r="I387" t="s">
+        <v>395</v>
+      </c>
+      <c r="J387">
+        <v>1.122343689752704E-4</v>
       </c>
     </row>
   </sheetData>
